--- a/hiv-southafrica/hiv_southafrica_databook.xlsx
+++ b/hiv-southafrica/hiv_southafrica_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/hiv-southafrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B0E3ED-49BB-664B-A0A8-4E9BEDB56320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F418F3-F6A2-C947-9CD4-E5F558BFC926}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27600" windowHeight="12840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="25600" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Robyn Stuart</author>
+  </authors>
+  <commentList>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{2F733187-B6E3-EC47-AE14-2A4DE265F18C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://www.statssa.gov.za/publications/P0302/P03022018.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{015B21A3-E27F-FB48-B9B8-F8A068542526}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://www.statssa.gov.za/publications/P0302/P03022018.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="109">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -208,16 +284,161 @@
   <si>
     <t>Duration</t>
   </si>
+  <si>
+    <t>15-24</t>
+  </si>
+  <si>
+    <t>Males 15-19</t>
+  </si>
+  <si>
+    <t>Females 15-19</t>
+  </si>
+  <si>
+    <t>Males 20-24</t>
+  </si>
+  <si>
+    <t>Females 20-24</t>
+  </si>
+  <si>
+    <t>Males 25-29</t>
+  </si>
+  <si>
+    <t>Females 25-29</t>
+  </si>
+  <si>
+    <t>Males 30-34</t>
+  </si>
+  <si>
+    <t>Females 30-34</t>
+  </si>
+  <si>
+    <t>Males 35-39</t>
+  </si>
+  <si>
+    <t>Females 35-39</t>
+  </si>
+  <si>
+    <t>Males 40-44</t>
+  </si>
+  <si>
+    <t>Females 40-44</t>
+  </si>
+  <si>
+    <t>Males 45-49</t>
+  </si>
+  <si>
+    <t>Females 45-49</t>
+  </si>
+  <si>
+    <t>Males 50-54</t>
+  </si>
+  <si>
+    <t>Females 50-54</t>
+  </si>
+  <si>
+    <t>Males 55-59</t>
+  </si>
+  <si>
+    <t>Females 55-59</t>
+  </si>
+  <si>
+    <t>Males 60+</t>
+  </si>
+  <si>
+    <t>Females 60+</t>
+  </si>
+  <si>
+    <t>Prevalence 2017 (HSRC)</t>
+  </si>
+  <si>
+    <t>Pop size</t>
+  </si>
+  <si>
+    <t>Males 0-4</t>
+  </si>
+  <si>
+    <t>Males 5-9</t>
+  </si>
+  <si>
+    <t>Males 10-14</t>
+  </si>
+  <si>
+    <t>Females 0-4</t>
+  </si>
+  <si>
+    <t>Females 10-14</t>
+  </si>
+  <si>
+    <t>Females 5-9</t>
+  </si>
+  <si>
+    <t>Femles 20-24</t>
+  </si>
+  <si>
+    <t>Pop size 2018</t>
+  </si>
+  <si>
+    <t>Pop size 2017</t>
+  </si>
+  <si>
+    <t>PLHIV 2017</t>
+  </si>
+  <si>
+    <t>PLHIV 2017 scaled</t>
+  </si>
+  <si>
+    <t>Should be:</t>
+  </si>
+  <si>
+    <t>VLS prevalence</t>
+  </si>
+  <si>
+    <t>Males 35-44</t>
+  </si>
+  <si>
+    <t>Females 35-44</t>
+  </si>
+  <si>
+    <t>VS 2017</t>
+  </si>
+  <si>
+    <t>Num VS 2017</t>
+  </si>
+  <si>
+    <t>VS 2017 scaled</t>
+  </si>
+  <si>
+    <t>Treatment distribution</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>25-49</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>Num PLH 2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +460,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -302,10 +536,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,7 +563,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,25 +572,19 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="620">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="618">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -4511,10 +4739,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A85" activeCellId="5" sqref="A1 A13 A25 A61 A73 A85"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4523,11 +4751,12 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4551,7 +4780,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -4563,14 +4792,15 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
-        <v>8359400</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <f>'#ignore - Misc calcs'!O23</f>
+        <v>8326773</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -4582,14 +4812,15 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
-        <v>8252643</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <f>'#ignore - Misc calcs'!O24</f>
+        <v>8301049</v>
+      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -4601,14 +4832,15 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
-        <v>5223540</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <f>'#ignore - Misc calcs'!O25</f>
+        <v>4733211</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -4620,14 +4852,15 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <v>5203079</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <f>'#ignore - Misc calcs'!O26</f>
+        <v>4781862</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -4639,14 +4872,15 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
-        <v>4738721</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>'#ignore - Misc calcs'!O27</f>
+        <v>5332443</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -4658,14 +4892,15 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
-        <v>4801226</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <f>'#ignore - Misc calcs'!O28</f>
+        <v>5235551</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -4677,14 +4912,15 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
-        <v>4792031</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <f>'#ignore - Misc calcs'!O29</f>
+        <v>5237696</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -4696,14 +4932,15 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5">
-        <v>4926422</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <f>'#ignore - Misc calcs'!O30</f>
+        <v>5223467</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -4715,14 +4952,15 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="5">
-        <v>3764595</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <f>'#ignore - Misc calcs'!O31</f>
+        <v>3862660</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -4734,14 +4972,15 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5">
-        <v>4895262</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <f>'#ignore - Misc calcs'!O32</f>
+        <v>5282952</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4765,7 +5004,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -4777,15 +5016,16 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5">
-        <v>184129.99278696146</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <f>'#ignore - Misc calcs'!Q23</f>
+        <v>176444</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -4797,15 +5037,16 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5">
-        <v>320277.33334954805</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <f>'#ignore - Misc calcs'!Q24</f>
+        <v>219874</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -4817,15 +5058,18 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="5">
-        <v>188426.2578923486</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f>'#ignore - Misc calcs'!Q25</f>
+        <v>198559</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="22"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -4837,15 +5081,16 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5">
-        <v>636000.37395310216</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <f>'#ignore - Misc calcs'!Q26</f>
+        <v>458324</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -4857,15 +5102,17 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="5">
-        <v>973643.17729405407</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <f>'#ignore - Misc calcs'!Q27</f>
+        <v>723818</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="22"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -4877,15 +5124,17 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5">
-        <v>1546116.307015497</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <f>'#ignore - Misc calcs'!Q28</f>
+        <v>1434692</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="22"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -4897,15 +5146,16 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5">
-        <v>962716.86049649096</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <f>'#ignore - Misc calcs'!Q29</f>
+        <v>1089795</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -4917,15 +5167,16 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5">
-        <v>1385849.6754132672</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <f>'#ignore - Misc calcs'!Q30</f>
+        <v>1648736</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -4937,15 +5188,16 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5">
-        <v>298091.15182875982</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <f>'#ignore - Misc calcs'!Q31</f>
+        <v>444060</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -4957,15 +5209,16 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5">
-        <v>404748.86996996962</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <f>'#ignore - Misc calcs'!Q32</f>
+        <v>805697</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4989,7 +5242,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -5001,14 +5254,17 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="5">
-        <v>123872.94029672278</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <f>ROUND(F86/SUM(F$86:F$95)*SUM(F$14:F$23)*90%,0)</f>
+        <v>142351</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -5020,14 +5276,17 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="5">
-        <v>311858.22803411831</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F35" si="0">ROUND(F87/SUM(F$86:F$95)*SUM(F$14:F$23)*90%,0)</f>
+        <v>152408</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -5039,14 +5298,17 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="5">
-        <v>126763.2406918043</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>140204</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -5058,14 +5320,17 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="5">
-        <v>619281.88166092383</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>310443</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -5077,14 +5342,17 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="5">
-        <v>655015.73831484048</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>431981</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -5096,14 +5364,17 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="5">
-        <v>1505473.6680796337</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>1413311</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -5115,14 +5386,17 @@
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="5">
-        <v>647665.08909229049</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>903659</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -5134,14 +5408,17 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="5">
-        <v>1349419.9529391997</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>1672777</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -5153,14 +5430,17 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="5">
-        <v>200539.99293959694</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>487892</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -5172,14 +5452,17 @@
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="5">
-        <v>394109.26795086794</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>824973</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -5203,7 +5486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -5215,15 +5498,15 @@
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="2">
-        <f>ROUND(E26*0.93,0)</f>
-        <v>115202</v>
-      </c>
-      <c r="F38" s="2"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <f>ROUND(F26*0.93,0)</f>
+        <v>132386</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -5235,15 +5518,15 @@
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39:E47" si="0">ROUND(E27*0.93,0)</f>
-        <v>290028</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <f t="shared" ref="E39:F47" si="1">ROUND(F27*0.93,0)</f>
+        <v>141739</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -5255,15 +5538,15 @@
       <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>117890</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <f t="shared" si="1"/>
+        <v>130390</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -5275,15 +5558,15 @@
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>575932</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <f t="shared" si="1"/>
+        <v>288712</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -5295,15 +5578,15 @@
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>609165</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f t="shared" si="1"/>
+        <v>401742</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -5315,15 +5598,15 @@
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>1400091</v>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <f t="shared" si="1"/>
+        <v>1314379</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -5335,15 +5618,15 @@
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>602329</v>
-      </c>
-      <c r="F44" s="2"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <f t="shared" si="1"/>
+        <v>840403</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -5355,15 +5638,15 @@
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>1254961</v>
-      </c>
-      <c r="F45" s="2"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <f t="shared" si="1"/>
+        <v>1555683</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -5375,15 +5658,15 @@
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>186502</v>
-      </c>
-      <c r="F46" s="2"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <f t="shared" si="1"/>
+        <v>453740</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -5395,11 +5678,11 @@
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>366522</v>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <f t="shared" si="1"/>
+        <v>767225</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
@@ -5439,11 +5722,11 @@
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5">
-        <f t="shared" ref="E50:E59" si="1">AVERAGE(E38,E62)</f>
-        <v>109003.24138658922</v>
-      </c>
-      <c r="F50" s="2"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <f>F38*0.99</f>
+        <v>131062.14</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
@@ -5459,11 +5742,11 @@
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="5">
-        <f t="shared" si="1"/>
-        <v>277636.55070861761</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <f t="shared" ref="F51:F59" si="2">F39*0.99</f>
+        <v>140321.60999999999</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
@@ -5479,11 +5762,11 @@
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>111546.59871379772</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
+        <v>129086.1</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
@@ -5499,11 +5782,11 @@
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="5">
-        <f t="shared" si="1"/>
-        <v>551325.22983734333</v>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
+        <v>285824.88</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
@@ -5519,11 +5802,11 @@
       <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="5">
-        <f t="shared" si="1"/>
-        <v>576387.43990231992</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
+        <v>397724.58</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -5539,11 +5822,11 @@
       <c r="D55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="5">
-        <f t="shared" si="1"/>
-        <v>1340271.5384277445</v>
-      </c>
-      <c r="F55" s="2"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
+        <v>1301235.21</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
@@ -5559,11 +5842,11 @@
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="5">
-        <f t="shared" si="1"/>
-        <v>569919.21888729767</v>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>831998.97</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
@@ -5579,11 +5862,11 @@
       <c r="D57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="5">
-        <f t="shared" si="1"/>
-        <v>1201342.274512232</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>1540126.17</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -5599,11 +5882,11 @@
       <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="5">
-        <f t="shared" si="1"/>
-        <v>182031.38519539055</v>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>449202.6</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -5619,11 +5902,11 @@
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="5">
-        <f t="shared" si="1"/>
-        <v>361797.52242866665</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>759552.75</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
@@ -5663,10 +5946,11 @@
       <c r="D62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="5">
-        <v>102804.48277317845</v>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f>AVERAGE(F50,F74)</f>
+        <v>113930.57</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
@@ -5682,10 +5966,11 @@
       <c r="D63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="5">
-        <v>265245.10141723522</v>
-      </c>
-      <c r="F63" s="2"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <f t="shared" ref="F63:F71" si="3">AVERAGE(F51,F75)</f>
+        <v>121979.30499999999</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
@@ -5701,14 +5986,15 @@
       <c r="D64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="5">
-        <v>105203.19742759544</v>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <f t="shared" si="3"/>
+        <v>112212.05</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -5720,14 +6006,15 @@
       <c r="D65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="5">
-        <v>526718.45967468678</v>
-      </c>
-      <c r="F65" s="2"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <f t="shared" si="3"/>
+        <v>248462.94</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -5739,14 +6026,15 @@
       <c r="D66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="5">
-        <v>543609.87980463984</v>
-      </c>
-      <c r="F66" s="2"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <f t="shared" si="3"/>
+        <v>345735.79000000004</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -5758,14 +6046,15 @@
       <c r="D67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="5">
-        <v>1280452.0768554893</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <f t="shared" si="3"/>
+        <v>1131143.105</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -5777,14 +6066,15 @@
       <c r="D68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="5">
-        <v>537509.43777459534</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <f t="shared" si="3"/>
+        <v>723243.48499999999</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -5796,14 +6086,15 @@
       <c r="D69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="5">
-        <v>1147723.5490244641</v>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <f t="shared" si="3"/>
+        <v>1338807.085</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -5815,14 +6106,15 @@
       <c r="D70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="5">
-        <v>177560.77039078108</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <f t="shared" si="3"/>
+        <v>390484.8</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -5834,14 +6126,15 @@
       <c r="D71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="5">
-        <v>357073.0448573333</v>
-      </c>
-      <c r="F71" s="2"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <f t="shared" si="3"/>
+        <v>660267.375</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -5865,7 +6158,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -5877,14 +6170,16 @@
       <c r="D74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="5">
-        <v>63999.79480119967</v>
-      </c>
-      <c r="F74" s="2"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
+        <f>ROUND(F86/SUM(F$86:F$95)*SUM(F$14:F$23)*90%*68%,0)</f>
+        <v>96799</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -5896,14 +6191,16 @@
       <c r="D75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="5">
-        <v>157580.02739464957</v>
-      </c>
-      <c r="F75" s="2"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <f t="shared" ref="F75:F83" si="4">ROUND(F87/SUM(F$86:F$95)*SUM(F$14:F$23)*90%*68%,0)</f>
+        <v>103637</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -5915,14 +6212,16 @@
       <c r="D76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="5">
-        <v>65493.088104450151</v>
-      </c>
-      <c r="F76" s="2"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <f t="shared" si="4"/>
+        <v>95338</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -5934,14 +6233,16 @@
       <c r="D77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="5">
-        <v>312919.29185996088</v>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <f t="shared" si="4"/>
+        <v>211101</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -5953,14 +6254,17 @@
       <c r="D78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="5">
-        <v>434123.36446451652</v>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <f t="shared" si="4"/>
+        <v>293747</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J78" s="12"/>
+      <c r="K78" s="23"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -5972,14 +6276,16 @@
       <c r="D79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="5">
-        <v>986136.02884067106</v>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f t="shared" si="4"/>
+        <v>961051</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -5991,14 +6297,16 @@
       <c r="D80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="5">
-        <v>449189.12042362918</v>
-      </c>
-      <c r="F80" s="2"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <f t="shared" si="4"/>
+        <v>614488</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -6010,14 +6318,16 @@
       <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="5">
-        <v>926487.4346098958</v>
-      </c>
-      <c r="F81" s="2"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
+        <f t="shared" si="4"/>
+        <v>1137488</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -6029,14 +6339,16 @@
       <c r="D82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="5">
-        <v>140101.18300836862</v>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
+        <f t="shared" si="4"/>
+        <v>331767</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -6048,14 +6360,16 @@
       <c r="D83" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="5">
-        <v>271582.66649265867</v>
-      </c>
-      <c r="F83" s="2"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
+        <f t="shared" si="4"/>
+        <v>560982</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J83" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -6079,7 +6393,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Males 0-14</v>
@@ -6091,14 +6405,16 @@
       <c r="D86" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="5">
-        <v>52129.866291857456</v>
-      </c>
-      <c r="F86" s="2"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
+        <f>'#ignore - Misc calcs'!AA23</f>
+        <v>75503</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Females 0-14</v>
@@ -6110,14 +6426,16 @@
       <c r="D87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="5">
-        <v>128378.64529822244</v>
-      </c>
-      <c r="F87" s="2"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5">
+        <f>'#ignore - Misc calcs'!AA24</f>
+        <v>80837</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Males 15-24</v>
@@ -6129,14 +6447,16 @@
       <c r="D88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="5">
-        <v>53346.201132848466</v>
-      </c>
-      <c r="F88" s="2"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f>'#ignore - Misc calcs'!AA25</f>
+        <v>74364</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Females 15-24</v>
@@ -6148,14 +6468,16 @@
       <c r="D89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="5">
-        <v>254931.76667657349</v>
-      </c>
-      <c r="F89" s="2"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f>'#ignore - Misc calcs'!AA26</f>
+        <v>164659</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>Males 25-34</v>
@@ -6167,14 +6489,16 @@
       <c r="D90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="5">
-        <v>353392.39874390338</v>
-      </c>
-      <c r="F90" s="2"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <f>'#ignore - Misc calcs'!AA27</f>
+        <v>229123</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Females 25-34</v>
@@ -6186,14 +6510,16 @@
       <c r="D91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="5">
-        <v>802863.80550158152</v>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
+        <f>'#ignore - Misc calcs'!AA28</f>
+        <v>749620</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f>'Population Definitions'!$A$8</f>
         <v>Males 35-49</v>
@@ -6205,14 +6531,16 @@
       <c r="D92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="5">
-        <v>365621.58371069498</v>
-      </c>
-      <c r="F92" s="2"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <f>'#ignore - Misc calcs'!AA29</f>
+        <v>479301</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f>'Population Definitions'!$A$9</f>
         <v>Females 35-49</v>
@@ -6224,14 +6552,16 @@
       <c r="D93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="5">
-        <v>754223.63311878406</v>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
+        <f>'#ignore - Misc calcs'!AA30</f>
+        <v>887241</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f>'Population Definitions'!$A$10</f>
         <v>Males 50+</v>
@@ -6243,14 +6573,16 @@
       <c r="D94" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="5">
-        <v>122948.10170377881</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <f>'#ignore - Misc calcs'!AA31</f>
+        <v>258778</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f>'Population Definitions'!$A$11</f>
         <v>Females 50+</v>
@@ -6262,484 +6594,478 @@
       <c r="D95" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="5">
-        <v>238363.99782175635</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
+        <f>'#ignore - Misc calcs'!AA32</f>
+        <v>437566</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
+      <c r="J95" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="619" priority="17">
+  <conditionalFormatting sqref="C10 C74">
+    <cfRule type="expression" dxfId="617" priority="17">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="18">
+    <cfRule type="expression" dxfId="616" priority="18">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="617" priority="19">
+    <cfRule type="expression" dxfId="615" priority="19">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="20">
+    <cfRule type="expression" dxfId="614" priority="20">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="615" priority="21">
+    <cfRule type="expression" dxfId="613" priority="21">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="22">
+    <cfRule type="expression" dxfId="612" priority="22">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="613" priority="23">
+    <cfRule type="expression" dxfId="611" priority="23">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="24">
+    <cfRule type="expression" dxfId="610" priority="24">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="611" priority="25">
+    <cfRule type="expression" dxfId="609" priority="25">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="26">
+    <cfRule type="expression" dxfId="608" priority="26">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="609" priority="27">
+    <cfRule type="expression" dxfId="607" priority="27">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="28">
+    <cfRule type="expression" dxfId="606" priority="28">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="607" priority="29">
+    <cfRule type="expression" dxfId="605" priority="29">
       <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="30">
+    <cfRule type="expression" dxfId="604" priority="30">
       <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="605" priority="31">
+    <cfRule type="expression" dxfId="603" priority="31">
       <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="32">
+    <cfRule type="expression" dxfId="602" priority="32">
       <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="603" priority="1">
+    <cfRule type="expression" dxfId="601" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="2">
+    <cfRule type="expression" dxfId="600" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="601" priority="33">
+    <cfRule type="expression" dxfId="599" priority="33">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="34">
+    <cfRule type="expression" dxfId="598" priority="34">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="599" priority="35">
+    <cfRule type="expression" dxfId="597" priority="35">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="36">
+    <cfRule type="expression" dxfId="596" priority="36">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="597" priority="37">
+    <cfRule type="expression" dxfId="595" priority="37">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="38">
+    <cfRule type="expression" dxfId="594" priority="38">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="595" priority="39">
+    <cfRule type="expression" dxfId="593" priority="39">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="40">
+    <cfRule type="expression" dxfId="592" priority="40">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="593" priority="41">
+    <cfRule type="expression" dxfId="591" priority="41">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="42">
+    <cfRule type="expression" dxfId="590" priority="42">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="591" priority="43">
+    <cfRule type="expression" dxfId="589" priority="43">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="44">
+    <cfRule type="expression" dxfId="588" priority="44">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="589" priority="45">
+    <cfRule type="expression" dxfId="587" priority="45">
       <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="46">
+    <cfRule type="expression" dxfId="586" priority="46">
       <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="587" priority="47">
+    <cfRule type="expression" dxfId="585" priority="47">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="48">
+    <cfRule type="expression" dxfId="584" priority="48">
       <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="585" priority="3">
+    <cfRule type="expression" dxfId="583" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="4">
+    <cfRule type="expression" dxfId="582" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="583" priority="49">
+    <cfRule type="expression" dxfId="581" priority="49">
       <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="50">
+    <cfRule type="expression" dxfId="580" priority="50">
       <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="581" priority="51">
+    <cfRule type="expression" dxfId="579" priority="51">
       <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="52">
+    <cfRule type="expression" dxfId="578" priority="52">
       <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="579" priority="53">
+    <cfRule type="expression" dxfId="577" priority="53">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="54">
+    <cfRule type="expression" dxfId="576" priority="54">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="577" priority="55">
+    <cfRule type="expression" dxfId="575" priority="55">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="56">
+    <cfRule type="expression" dxfId="574" priority="56">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="575" priority="57">
+    <cfRule type="expression" dxfId="573" priority="57">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="58">
+    <cfRule type="expression" dxfId="572" priority="58">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="573" priority="59">
+    <cfRule type="expression" dxfId="571" priority="59">
       <formula>COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="60">
+    <cfRule type="expression" dxfId="570" priority="60">
       <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="571" priority="61">
+    <cfRule type="expression" dxfId="569" priority="61">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="62">
+    <cfRule type="expression" dxfId="568" priority="62">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="569" priority="63">
+    <cfRule type="expression" dxfId="567" priority="63">
       <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="64">
+    <cfRule type="expression" dxfId="566" priority="64">
       <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="567" priority="5">
+    <cfRule type="expression" dxfId="565" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="6">
+    <cfRule type="expression" dxfId="564" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="565" priority="65">
+    <cfRule type="expression" dxfId="563" priority="65">
       <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="66">
+    <cfRule type="expression" dxfId="562" priority="66">
       <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="563" priority="67">
+    <cfRule type="expression" dxfId="561" priority="67">
       <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="68">
+    <cfRule type="expression" dxfId="560" priority="68">
       <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="561" priority="69">
+    <cfRule type="expression" dxfId="559" priority="69">
       <formula>COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="70">
+    <cfRule type="expression" dxfId="558" priority="70">
       <formula>AND(COUNTIF(E42:H42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="559" priority="71">
+    <cfRule type="expression" dxfId="557" priority="71">
       <formula>COUNTIF(E43:H43,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="72">
+    <cfRule type="expression" dxfId="556" priority="72">
       <formula>AND(COUNTIF(E43:H43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="557" priority="73">
+    <cfRule type="expression" dxfId="555" priority="73">
       <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="74">
+    <cfRule type="expression" dxfId="554" priority="74">
       <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="555" priority="75">
+    <cfRule type="expression" dxfId="553" priority="75">
       <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="76">
+    <cfRule type="expression" dxfId="552" priority="76">
       <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="553" priority="77">
+    <cfRule type="expression" dxfId="551" priority="77">
       <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="78">
+    <cfRule type="expression" dxfId="550" priority="78">
       <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="551" priority="79">
+    <cfRule type="expression" dxfId="549" priority="79">
       <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="80">
+    <cfRule type="expression" dxfId="548" priority="80">
       <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="549" priority="7">
+    <cfRule type="expression" dxfId="547" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="8">
+    <cfRule type="expression" dxfId="546" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="547" priority="81">
+    <cfRule type="expression" dxfId="545" priority="81">
       <formula>COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="82">
+    <cfRule type="expression" dxfId="544" priority="82">
       <formula>AND(COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="545" priority="83">
+    <cfRule type="expression" dxfId="543" priority="83">
       <formula>COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="84">
+    <cfRule type="expression" dxfId="542" priority="84">
       <formula>AND(COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="543" priority="85">
+    <cfRule type="expression" dxfId="541" priority="85">
       <formula>COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="86">
+    <cfRule type="expression" dxfId="540" priority="86">
       <formula>AND(COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="541" priority="87">
+    <cfRule type="expression" dxfId="539" priority="87">
       <formula>COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="88">
+    <cfRule type="expression" dxfId="538" priority="88">
       <formula>AND(COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="539" priority="89">
+    <cfRule type="expression" dxfId="537" priority="89">
       <formula>COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="90">
+    <cfRule type="expression" dxfId="536" priority="90">
       <formula>AND(COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="537" priority="91">
+    <cfRule type="expression" dxfId="535" priority="91">
       <formula>COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="92">
+    <cfRule type="expression" dxfId="534" priority="92">
       <formula>AND(COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="535" priority="93">
+    <cfRule type="expression" dxfId="533" priority="93">
       <formula>COUNTIF(E56:H56,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="94">
+    <cfRule type="expression" dxfId="532" priority="94">
       <formula>AND(COUNTIF(E56:H56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="533" priority="95">
+    <cfRule type="expression" dxfId="531" priority="95">
       <formula>COUNTIF(E57:H57,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="96">
+    <cfRule type="expression" dxfId="530" priority="96">
       <formula>AND(COUNTIF(E57:H57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="531" priority="97">
+    <cfRule type="expression" dxfId="529" priority="97">
       <formula>COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="98">
+    <cfRule type="expression" dxfId="528" priority="98">
       <formula>AND(COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="529" priority="99">
+    <cfRule type="expression" dxfId="527" priority="99">
       <formula>COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="100">
+    <cfRule type="expression" dxfId="526" priority="100">
       <formula>AND(COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="527" priority="9">
+    <cfRule type="expression" dxfId="525" priority="9">
       <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="10">
+    <cfRule type="expression" dxfId="524" priority="10">
       <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="525" priority="101">
+    <cfRule type="expression" dxfId="523" priority="101">
       <formula>COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="102">
+    <cfRule type="expression" dxfId="522" priority="102">
       <formula>AND(COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="523" priority="103">
+    <cfRule type="expression" dxfId="521" priority="103">
       <formula>COUNTIF(E63:H63,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="104">
+    <cfRule type="expression" dxfId="520" priority="104">
       <formula>AND(COUNTIF(E63:H63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="521" priority="105">
+    <cfRule type="expression" dxfId="519" priority="105">
       <formula>COUNTIF(E64:H64,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="106">
+    <cfRule type="expression" dxfId="518" priority="106">
       <formula>AND(COUNTIF(E64:H64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="519" priority="107">
+    <cfRule type="expression" dxfId="517" priority="107">
       <formula>COUNTIF(E65:H65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="108">
+    <cfRule type="expression" dxfId="516" priority="108">
       <formula>AND(COUNTIF(E65:H65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="517" priority="109">
+    <cfRule type="expression" dxfId="515" priority="109">
       <formula>COUNTIF(E66:H66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="110">
+    <cfRule type="expression" dxfId="514" priority="110">
       <formula>AND(COUNTIF(E66:H66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="515" priority="111">
+    <cfRule type="expression" dxfId="513" priority="111">
       <formula>COUNTIF(E67:H67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="112">
+    <cfRule type="expression" dxfId="512" priority="112">
       <formula>AND(COUNTIF(E67:H67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="513" priority="113">
+    <cfRule type="expression" dxfId="511" priority="113">
       <formula>COUNTIF(E68:H68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="114">
+    <cfRule type="expression" dxfId="510" priority="114">
       <formula>AND(COUNTIF(E68:H68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="511" priority="115">
+    <cfRule type="expression" dxfId="509" priority="115">
       <formula>COUNTIF(E69:H69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="116">
+    <cfRule type="expression" dxfId="508" priority="116">
       <formula>AND(COUNTIF(E69:H69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="509" priority="11">
+    <cfRule type="expression" dxfId="507" priority="11">
       <formula>COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="12">
+    <cfRule type="expression" dxfId="506" priority="12">
       <formula>AND(COUNTIF(E7:H7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="507" priority="117">
+    <cfRule type="expression" dxfId="505" priority="117">
       <formula>COUNTIF(E70:H70,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="118">
+    <cfRule type="expression" dxfId="504" priority="118">
       <formula>AND(COUNTIF(E70:H70,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="505" priority="119">
+    <cfRule type="expression" dxfId="503" priority="119">
       <formula>COUNTIF(E71:H71,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="120">
+    <cfRule type="expression" dxfId="502" priority="120">
       <formula>AND(COUNTIF(E71:H71,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="503" priority="121">
-      <formula>COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="122">
-      <formula>AND(COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
@@ -6926,8 +7252,8 @@
   </sheetPr>
   <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6975,10 +7301,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="2">
-        <f>989318/2</f>
-        <v>494659</v>
-      </c>
-      <c r="F2" s="2"/>
+        <f>1214592/2</f>
+        <v>607296</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1208934/2</f>
+        <v>604467</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -6995,10 +7324,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f>989318/2</f>
-        <v>494659</v>
-      </c>
-      <c r="F3" s="2"/>
+        <f>1214592/2</f>
+        <v>607296</v>
+      </c>
+      <c r="F3" s="2">
+        <f>1208934/2</f>
+        <v>604467</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -7193,7 +7525,10 @@
       <c r="E14" s="2">
         <v>10090.579282843086</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <f>ROUND(E14/SUM(E$14:E$23)*270000,0)</f>
+        <v>9724</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -7212,7 +7547,10 @@
       <c r="E15" s="2">
         <v>14364.814394885114</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F23" si="0">ROUND(E15/SUM(E$14:E$23)*270000,0)</f>
+        <v>13843</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -7231,7 +7569,10 @@
       <c r="E16" s="2">
         <v>10326.020576300254</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>9951</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
@@ -7250,7 +7591,10 @@
       <c r="E17" s="2">
         <v>28525.363413535277</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>27490</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -7269,7 +7613,10 @@
       <c r="E18" s="2">
         <v>46773.306428314987</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>45076</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
@@ -7288,7 +7635,10 @@
       <c r="E19" s="2">
         <v>53837.082052317652</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>51883</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -7307,7 +7657,10 @@
       <c r="E20" s="2">
         <v>44876.879667539899</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>43248</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -7326,7 +7679,10 @@
       <c r="E21" s="2">
         <v>45327.802116037696</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>43683</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
@@ -7345,7 +7701,10 @@
       <c r="E22" s="2">
         <v>13502.711302428132</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>13013</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
@@ -7364,7 +7723,10 @@
       <c r="E23" s="2">
         <v>12544.10218312066</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>12089</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
@@ -7404,9 +7766,9 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="e">
         <f>ROUND(Stocks!E14/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>266855</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7424,9 +7786,9 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="e">
         <f>ROUND(Stocks!E15/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>464170</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -7444,9 +7806,9 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="e">
         <f>ROUND(Stocks!E16/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>273082</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -7464,9 +7826,9 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="e">
         <f>ROUND(Stocks!E17/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>921740</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -7484,9 +7846,9 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="e">
         <f>ROUND(Stocks!E18/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1411077</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7504,9 +7866,9 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="e">
         <f>ROUND(Stocks!E19/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>2240748</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -7524,9 +7886,9 @@
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="e">
         <f>ROUND(Stocks!E20/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1395242</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7544,9 +7906,9 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="e">
         <f>ROUND(Stocks!E21/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>2008478</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -7564,9 +7926,9 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="e">
         <f>ROUND(Stocks!E22/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>432016</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -7584,9 +7946,9 @@
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="e">
         <f>ROUND(Stocks!E23/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>586593</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -8076,9 +8438,9 @@
       <c r="D62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="2">
-        <f>ROUND(Stocks!E14/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>12008</v>
+      <c r="E62" s="2" t="e">
+        <f>ROUND(Stocks!E14/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -8096,9 +8458,9 @@
       <c r="D63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="2">
-        <f>ROUND(Stocks!E15/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>20888</v>
+      <c r="E63" s="2" t="e">
+        <f>ROUND(Stocks!E15/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -8116,9 +8478,9 @@
       <c r="D64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="2">
-        <f>ROUND(Stocks!E16/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>12289</v>
+      <c r="E64" s="2" t="e">
+        <f>ROUND(Stocks!E16/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -8136,9 +8498,9 @@
       <c r="D65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="2">
-        <f>ROUND(Stocks!E17/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>41478</v>
+      <c r="E65" s="2" t="e">
+        <f>ROUND(Stocks!E17/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -8156,9 +8518,9 @@
       <c r="D66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="2">
-        <f>ROUND(Stocks!E18/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>63498</v>
+      <c r="E66" s="2" t="e">
+        <f>ROUND(Stocks!E18/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -8176,9 +8538,9 @@
       <c r="D67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="2">
-        <f>ROUND(Stocks!E19/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>100834</v>
+      <c r="E67" s="2" t="e">
+        <f>ROUND(Stocks!E19/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -8196,9 +8558,9 @@
       <c r="D68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="2">
-        <f>ROUND(Stocks!E20/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>62786</v>
+      <c r="E68" s="2" t="e">
+        <f>ROUND(Stocks!E20/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -8216,9 +8578,9 @@
       <c r="D69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="2">
-        <f>ROUND(Stocks!E21/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>90382</v>
+      <c r="E69" s="2" t="e">
+        <f>ROUND(Stocks!E21/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -8236,9 +8598,9 @@
       <c r="D70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="2">
-        <f>ROUND(Stocks!E22/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>19441</v>
+      <c r="E70" s="2" t="e">
+        <f>ROUND(Stocks!E22/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -8256,9 +8618,9 @@
       <c r="D71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="2">
-        <f>ROUND(Stocks!E23/SUM(Stocks!$E$14:$E$23)*450000,0)</f>
-        <v>26397</v>
+      <c r="E71" s="2" t="e">
+        <f>ROUND(Stocks!E23/SUM(Stocks!$E$14:$E$23)*738893,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -10049,7 +10411,7 @@
         <v>20</v>
       </c>
       <c r="C171" s="4">
-        <f t="shared" ref="C171:C179" si="0">0.053*2/3</f>
+        <f t="shared" ref="C171:C179" si="1">0.053*2/3</f>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -10069,7 +10431,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -10089,7 +10451,7 @@
         <v>20</v>
       </c>
       <c r="C173" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -10109,7 +10471,7 @@
         <v>20</v>
       </c>
       <c r="C174" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -10129,7 +10491,7 @@
         <v>20</v>
       </c>
       <c r="C175" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -10149,7 +10511,7 @@
         <v>20</v>
       </c>
       <c r="C176" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -10169,7 +10531,7 @@
         <v>20</v>
       </c>
       <c r="C177" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -10189,7 +10551,7 @@
         <v>20</v>
       </c>
       <c r="C178" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D178" s="3" t="s">
@@ -10209,7 +10571,7 @@
         <v>20</v>
       </c>
       <c r="C179" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -10273,7 +10635,7 @@
         <v>20</v>
       </c>
       <c r="C183" s="4">
-        <f t="shared" ref="C183:C191" si="1">C171*0.4878</f>
+        <f t="shared" ref="C183:C191" si="2">C171*0.4878</f>
         <v>1.72356E-2</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -10293,7 +10655,7 @@
         <v>20</v>
       </c>
       <c r="C184" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D184" s="3" t="s">
@@ -10313,7 +10675,7 @@
         <v>20</v>
       </c>
       <c r="C185" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D185" s="3" t="s">
@@ -10333,7 +10695,7 @@
         <v>20</v>
       </c>
       <c r="C186" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -10353,7 +10715,7 @@
         <v>20</v>
       </c>
       <c r="C187" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D187" s="3" t="s">
@@ -10373,7 +10735,7 @@
         <v>20</v>
       </c>
       <c r="C188" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -10393,7 +10755,7 @@
         <v>20</v>
       </c>
       <c r="C189" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D189" s="3" t="s">
@@ -10413,7 +10775,7 @@
         <v>20</v>
       </c>
       <c r="C190" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D190" s="3" t="s">
@@ -10433,7 +10795,7 @@
         <v>20</v>
       </c>
       <c r="C191" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.72356E-2</v>
       </c>
       <c r="D191" s="3" t="s">
@@ -10497,7 +10859,7 @@
         <v>20</v>
       </c>
       <c r="C195" s="4">
-        <f t="shared" ref="C195:C203" si="2">C171*0.23</f>
+        <f t="shared" ref="C195:C203" si="3">C171*0.23</f>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D195" s="3" t="s">
@@ -10517,7 +10879,7 @@
         <v>20</v>
       </c>
       <c r="C196" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D196" s="3" t="s">
@@ -10537,7 +10899,7 @@
         <v>20</v>
       </c>
       <c r="C197" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -10557,7 +10919,7 @@
         <v>20</v>
       </c>
       <c r="C198" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D198" s="3" t="s">
@@ -10577,7 +10939,7 @@
         <v>20</v>
       </c>
       <c r="C199" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -10597,7 +10959,7 @@
         <v>20</v>
       </c>
       <c r="C200" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D200" s="3" t="s">
@@ -10617,7 +10979,7 @@
         <v>20</v>
       </c>
       <c r="C201" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D201" s="3" t="s">
@@ -10637,7 +10999,7 @@
         <v>20</v>
       </c>
       <c r="C202" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D202" s="3" t="s">
@@ -10657,7 +11019,7 @@
         <v>20</v>
       </c>
       <c r="C203" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1266666666666675E-3</v>
       </c>
       <c r="D203" s="3" t="s">
@@ -10918,11 +11280,14 @@
       <c r="D218" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="4">
-        <f>ROUND(110000*Stocks!E14/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>2935</v>
-      </c>
-      <c r="F218" s="4"/>
+      <c r="E218" s="4" t="e">
+        <f>ROUND(100000*Stocks!E14/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F218" s="4">
+        <f>ROUND(110000*Stocks!F14/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>2696</v>
+      </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
@@ -10938,11 +11303,14 @@
       <c r="D219" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E219" s="4">
-        <f>ROUND(110000*Stocks!E15/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>5106</v>
-      </c>
-      <c r="F219" s="4"/>
+      <c r="E219" s="4" t="e">
+        <f>ROUND(100000*Stocks!E15/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F219" s="4">
+        <f>ROUND(110000*Stocks!F15/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>3359</v>
+      </c>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
@@ -10958,11 +11326,14 @@
       <c r="D220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E220" s="4">
-        <f>ROUND(110000*Stocks!E16/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>3004</v>
-      </c>
-      <c r="F220" s="4"/>
+      <c r="E220" s="4" t="e">
+        <f>ROUND(100000*Stocks!E16/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F220" s="4">
+        <f>ROUND(110000*Stocks!F16/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>3034</v>
+      </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
@@ -10978,11 +11349,14 @@
       <c r="D221" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E221" s="4">
-        <f>ROUND(110000*Stocks!E17/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>10139</v>
-      </c>
-      <c r="F221" s="4"/>
+      <c r="E221" s="4" t="e">
+        <f>ROUND(100000*Stocks!E17/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F221" s="4">
+        <f>ROUND(110000*Stocks!F17/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>7002</v>
+      </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
@@ -10998,11 +11372,14 @@
       <c r="D222" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E222" s="4">
-        <f>ROUND(110000*Stocks!E18/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>15522</v>
-      </c>
-      <c r="F222" s="4"/>
+      <c r="E222" s="4" t="e">
+        <f>ROUND(100000*Stocks!E18/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F222" s="4">
+        <f>ROUND(110000*Stocks!F18/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>11058</v>
+      </c>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
@@ -11018,11 +11395,14 @@
       <c r="D223" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E223" s="4">
-        <f>ROUND(110000*Stocks!E19/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>24648</v>
-      </c>
-      <c r="F223" s="4"/>
+      <c r="E223" s="4" t="e">
+        <f>ROUND(100000*Stocks!E19/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F223" s="4">
+        <f>ROUND(110000*Stocks!F19/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>21919</v>
+      </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
@@ -11038,11 +11418,14 @@
       <c r="D224" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E224" s="4">
-        <f>ROUND(110000*Stocks!E20/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>15348</v>
-      </c>
-      <c r="F224" s="4"/>
+      <c r="E224" s="4" t="e">
+        <f>ROUND(100000*Stocks!E20/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F224" s="4">
+        <f>ROUND(110000*Stocks!F20/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>16650</v>
+      </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
@@ -11058,11 +11441,14 @@
       <c r="D225" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E225" s="4">
-        <f>ROUND(110000*Stocks!E21/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>22093</v>
-      </c>
-      <c r="F225" s="4"/>
+      <c r="E225" s="4" t="e">
+        <f>ROUND(100000*Stocks!E21/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F225" s="4">
+        <f>ROUND(110000*Stocks!F21/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>25189</v>
+      </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
@@ -11078,11 +11464,14 @@
       <c r="D226" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E226" s="4">
-        <f>ROUND(110000*Stocks!E22/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>4752</v>
-      </c>
-      <c r="F226" s="4"/>
+      <c r="E226" s="4" t="e">
+        <f>ROUND(100000*Stocks!E22/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F226" s="4">
+        <f>ROUND(110000*Stocks!F22/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>6784</v>
+      </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
@@ -11098,11 +11487,14 @@
       <c r="D227" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E227" s="4">
-        <f>ROUND(110000*Stocks!E23/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>6453</v>
-      </c>
-      <c r="F227" s="4"/>
+      <c r="E227" s="4" t="e">
+        <f>ROUND(100000*Stocks!E23/SUM(Stocks!$E$14:$E$23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F227" s="4">
+        <f>ROUND(110000*Stocks!F23/SUM(Stocks!$F$14:$F$23),0)</f>
+        <v>12309</v>
+      </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
@@ -12972,14 +13364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709B0F5-B365-054E-9AE1-258ACEE3C3CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709B0F5-B365-054E-9AE1-258ACEE3C3CE}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:AC85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13044,50 +13436,50 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(Stocks!E14:E23)</f>
-        <v>6900000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7">
         <f>Stocks!E14-H5-I5</f>
-        <v>120130.19798576178</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <f>Stocks!E74-I5</f>
-        <v>11869.928509342215</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <f>Stocks!E86</f>
-        <v>52129.866291857456</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f>G5/K$3</f>
-        <v>9459.0707075402988</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f>H5/L$3</f>
-        <v>467.32002005284312</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ref="M5:M14" si="0">I5/M$3</f>
-        <v>164.1885552499449</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f>SUM(K5:M5)</f>
-        <v>10090.579282843086</v>
-      </c>
-      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="e">
         <f>K5/$N5</f>
-        <v>0.93741602363934295</v>
-      </c>
-      <c r="Q5" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="12" t="e">
         <f t="shared" ref="Q5:Q14" si="1">L5/$N5</f>
-        <v>4.631250664145941E-2</v>
-      </c>
-      <c r="R5" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="12" t="e">
         <f t="shared" ref="R5:R14" si="2">M5/$N5</f>
-        <v>1.6271469719197698E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -13096,50 +13488,50 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(Stocks!E26:E35)</f>
-        <v>5933999.9999999991</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="7">
         <f>Stocks!E15-H6-I6</f>
-        <v>162697.30595489847</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <f>Stocks!E75-I6</f>
-        <v>29201.382096427129</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f>Stocks!E87</f>
-        <v>128378.64529822244</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ref="K6:K14" si="3">G6/K$3</f>
-        <v>12810.811492511692</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" ref="L6:L14" si="4">H6/L$3</f>
-        <v>1149.6607124577611</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="0"/>
-        <v>404.34218991566161</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" ref="N6:N15" si="5">SUM(K6:M6)</f>
-        <v>14364.814394885114</v>
-      </c>
-      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="e">
         <f t="shared" ref="P6:P14" si="6">K6/$N6</f>
-        <v>0.89181879698168898</v>
-      </c>
-      <c r="Q6" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>8.0033105952773131E-2</v>
-      </c>
-      <c r="R6" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2.8148097065537853E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -13148,50 +13540,50 @@
       </c>
       <c r="C7">
         <f>SUM(Stocks!E38:E47)</f>
-        <v>5518622</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7">
         <f>Stocks!E16-H7-I7</f>
-        <v>122933.16978789844</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <f>Stocks!E76-I7</f>
-        <v>12146.886971601685</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <f>Stocks!E88</f>
-        <v>53346.201132848466</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>9679.7771486534202</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="4"/>
-        <v>478.22389651975141</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="0"/>
-        <v>168.01953112708193</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="5"/>
-        <v>10326.020576300254</v>
-      </c>
-      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.93741602363934295</v>
-      </c>
-      <c r="Q7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4.6312506641459347E-2</v>
-      </c>
-      <c r="R7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>1.6271469719197698E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -13200,50 +13592,50 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(Stocks!E50:E59)</f>
-        <v>5281260.9999999991</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="7">
         <f>Stocks!E17-H8-I8</f>
-        <v>323081.08209314133</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <f>Stocks!E77-I8</f>
-        <v>57987.525183387392</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <f>Stocks!E89</f>
-        <v>254931.76667657349</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>25439.455282924515</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="4"/>
-        <v>2282.9734324168267</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>802.93469819393295</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="5"/>
-        <v>28525.363413535277</v>
-      </c>
-      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.89181879698168898</v>
-      </c>
-      <c r="Q8" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>8.0033105952773118E-2</v>
-      </c>
-      <c r="R8" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2.8148097065537846E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -13252,50 +13644,50 @@
       </c>
       <c r="C9" s="7">
         <f>SUM(Stocks!E62:E71)</f>
-        <v>5043899.9999999981</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="7">
         <f>Stocks!E18-H9-I9</f>
-        <v>539519.81282953755</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
         <f>Stocks!E78-I9</f>
-        <v>80730.965720613138</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <f>Stocks!E90</f>
-        <v>353392.39874390338</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>42481.87502594784</v>
+        <v>0</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="4"/>
-        <v>3178.3844771894937</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>1113.0469251776494</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="5"/>
-        <v>46773.306428314987</v>
-      </c>
-      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.90825041610123891</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>6.7952956929839936E-2</v>
-      </c>
-      <c r="R9" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2.3796626968921066E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -13304,50 +13696,50 @@
       </c>
       <c r="C10" s="7">
         <f>SUM(Stocks!E74:E83)</f>
-        <v>3807611.9999999995</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="7">
         <f>Stocks!E19-H10-I10</f>
-        <v>559980.27817482606</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <f>Stocks!E79-I10</f>
-        <v>183272.22333908954</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <f>Stocks!E91</f>
-        <v>802863.80550158152</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>44092.935289356385</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="4"/>
-        <v>7215.4418637436829</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>2528.7048992175819</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="5"/>
-        <v>53837.082052317652</v>
-      </c>
-      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.81900678135764993</v>
-      </c>
-      <c r="Q10" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>0.13402364297403563</v>
-      </c>
-      <c r="R10" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>4.6969575668314341E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -13356,50 +13748,50 @@
       </c>
       <c r="C11" s="7">
         <f>SUM(Stocks!E86:E95)</f>
-        <v>3126200.0000000005</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="7">
         <f>Stocks!E20-H11-I11</f>
-        <v>513527.74007286172</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
         <f>Stocks!E80-I11</f>
-        <v>83567.536712934205</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <f>Stocks!E92</f>
-        <v>365621.58371069498</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>40435.255123847382</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="4"/>
-        <v>3290.0605005092207</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>1151.5640431832924</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="5"/>
-        <v>44876.879667539899</v>
-      </c>
-      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.90102643997093212</v>
-      </c>
-      <c r="Q11" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>7.3313040587556028E-2</v>
-      </c>
-      <c r="R11" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2.5660519441511782E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -13408,232 +13800,1541 @@
       </c>
       <c r="G12" s="7">
         <f>Stocks!E21-H12-I12</f>
-        <v>459362.24080337142</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <f>Stocks!E81-I12</f>
-        <v>172263.80149111175</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
         <f>Stocks!E93</f>
-        <v>754223.63311878406</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>36170.255181367829</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="4"/>
-        <v>6782.0394287839272</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>2375.5075058859361</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="5"/>
-        <v>45327.802116037696</v>
-      </c>
-      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.79797063816977398</v>
-      </c>
-      <c r="Q12" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>0.14962206663853075</v>
-      </c>
-      <c r="R12" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>5.240729519169525E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="e">
         <f t="shared" ref="C13:C18" si="7">C6/C$5</f>
-        <v>0.85999999999999988</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="7">
         <f>Stocks!E22-H13-I13</f>
-        <v>157989.96882039119</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <f>Stocks!E82-I13</f>
-        <v>17153.08130458981</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <f>Stocks!E94</f>
-        <v>122948.10170377881</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>12440.155025227654</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="4"/>
-        <v>675.31816159802406</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>387.23811560245332</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="5"/>
-        <v>13502.711302428132</v>
-      </c>
-      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.92130793191072646</v>
-      </c>
-      <c r="Q13" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>5.0013522949023184E-2</v>
-      </c>
-      <c r="R13" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2.8678545140250318E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0.79980028985507245</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7">
         <f>Stocks!E23-H14-I14</f>
-        <v>133166.20347731095</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <f>Stocks!E83-I14</f>
-        <v>33218.66867090232</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <f>Stocks!E95</f>
-        <v>238363.99782175635</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>10485.52783285913</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="4"/>
-        <v>1307.8216012166267</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>750.75274904490254</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="5"/>
-        <v>12544.10218312066</v>
-      </c>
-      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>0.83589304996004044</v>
-      </c>
-      <c r="Q14" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>0.10425788805965173</v>
-      </c>
-      <c r="R14" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>5.9849061980307781E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0.76540014492753605</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="11">
         <f>SUM(G5:G14)</f>
-        <v>3092387.9999999991</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
         <f>SUM(H5:H14)</f>
-        <v>681411.99999999907</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f>SUM(I5:I14)</f>
-        <v>3126200.0000000005</v>
+        <v>0</v>
       </c>
       <c r="K15" s="11">
         <f>SUM(K5:K14)</f>
-        <v>243495.11811023619</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
         <f>SUM(L5:L14)</f>
-        <v>26827.24409448816</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
         <f>SUM(M5:M14)</f>
-        <v>9846.2992125984383</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="5"/>
-        <v>280168.66141732276</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="12">
+      <c r="P15" s="12" t="e">
         <f t="shared" ref="P15" si="8">K15/$N15</f>
-        <v>0.86910190768103135</v>
-      </c>
-      <c r="Q15" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="12" t="e">
         <f t="shared" ref="Q15" si="9">L15/$N15</f>
-        <v>9.5753907516900591E-2</v>
-      </c>
-      <c r="R15" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="12" t="e">
         <f t="shared" ref="R15" si="10">M15/$N15</f>
-        <v>3.5144184802068101E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0.73099999999999976</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0.55182782608695646</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0.453072463768116</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="H22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="19">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I23">
+        <f>SUM(H47:H49)</f>
+        <v>8534942</v>
+      </c>
+      <c r="J23">
+        <f>I23/(1.025)</f>
+        <v>8326772.6829268299</v>
+      </c>
+      <c r="K23">
+        <f>H23*J23</f>
+        <v>199842.54439024391</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23">
+        <f>ROUND(J23,0)</f>
+        <v>8326773</v>
+      </c>
+      <c r="P23">
+        <f>K23</f>
+        <v>199842.54439024391</v>
+      </c>
+      <c r="Q23">
+        <f>ROUND(P23/P$33*P$34,0)</f>
+        <v>176444</v>
+      </c>
+      <c r="R23" s="18">
+        <f>Q23/Stocks!F2</f>
+        <v>2.1189961585358456E-2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="19">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="V23">
+        <f>K23</f>
+        <v>199842.54439024391</v>
+      </c>
+      <c r="W23" s="16">
+        <f>U23*V23</f>
+        <v>112111.66740292685</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23">
+        <f>W23</f>
+        <v>112111.66740292685</v>
+      </c>
+      <c r="AA23">
+        <f>ROUND(Z23/Z$33*Z$34,0)</f>
+        <v>75503</v>
+      </c>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="12">
+        <f>AA23/Q23</f>
+        <v>0.42791480583074515</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="I24">
+        <f>SUM(H50:H52)</f>
+        <v>8508575</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J44" si="11">I24/(1.025)</f>
+        <v>8301048.7804878056</v>
+      </c>
+      <c r="K24">
+        <f>H24*J24</f>
+        <v>249031.46341463417</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24">
+        <f>ROUND(J24,0)</f>
+        <v>8301049</v>
+      </c>
+      <c r="P24">
+        <f>K24</f>
+        <v>249031.46341463417</v>
+      </c>
+      <c r="Q24">
+        <f>ROUND(P24/P$33*P$34,0)</f>
+        <v>219874</v>
+      </c>
+      <c r="R24" s="18">
+        <f>Q24/Stocks!F3</f>
+        <v>2.6487495736984567E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="19">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="V24">
+        <f>K24</f>
+        <v>249031.46341463417</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" ref="W24:W34" si="12">U24*V24</f>
+        <v>120033.16536585367</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24">
+        <f>W24</f>
+        <v>120033.16536585367</v>
+      </c>
+      <c r="AA24">
+        <f>ROUND(Z24/Z$33*Z$34,0)</f>
+        <v>80837</v>
+      </c>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="12">
+        <f>AA24/Q24</f>
+        <v>0.36765147311642121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="19">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I25">
+        <f>H53</f>
+        <v>2360947</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="11"/>
+        <v>2303362.9268292687</v>
+      </c>
+      <c r="K25">
+        <f>H25*J25</f>
+        <v>108258.05756097563</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <f>ROUND(SUM(J25,J27),0)</f>
+        <v>4733211</v>
+      </c>
+      <c r="P25">
+        <f>SUM(K25,K27)</f>
+        <v>224890.75219512201</v>
+      </c>
+      <c r="Q25">
+        <f>ROUND(P25/P$33*P$34,0)</f>
+        <v>198559</v>
+      </c>
+      <c r="R25" s="18">
+        <f>Q25/Stocks!F4</f>
+        <v>4.1950168712106856E-2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="19">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="V25">
+        <f>K25+K27</f>
+        <v>224890.75219512201</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="12"/>
+        <v>110421.35932780491</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z25">
+        <f>W25</f>
+        <v>110421.35932780491</v>
+      </c>
+      <c r="AA25">
+        <f>ROUND(Z25/Z$33*Z$34,0)</f>
+        <v>74364</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="12">
+        <f>AA25/Q25</f>
+        <v>0.37451840510880896</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="19">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I26">
+        <f>H55</f>
+        <v>2372843</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>2314968.7804878051</v>
+      </c>
+      <c r="K26">
+        <f>H26*J26</f>
+        <v>134268.18926829271</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26">
+        <f>ROUND(SUM(J26,J28),0)</f>
+        <v>4781862</v>
+      </c>
+      <c r="P26">
+        <f>SUM(K26,K28)</f>
+        <v>519103.60000000009</v>
+      </c>
+      <c r="Q26">
+        <f>ROUND(P26/P$33*P$34,0)</f>
+        <v>458324</v>
+      </c>
+      <c r="R26" s="18">
+        <f>Q26/Stocks!F5</f>
+        <v>9.5846346046790973E-2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="V26">
+        <f>K26+K28</f>
+        <v>519103.60000000009</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="12"/>
+        <v>244497.79560000004</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26">
+        <f>W26</f>
+        <v>244497.79560000004</v>
+      </c>
+      <c r="AA26">
+        <f>ROUND(Z26/Z$33*Z$34,0)</f>
+        <v>164659</v>
+      </c>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="12">
+        <f>AA26/Q26</f>
+        <v>0.35926331590752392</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <f>H54</f>
+        <v>2490594</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>2429847.8048780491</v>
+      </c>
+      <c r="K27">
+        <f>H27*J27</f>
+        <v>116632.69463414636</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27">
+        <f>ROUND(SUM(J29,J31),0)</f>
+        <v>5332443</v>
+      </c>
+      <c r="P27">
+        <f>SUM(K29,K31)</f>
+        <v>819804.91317073186</v>
+      </c>
+      <c r="Q27">
+        <f>ROUND(P27/P$33*P$34,0)</f>
+        <v>723818</v>
+      </c>
+      <c r="R27" s="18">
+        <f>Q27/Stocks!F6</f>
+        <v>0.13573853485166179</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="19">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="V27">
+        <f>K29+K31</f>
+        <v>819804.91317073186</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="12"/>
+        <v>340219.03896585369</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27">
+        <f>W27</f>
+        <v>340219.03896585369</v>
+      </c>
+      <c r="AA27">
+        <f>ROUND(Z27/Z$33*Z$34,0)</f>
+        <v>229123</v>
+      </c>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="12">
+        <f>AA27/Q27</f>
+        <v>0.31654780621647982</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="I28">
+        <f>H56</f>
+        <v>2528566</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>2466893.6585365855</v>
+      </c>
+      <c r="K28">
+        <f>H28*J28</f>
+        <v>384835.41073170735</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28">
+        <f>ROUND(SUM(J30,J32),0)</f>
+        <v>5235551</v>
+      </c>
+      <c r="P28">
+        <f>SUM(K30,K32)</f>
+        <v>1624948.8546341464</v>
+      </c>
+      <c r="Q28">
+        <f>ROUND(P28/P$33*P$34,0)</f>
+        <v>1434692</v>
+      </c>
+      <c r="R28" s="18">
+        <f>Q28/Stocks!F7</f>
+        <v>0.2740288462475105</v>
+      </c>
+      <c r="T28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="V28">
+        <f>K30+K32</f>
+        <v>1624948.8546341464</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="12"/>
+        <v>1113089.9654243905</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28">
+        <f>W28</f>
+        <v>1113089.9654243905</v>
+      </c>
+      <c r="AA28">
+        <f>ROUND(Z28/Z$33*Z$34,0)</f>
+        <v>749620</v>
+      </c>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="12">
+        <f>AA28/Q28</f>
+        <v>0.52249542061989607</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.124</v>
+      </c>
+      <c r="I29">
+        <f>H57</f>
+        <v>2756645</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="11"/>
+        <v>2689409.7560975612</v>
+      </c>
+      <c r="K29">
+        <f>H29*J29</f>
+        <v>333486.80975609762</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29">
+        <f>ROUND(SUM(J33,J35,J37),0)</f>
+        <v>5237696</v>
+      </c>
+      <c r="P29">
+        <f>SUM(K33,K35,K37)</f>
+        <v>1234315.1931707317</v>
+      </c>
+      <c r="Q29">
+        <f>ROUND(P29/P$33*P$34,0)</f>
+        <v>1089795</v>
+      </c>
+      <c r="R29" s="18">
+        <f>Q29/Stocks!F8</f>
+        <v>0.20806763126382288</v>
+      </c>
+      <c r="T29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U29" s="19">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="V29">
+        <f>K33+K35</f>
+        <v>895059.41951219505</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="12"/>
+        <v>468116.07640487805</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29">
+        <f>W29+W31</f>
+        <v>711701.72189170728</v>
+      </c>
+      <c r="AA29">
+        <f>ROUND(Z29/Z$33*Z$34,0)</f>
+        <v>479301</v>
+      </c>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="12">
+        <f>AA29/Q29</f>
+        <v>0.43980840433292501</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I30">
+        <f>H59</f>
+        <v>2730307</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="11"/>
+        <v>2663714.1463414636</v>
+      </c>
+      <c r="K30">
+        <f>H30*J30</f>
+        <v>732521.39024390257</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30">
+        <f>ROUND(SUM(J34,J36,J38),0)</f>
+        <v>5223467</v>
+      </c>
+      <c r="P30">
+        <f>SUM(K34,K36,K38)</f>
+        <v>1867377.2751219515</v>
+      </c>
+      <c r="Q30">
+        <f>ROUND(P30/P$33*P$34,0)</f>
+        <v>1648736</v>
+      </c>
+      <c r="R30" s="18">
+        <f>Q30/Stocks!F9</f>
+        <v>0.31564016772767972</v>
+      </c>
+      <c r="T30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="V30">
+        <f>K34+K36</f>
+        <v>1426858.4341463416</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="12"/>
+        <v>988812.89486341469</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30">
+        <f>W30+W32</f>
+        <v>1317439.9502312196</v>
+      </c>
+      <c r="AA30">
+        <f>ROUND(Z30/Z$33*Z$34,0)</f>
+        <v>887241</v>
+      </c>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="12">
+        <f>AA30/Q30</f>
+        <v>0.53813406148710285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0.184</v>
+      </c>
+      <c r="I31">
+        <f>H58</f>
+        <v>2709109</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>2643033.1707317075</v>
+      </c>
+      <c r="K31">
+        <f>H31*J31</f>
+        <v>486318.10341463418</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31">
+        <f>ROUND(SUM(J39,J41,J43),0)</f>
+        <v>3862660</v>
+      </c>
+      <c r="P31">
+        <f>SUM(K39,K41,K43)</f>
+        <v>502947.69951219519</v>
+      </c>
+      <c r="Q31">
+        <f>ROUND(P31/P$33*P$34,0)</f>
+        <v>444060</v>
+      </c>
+      <c r="R31" s="18">
+        <f>Q31/Stocks!F10</f>
+        <v>0.11496222810187798</v>
+      </c>
+      <c r="T31" t="s">
+        <v>74</v>
+      </c>
+      <c r="U31" s="19">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="V31">
+        <f>K37</f>
+        <v>339255.77365853661</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="12"/>
+        <v>243585.64548682928</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31">
+        <f>W33</f>
+        <v>384252.04242731712</v>
+      </c>
+      <c r="AA31">
+        <f>ROUND(Z31/Z$33*Z$34,0)</f>
+        <v>258778</v>
+      </c>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="12">
+        <f>AA31/Q31</f>
+        <v>0.58275458271404768</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="I32">
+        <f>H60</f>
+        <v>2636133</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>2571837.0731707318</v>
+      </c>
+      <c r="K32">
+        <f>H32*J32</f>
+        <v>892427.46439024387</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32">
+        <f>ROUND(SUM(J40,J42,J44),0)</f>
+        <v>5282952</v>
+      </c>
+      <c r="P32">
+        <f>SUM(K40,K42,K44)</f>
+        <v>912542.34048780485</v>
+      </c>
+      <c r="Q32">
+        <f>ROUND(P32/P$33*P$34,0)</f>
+        <v>805697</v>
+      </c>
+      <c r="R32" s="18">
+        <f>Q32/Stocks!F11</f>
+        <v>0.15250886246931639</v>
+      </c>
+      <c r="T32" t="s">
+        <v>75</v>
+      </c>
+      <c r="U32" s="19">
+        <v>0.746</v>
+      </c>
+      <c r="V32">
+        <f>K38</f>
+        <v>440518.84097560978</v>
+      </c>
+      <c r="W32" s="16">
+        <f t="shared" si="12"/>
+        <v>328627.05536780489</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32">
+        <f>W34</f>
+        <v>649730.14642731706</v>
+      </c>
+      <c r="AA32">
+        <f>ROUND(Z32/Z$33*Z$34,0)</f>
+        <v>437566</v>
+      </c>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="12">
+        <f>AA32/Q32</f>
+        <v>0.54309002019369568</v>
+      </c>
+    </row>
+    <row r="33" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="I33">
+        <f>H61</f>
+        <v>2226629</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>2172320.9756097561</v>
+      </c>
+      <c r="K33">
+        <f>H33*J33</f>
+        <v>514840.07121951215</v>
+      </c>
+      <c r="N33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="9">
+        <f>SUM(O23:O32)</f>
+        <v>56317664</v>
+      </c>
+      <c r="P33" s="9">
+        <f>SUM(P23:P32)</f>
+        <v>8154804.6360975616</v>
+      </c>
+      <c r="Q33" s="9">
+        <f>SUM(Q23:Q32)</f>
+        <v>7199999</v>
+      </c>
+      <c r="T33" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="V33">
+        <f>SUM(K39,K41,K43)</f>
+        <v>502947.69951219519</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" si="12"/>
+        <v>384252.04242731712</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z33" s="9">
+        <f>SUM(Z23:Z32)</f>
+        <v>5103496.8530643899</v>
+      </c>
+      <c r="AA33" s="9">
+        <f>SUM(AA23:AA32)</f>
+        <v>3436992</v>
+      </c>
+    </row>
+    <row r="34" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="I34">
+        <f>H64</f>
+        <v>2154507</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>2101958.0487804879</v>
+      </c>
+      <c r="K34">
+        <f>H34*J34</f>
+        <v>828171.47121951228</v>
+      </c>
+      <c r="N34" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9">
+        <v>7200000</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="V34">
+        <f>SUM(K40,K42,K44)</f>
+        <v>912542.34048780485</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" si="12"/>
+        <v>649730.14642731706</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z34" s="9">
+        <f>7200000*90%*68%*78%</f>
+        <v>3436992</v>
+      </c>
+    </row>
+    <row r="35" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0.224</v>
+      </c>
+      <c r="I35">
+        <f>H62</f>
+        <v>1739843</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>1697407.8048780488</v>
+      </c>
+      <c r="K35">
+        <f>H35*J35</f>
+        <v>380219.34829268296</v>
+      </c>
+    </row>
+    <row r="36" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I36">
+        <f>H65</f>
+        <v>1709343</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="11"/>
+        <v>1667651.7073170734</v>
+      </c>
+      <c r="K36">
+        <f>H36*J36</f>
+        <v>598686.96292682935</v>
+      </c>
+    </row>
+    <row r="37" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0.248</v>
+      </c>
+      <c r="I37">
+        <f>H63</f>
+        <v>1402166</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>1367966.8292682928</v>
+      </c>
+      <c r="K37">
+        <f>H37*J37</f>
+        <v>339255.77365853661</v>
+      </c>
+    </row>
+    <row r="38" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I38">
+        <f>H66</f>
+        <v>1490204</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="11"/>
+        <v>1453857.5609756098</v>
+      </c>
+      <c r="K38">
+        <f>H38*J38</f>
+        <v>440518.84097560978</v>
+      </c>
+    </row>
+    <row r="39" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I39">
+        <f>H67</f>
+        <v>1084700</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>1058243.9024390245</v>
+      </c>
+      <c r="K39">
+        <f>H39*J39</f>
+        <v>213765.26829268297</v>
+      </c>
+    </row>
+    <row r="40" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0.222</v>
+      </c>
+      <c r="I40">
+        <f>H70</f>
+        <v>1337881</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="11"/>
+        <v>1305249.756097561</v>
+      </c>
+      <c r="K40">
+        <f>H40*J40</f>
+        <v>289765.44585365854</v>
+      </c>
+    </row>
+    <row r="41" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I41">
+        <f>H68</f>
+        <v>919710</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>897278.04878048785</v>
+      </c>
+      <c r="K41">
+        <f>H41*J41</f>
+        <v>132797.15121951219</v>
+      </c>
+    </row>
+    <row r="42" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I42">
+        <f>H71</f>
+        <v>1142656</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>1114786.3414634147</v>
+      </c>
+      <c r="K42">
+        <f>H42*J42</f>
+        <v>196202.39609756097</v>
+      </c>
+    </row>
+    <row r="43" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="19">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I43">
+        <f>H69</f>
+        <v>1954816</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>1907137.5609756098</v>
+      </c>
+      <c r="K43">
+        <f>H43*J43</f>
+        <v>156385.28</v>
+      </c>
+    </row>
+    <row r="44" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I44">
+        <f>H72</f>
+        <v>2934489</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>2862916.0975609757</v>
+      </c>
+      <c r="K44">
+        <f>H44*J44</f>
+        <v>426574.49853658536</v>
+      </c>
+    </row>
+    <row r="45" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="H46" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47">
+        <f>2970302</f>
+        <v>2970302</v>
+      </c>
+    </row>
+    <row r="48" spans="7:27" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48">
+        <f>2941029</f>
+        <v>2941029</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49">
+        <f>2623611</f>
+        <v>2623611</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50">
+        <f>2958649</f>
+        <v>2958649</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51">
+        <v>2921052</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52">
+        <f>2628874</f>
+        <v>2628874</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53">
+        <f>2360947</f>
+        <v>2360947</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54">
+        <f>2490594</f>
+        <v>2490594</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55">
+        <f>2372843</f>
+        <v>2372843</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56">
+        <f>2528566</f>
+        <v>2528566</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57">
+        <f>2756645</f>
+        <v>2756645</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58">
+        <f>2709109</f>
+        <v>2709109</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59">
+        <f>2730307</f>
+        <v>2730307</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60">
+        <f>2636133</f>
+        <v>2636133</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61">
+        <f>2226629</f>
+        <v>2226629</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62">
+        <f>1739843</f>
+        <v>1739843</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63">
+        <f>1402166</f>
+        <v>1402166</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64">
+        <f>2154507</f>
+        <v>2154507</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65">
+        <f>1709343</f>
+        <v>1709343</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <f>1490204</f>
+        <v>1490204</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67">
+        <v>1084700</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68">
+        <v>919710</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69">
+        <f>724416+526610+338535+201946+163309</f>
+        <v>1954816</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70">
+        <v>1337881</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71">
+        <v>1142656</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72">
+        <f>940674+727015+515429+351076+400295</f>
+        <v>2934489</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13641,8 +15342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC4641-E00A-2C4A-81DC-364B65AEB612}">
   <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13680,27 +15381,27 @@
       </c>
       <c r="C5" s="16">
         <f>Stocks!E2</f>
-        <v>8359400</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>Stocks!E14</f>
-        <v>184129.99278696146</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16">
         <f>Stocks!E26</f>
-        <v>123872.94029672278</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f>Stocks!E62</f>
-        <v>102804.48277317845</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
         <f>Stocks!E74</f>
-        <v>63999.79480119967</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <f>Stocks!E86</f>
-        <v>52129.866291857456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -13710,27 +15411,27 @@
       </c>
       <c r="C6" s="16">
         <f>Stocks!E3</f>
-        <v>8252643</v>
+        <v>0</v>
       </c>
       <c r="D6" s="16">
         <f>Stocks!E15</f>
-        <v>320277.33334954805</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16">
         <f>Stocks!E27</f>
-        <v>311858.22803411831</v>
+        <v>0</v>
       </c>
       <c r="F6" s="16">
         <f>Stocks!E63</f>
-        <v>265245.10141723522</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
         <f>Stocks!E75</f>
-        <v>157580.02739464957</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
         <f>Stocks!E87</f>
-        <v>128378.64529822244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -13740,27 +15441,27 @@
       </c>
       <c r="C7" s="16">
         <f>Stocks!E4</f>
-        <v>5223540</v>
+        <v>0</v>
       </c>
       <c r="D7" s="16">
         <f>Stocks!E16</f>
-        <v>188426.2578923486</v>
+        <v>0</v>
       </c>
       <c r="E7" s="16">
         <f>Stocks!E28</f>
-        <v>126763.2406918043</v>
+        <v>0</v>
       </c>
       <c r="F7" s="16">
         <f>Stocks!E64</f>
-        <v>105203.19742759544</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
         <f>Stocks!E76</f>
-        <v>65493.088104450151</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
         <f>Stocks!E88</f>
-        <v>53346.201132848466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -13770,27 +15471,27 @@
       </c>
       <c r="C8" s="16">
         <f>Stocks!E5</f>
-        <v>5203079</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
         <f>Stocks!E17</f>
-        <v>636000.37395310216</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
         <f>Stocks!E29</f>
-        <v>619281.88166092383</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
         <f>Stocks!E65</f>
-        <v>526718.45967468678</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
         <f>Stocks!E77</f>
-        <v>312919.29185996088</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
         <f>Stocks!E89</f>
-        <v>254931.76667657349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -13800,27 +15501,27 @@
       </c>
       <c r="C9" s="16">
         <f>Stocks!E6</f>
-        <v>4738721</v>
+        <v>0</v>
       </c>
       <c r="D9" s="16">
         <f>Stocks!E18</f>
-        <v>973643.17729405407</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <f>Stocks!E30</f>
-        <v>655015.73831484048</v>
+        <v>0</v>
       </c>
       <c r="F9" s="16">
         <f>Stocks!E66</f>
-        <v>543609.87980463984</v>
+        <v>0</v>
       </c>
       <c r="G9" s="16">
         <f>Stocks!E78</f>
-        <v>434123.36446451652</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f>Stocks!E90</f>
-        <v>353392.39874390338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -13830,27 +15531,27 @@
       </c>
       <c r="C10" s="16">
         <f>Stocks!E7</f>
-        <v>4801226</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16">
         <f>Stocks!E19</f>
-        <v>1546116.307015497</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
         <f>Stocks!E31</f>
-        <v>1505473.6680796337</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
         <f>Stocks!E67</f>
-        <v>1280452.0768554893</v>
+        <v>0</v>
       </c>
       <c r="G10" s="16">
         <f>Stocks!E79</f>
-        <v>986136.02884067106</v>
+        <v>0</v>
       </c>
       <c r="H10" s="16">
         <f>Stocks!E91</f>
-        <v>802863.80550158152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -13860,27 +15561,27 @@
       </c>
       <c r="C11" s="16">
         <f>Stocks!E8</f>
-        <v>4792031</v>
+        <v>0</v>
       </c>
       <c r="D11" s="16">
         <f>Stocks!E20</f>
-        <v>962716.86049649096</v>
+        <v>0</v>
       </c>
       <c r="E11" s="16">
         <f>Stocks!E32</f>
-        <v>647665.08909229049</v>
+        <v>0</v>
       </c>
       <c r="F11" s="16">
         <f>Stocks!E68</f>
-        <v>537509.43777459534</v>
+        <v>0</v>
       </c>
       <c r="G11" s="16">
         <f>Stocks!E80</f>
-        <v>449189.12042362918</v>
+        <v>0</v>
       </c>
       <c r="H11" s="16">
         <f>Stocks!E92</f>
-        <v>365621.58371069498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -13890,27 +15591,27 @@
       </c>
       <c r="C12" s="16">
         <f>Stocks!E9</f>
-        <v>4926422</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16">
         <f>Stocks!E21</f>
-        <v>1385849.6754132672</v>
+        <v>0</v>
       </c>
       <c r="E12" s="16">
         <f>Stocks!E33</f>
-        <v>1349419.9529391997</v>
+        <v>0</v>
       </c>
       <c r="F12" s="16">
         <f>Stocks!E69</f>
-        <v>1147723.5490244641</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
         <f>Stocks!E81</f>
-        <v>926487.4346098958</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
         <f>Stocks!E93</f>
-        <v>754223.63311878406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -13920,27 +15621,27 @@
       </c>
       <c r="C13" s="16">
         <f>Stocks!E10</f>
-        <v>3764595</v>
+        <v>0</v>
       </c>
       <c r="D13" s="16">
         <f>Stocks!E22</f>
-        <v>298091.15182875982</v>
+        <v>0</v>
       </c>
       <c r="E13" s="16">
         <f>Stocks!E34</f>
-        <v>200539.99293959694</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
         <f>Stocks!E70</f>
-        <v>177560.77039078108</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16">
         <f>Stocks!E82</f>
-        <v>140101.18300836862</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
         <f>Stocks!E94</f>
-        <v>122948.10170377881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -13950,27 +15651,27 @@
       </c>
       <c r="C14" s="16">
         <f>Stocks!E11</f>
-        <v>4895262</v>
+        <v>0</v>
       </c>
       <c r="D14" s="16">
         <f>Stocks!E23</f>
-        <v>404748.86996996962</v>
+        <v>0</v>
       </c>
       <c r="E14" s="16">
         <f>Stocks!E35</f>
-        <v>394109.26795086794</v>
+        <v>0</v>
       </c>
       <c r="F14" s="16">
         <f>Stocks!E71</f>
-        <v>357073.0448573333</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
         <f>Stocks!E83</f>
-        <v>271582.66649265867</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
         <f>Stocks!E95</f>
-        <v>238363.99782175635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -13978,28 +15679,28 @@
         <v>56</v>
       </c>
       <c r="C15" s="17">
-        <f>SUM(C5:C14)</f>
-        <v>54956919</v>
+        <f t="shared" ref="C15:H15" si="0">SUM(C5:C14)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
-        <f>SUM(D5:D14)</f>
-        <v>6900000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15" s="17">
-        <f>SUM(E5:E14)</f>
-        <v>5933999.9999999991</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F15" s="17">
-        <f>SUM(F5:F14)</f>
-        <v>5043899.9999999981</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G15" s="17">
-        <f>SUM(G5:G14)</f>
-        <v>3807611.9999999995</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H15" s="17">
-        <f>SUM(H5:H14)</f>
-        <v>3126200.0000000005</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hiv-southafrica/hiv_southafrica_databook.xlsx
+++ b/hiv-southafrica/hiv_southafrica_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/hiv-southafrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F32C29-2FF7-784C-9E94-1BE936293755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5214B6B-4055-5B4E-B997-8136FF8D865C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="25600" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="#ignore - 2016 cascade" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -430,8 +431,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -534,7 +535,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,14 +566,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1532,8 +1532,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
@@ -1837,9 +1837,9 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
@@ -1879,8 +1879,8 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="I18" s="21"/>
-      <c r="K18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
@@ -1900,8 +1900,8 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="21"/>
-      <c r="K19" s="17"/>
+      <c r="I19" s="20"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2022,8 +2022,8 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
@@ -2043,8 +2043,8 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
@@ -2064,8 +2064,8 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
@@ -2085,8 +2085,8 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
@@ -2106,8 +2106,8 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
@@ -2127,8 +2127,8 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
@@ -2148,8 +2148,8 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
@@ -2169,8 +2169,8 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
@@ -2190,8 +2190,8 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
@@ -2211,8 +2211,8 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="21"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="I39" s="21"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="21"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="21"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="21"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="I46" s="21"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="I51" s="21"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="I52" s="21"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="I53" s="21"/>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="I56" s="21"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="I58" s="21"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="I59" s="21"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2695,7 +2695,10 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="I62" s="21"/>
+      <c r="I62" s="20">
+        <f t="shared" ref="I62:I71" si="2">E62/E26</f>
+        <v>0.77750992688026532</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
@@ -2710,12 +2713,15 @@
         <v>6</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" ref="E63:E71" si="2">AVERAGE(E51,E75)</f>
+        <f t="shared" ref="E63:E71" si="3">AVERAGE(E51,E75)</f>
         <v>126594.74650000001</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="I63" s="21"/>
+      <c r="I63" s="20">
+        <f t="shared" si="2"/>
+        <v>0.64764951586496622</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
@@ -2730,12 +2736,15 @@
         <v>6</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110222.505</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="I64" s="21"/>
+      <c r="I64" s="20">
+        <f t="shared" si="2"/>
+        <v>0.71168218940543537</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
@@ -2750,12 +2759,15 @@
         <v>6</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260188.25900000002</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="20">
+        <f t="shared" si="2"/>
+        <v>0.63857709169523791</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
@@ -2770,12 +2782,15 @@
         <v>6</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>361454.76</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="I66" s="21"/>
+      <c r="I66" s="20">
+        <f t="shared" si="2"/>
+        <v>0.64022107554874075</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
@@ -2790,12 +2805,15 @@
         <v>6</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1039648.547</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="20">
+        <f t="shared" si="2"/>
+        <v>0.81512856632006458</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
@@ -2810,12 +2828,15 @@
         <v>6</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>673376.02500000002</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="I68" s="21"/>
+      <c r="I68" s="20">
+        <f t="shared" si="2"/>
+        <v>0.7921697164639645</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
@@ -2830,12 +2851,15 @@
         <v>6</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1219547.5759999999</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="I69" s="21"/>
+      <c r="I69" s="20">
+        <f t="shared" si="2"/>
+        <v>0.8320431806892099</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
@@ -2850,12 +2874,15 @@
         <v>6</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335416.95</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="I70" s="21"/>
+      <c r="I70" s="20">
+        <f t="shared" si="2"/>
+        <v>0.96838654859530426</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
@@ -2870,12 +2897,15 @@
         <v>6</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>599802.65824999998</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="I71" s="21"/>
+      <c r="I71" s="20">
+        <f t="shared" si="2"/>
+        <v>0.83740370613831483</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -2916,7 +2946,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="I74" s="21"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
@@ -2931,12 +2961,12 @@
         <v>6</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" ref="E75:E83" si="3">ROUND(E87/SUM(E$86:E$95)*SUM(E$14:E$23)*90%*68%,0)</f>
+        <f t="shared" ref="E75:E83" si="4">ROUND(E87/SUM(E$86:E$95)*SUM(E$14:E$23)*90%*68%,0)</f>
         <v>103637</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="I75" s="23"/>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
@@ -2951,12 +2981,12 @@
         <v>6</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95338</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="20"/>
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -2972,12 +3002,12 @@
         <v>6</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>211101</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="I77" s="21"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
@@ -2992,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>293747</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="22"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
@@ -3013,12 +3043,12 @@
         <v>6</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>961051</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="I79" s="21"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
@@ -3033,12 +3063,12 @@
         <v>6</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>614488</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="I80" s="21"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
@@ -3053,12 +3083,12 @@
         <v>6</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1137488</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="I81" s="21"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
@@ -3073,12 +3103,12 @@
         <v>6</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>331767</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="I82" s="21"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
@@ -3093,12 +3123,12 @@
         <v>6</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>560982</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -3139,7 +3169,7 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="I86" s="21"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
@@ -3159,7 +3189,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="I87" s="23"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
@@ -3179,7 +3209,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="I88" s="21"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
@@ -3199,7 +3229,7 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="I89" s="21"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
@@ -3219,7 +3249,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="I90" s="21"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
@@ -3239,7 +3269,7 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="I91" s="21"/>
+      <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
@@ -3259,7 +3289,7 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="I92" s="21"/>
+      <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
@@ -3279,7 +3309,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="I93" s="21"/>
+      <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
@@ -3299,7 +3329,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="I94" s="21"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
@@ -3319,7 +3349,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="I95" s="21"/>
+      <c r="I95" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C14:C23 C26:C35 C38:C47 C50:C59 C62:C71 C74:C83 C2:C11 C86:C95">
@@ -3346,8 +3376,8 @@
   </sheetPr>
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170:C179"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7649,8 +7679,8 @@
   </sheetPr>
   <dimension ref="B2:AC85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8187,15 +8217,15 @@
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="11">
-        <f t="shared" ref="P15" si="7">K15/$N15</f>
+        <f>K15/$N15</f>
         <v>0.8178506784129842</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" ref="Q15" si="8">L15/$N15</f>
+        <f>L15/$N15</f>
         <v>0.14190096487608958</v>
       </c>
       <c r="R15" s="11">
-        <f t="shared" ref="R15" si="9">M15/$N15</f>
+        <f>M15/$N15</f>
         <v>4.0248356710926185E-2</v>
       </c>
     </row>
@@ -8206,7 +8236,7 @@
       <c r="H22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -8244,7 +8274,7 @@
       <c r="G23" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>2.4E-2</v>
       </c>
       <c r="I23">
@@ -8256,7 +8286,7 @@
         <v>8326772.6829268299</v>
       </c>
       <c r="K23">
-        <f>H23*J23</f>
+        <f t="shared" ref="K23:K44" si="7">H23*J23</f>
         <v>199842.54439024391</v>
       </c>
       <c r="N23" t="s">
@@ -8271,17 +8301,17 @@
         <v>199842.54439024391</v>
       </c>
       <c r="Q23">
-        <f>ROUND(P23/P$33*P$34,0)</f>
+        <f t="shared" ref="Q23:Q32" si="8">ROUND(P23/P$33*P$34,0)</f>
         <v>176444</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="16">
         <f>Q23/Stocks!E2</f>
         <v>2.1189961585358456E-2</v>
       </c>
       <c r="T23" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="17">
         <v>0.56100000000000005</v>
       </c>
       <c r="V23">
@@ -8296,16 +8326,16 @@
         <v>32</v>
       </c>
       <c r="Z23">
-        <f>W23</f>
+        <f t="shared" ref="Z23:Z28" si="9">W23</f>
         <v>112111.66740292685</v>
       </c>
       <c r="AA23">
-        <f>ROUND(Z23/Z$33*Z$34,0)</f>
+        <f t="shared" ref="AA23:AA32" si="10">ROUND(Z23/Z$33*Z$34,0)</f>
         <v>75503</v>
       </c>
-      <c r="AB23" s="17"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="11">
-        <f>AA23/Q23</f>
+        <f t="shared" ref="AC23:AC32" si="11">AA23/Q23</f>
         <v>0.42791480583074515</v>
       </c>
     </row>
@@ -8313,7 +8343,7 @@
       <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>0.03</v>
       </c>
       <c r="I24">
@@ -8321,11 +8351,11 @@
         <v>8508575</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J44" si="10">I24/(1.025)</f>
+        <f t="shared" ref="J24:J44" si="12">I24/(1.025)</f>
         <v>8301048.7804878056</v>
       </c>
       <c r="K24">
-        <f>H24*J24</f>
+        <f t="shared" si="7"/>
         <v>249031.46341463417</v>
       </c>
       <c r="N24" t="s">
@@ -8340,17 +8370,17 @@
         <v>249031.46341463417</v>
       </c>
       <c r="Q24">
-        <f>ROUND(P24/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>219874</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="16">
         <f>Q24/Stocks!E3</f>
         <v>2.6487495736984567E-2</v>
       </c>
       <c r="T24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="17">
         <v>0.48199999999999998</v>
       </c>
       <c r="V24">
@@ -8358,23 +8388,23 @@
         <v>249031.46341463417</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" ref="W24:W34" si="11">U24*V24</f>
+        <f t="shared" ref="W24:W34" si="13">U24*V24</f>
         <v>120033.16536585367</v>
       </c>
       <c r="Y24" t="s">
         <v>33</v>
       </c>
       <c r="Z24">
-        <f>W24</f>
+        <f t="shared" si="9"/>
         <v>120033.16536585367</v>
       </c>
       <c r="AA24">
-        <f>ROUND(Z24/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>80837</v>
       </c>
-      <c r="AB24" s="17"/>
+      <c r="AB24" s="16"/>
       <c r="AC24" s="11">
-        <f>AA24/Q24</f>
+        <f t="shared" si="11"/>
         <v>0.36765147311642121</v>
       </c>
     </row>
@@ -8382,7 +8412,7 @@
       <c r="G25" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>4.7E-2</v>
       </c>
       <c r="I25">
@@ -8390,11 +8420,11 @@
         <v>2360947</v>
       </c>
       <c r="J25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2303362.9268292687</v>
       </c>
       <c r="K25">
-        <f>H25*J25</f>
+        <f t="shared" si="7"/>
         <v>108258.05756097563</v>
       </c>
       <c r="N25" t="s">
@@ -8409,17 +8439,17 @@
         <v>224890.75219512201</v>
       </c>
       <c r="Q25">
-        <f>ROUND(P25/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>198559</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="16">
         <f>Q25/Stocks!E4</f>
         <v>4.1950168712106856E-2</v>
       </c>
       <c r="T25" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="17">
         <v>0.49099999999999999</v>
       </c>
       <c r="V25">
@@ -8427,23 +8457,23 @@
         <v>224890.75219512201</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>110421.35932780491</v>
       </c>
       <c r="Y25" t="s">
         <v>34</v>
       </c>
       <c r="Z25">
-        <f>W25</f>
+        <f t="shared" si="9"/>
         <v>110421.35932780491</v>
       </c>
       <c r="AA25">
-        <f>ROUND(Z25/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>74364</v>
       </c>
-      <c r="AB25" s="17"/>
+      <c r="AB25" s="16"/>
       <c r="AC25" s="11">
-        <f>AA25/Q25</f>
+        <f t="shared" si="11"/>
         <v>0.37451840510880896</v>
       </c>
     </row>
@@ -8451,7 +8481,7 @@
       <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I26">
@@ -8459,11 +8489,11 @@
         <v>2372843</v>
       </c>
       <c r="J26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2314968.7804878051</v>
       </c>
       <c r="K26">
-        <f>H26*J26</f>
+        <f t="shared" si="7"/>
         <v>134268.18926829271</v>
       </c>
       <c r="N26" t="s">
@@ -8478,17 +8508,17 @@
         <v>519103.60000000009</v>
       </c>
       <c r="Q26">
-        <f>ROUND(P26/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>458324</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="16">
         <f>Q26/Stocks!E5</f>
         <v>9.5846346046790973E-2</v>
       </c>
       <c r="T26" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="17">
         <v>0.47099999999999997</v>
       </c>
       <c r="V26">
@@ -8496,23 +8526,23 @@
         <v>519103.60000000009</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>244497.79560000004</v>
       </c>
       <c r="Y26" t="s">
         <v>35</v>
       </c>
       <c r="Z26">
-        <f>W26</f>
+        <f t="shared" si="9"/>
         <v>244497.79560000004</v>
       </c>
       <c r="AA26">
-        <f>ROUND(Z26/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>164659</v>
       </c>
-      <c r="AB26" s="17"/>
+      <c r="AB26" s="16"/>
       <c r="AC26" s="11">
-        <f>AA26/Q26</f>
+        <f t="shared" si="11"/>
         <v>0.35926331590752392</v>
       </c>
     </row>
@@ -8520,7 +8550,7 @@
       <c r="G27" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I27">
@@ -8528,11 +8558,11 @@
         <v>2490594</v>
       </c>
       <c r="J27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2429847.8048780491</v>
       </c>
       <c r="K27">
-        <f>H27*J27</f>
+        <f t="shared" si="7"/>
         <v>116632.69463414636</v>
       </c>
       <c r="N27" t="s">
@@ -8547,17 +8577,17 @@
         <v>819804.91317073186</v>
       </c>
       <c r="Q27">
-        <f>ROUND(P27/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>723818</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="16">
         <f>Q27/Stocks!E6</f>
         <v>0.13573853485166179</v>
       </c>
       <c r="T27" t="s">
         <v>36</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="17">
         <v>0.41499999999999998</v>
       </c>
       <c r="V27">
@@ -8565,23 +8595,23 @@
         <v>819804.91317073186</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>340219.03896585369</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
       </c>
       <c r="Z27">
-        <f>W27</f>
+        <f t="shared" si="9"/>
         <v>340219.03896585369</v>
       </c>
       <c r="AA27">
-        <f>ROUND(Z27/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>229123</v>
       </c>
-      <c r="AB27" s="17"/>
+      <c r="AB27" s="16"/>
       <c r="AC27" s="11">
-        <f>AA27/Q27</f>
+        <f t="shared" si="11"/>
         <v>0.31654780621647982</v>
       </c>
     </row>
@@ -8589,7 +8619,7 @@
       <c r="G28" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <v>0.156</v>
       </c>
       <c r="I28">
@@ -8597,11 +8627,11 @@
         <v>2528566</v>
       </c>
       <c r="J28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2466893.6585365855</v>
       </c>
       <c r="K28">
-        <f>H28*J28</f>
+        <f t="shared" si="7"/>
         <v>384835.41073170735</v>
       </c>
       <c r="N28" t="s">
@@ -8616,17 +8646,17 @@
         <v>1624948.8546341464</v>
       </c>
       <c r="Q28">
-        <f>ROUND(P28/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>1434692</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="16">
         <f>Q28/Stocks!E7</f>
         <v>0.2740288462475105</v>
       </c>
       <c r="T28" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="17">
         <v>0.68500000000000005</v>
       </c>
       <c r="V28">
@@ -8634,23 +8664,23 @@
         <v>1624948.8546341464</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1113089.9654243905</v>
       </c>
       <c r="Y28" t="s">
         <v>37</v>
       </c>
       <c r="Z28">
-        <f>W28</f>
+        <f t="shared" si="9"/>
         <v>1113089.9654243905</v>
       </c>
       <c r="AA28">
-        <f>ROUND(Z28/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>749620</v>
       </c>
-      <c r="AB28" s="17"/>
+      <c r="AB28" s="16"/>
       <c r="AC28" s="11">
-        <f>AA28/Q28</f>
+        <f t="shared" si="11"/>
         <v>0.52249542061989607</v>
       </c>
     </row>
@@ -8658,7 +8688,7 @@
       <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>0.124</v>
       </c>
       <c r="I29">
@@ -8666,11 +8696,11 @@
         <v>2756645</v>
       </c>
       <c r="J29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2689409.7560975612</v>
       </c>
       <c r="K29">
-        <f>H29*J29</f>
+        <f t="shared" si="7"/>
         <v>333486.80975609762</v>
       </c>
       <c r="N29" t="s">
@@ -8685,17 +8715,17 @@
         <v>1234315.1931707317</v>
       </c>
       <c r="Q29">
-        <f>ROUND(P29/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>1089795</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="16">
         <f>Q29/Stocks!E8</f>
         <v>0.20806763126382288</v>
       </c>
       <c r="T29" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="17">
         <v>0.52300000000000002</v>
       </c>
       <c r="V29">
@@ -8703,7 +8733,7 @@
         <v>895059.41951219505</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>468116.07640487805</v>
       </c>
       <c r="Y29" t="s">
@@ -8714,12 +8744,12 @@
         <v>711701.72189170728</v>
       </c>
       <c r="AA29">
-        <f>ROUND(Z29/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>479301</v>
       </c>
-      <c r="AB29" s="17"/>
+      <c r="AB29" s="16"/>
       <c r="AC29" s="11">
-        <f>AA29/Q29</f>
+        <f t="shared" si="11"/>
         <v>0.43980840433292501</v>
       </c>
     </row>
@@ -8727,7 +8757,7 @@
       <c r="G30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>0.27500000000000002</v>
       </c>
       <c r="I30">
@@ -8735,11 +8765,11 @@
         <v>2730307</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2663714.1463414636</v>
       </c>
       <c r="K30">
-        <f>H30*J30</f>
+        <f t="shared" si="7"/>
         <v>732521.39024390257</v>
       </c>
       <c r="N30" t="s">
@@ -8754,17 +8784,17 @@
         <v>1867377.2751219515</v>
       </c>
       <c r="Q30">
-        <f>ROUND(P30/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>1648736</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="16">
         <f>Q30/Stocks!E9</f>
         <v>0.31564016772767972</v>
       </c>
       <c r="T30" t="s">
         <v>93</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="17">
         <v>0.69299999999999995</v>
       </c>
       <c r="V30">
@@ -8772,7 +8802,7 @@
         <v>1426858.4341463416</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>988812.89486341469</v>
       </c>
       <c r="Y30" t="s">
@@ -8783,12 +8813,12 @@
         <v>1317439.9502312196</v>
       </c>
       <c r="AA30">
-        <f>ROUND(Z30/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>887241</v>
       </c>
-      <c r="AB30" s="17"/>
+      <c r="AB30" s="16"/>
       <c r="AC30" s="11">
-        <f>AA30/Q30</f>
+        <f t="shared" si="11"/>
         <v>0.53813406148710285</v>
       </c>
     </row>
@@ -8796,7 +8826,7 @@
       <c r="G31" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <v>0.184</v>
       </c>
       <c r="I31">
@@ -8804,11 +8834,11 @@
         <v>2709109</v>
       </c>
       <c r="J31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2643033.1707317075</v>
       </c>
       <c r="K31">
-        <f>H31*J31</f>
+        <f t="shared" si="7"/>
         <v>486318.10341463418</v>
       </c>
       <c r="N31" t="s">
@@ -8823,17 +8853,17 @@
         <v>502947.69951219519</v>
       </c>
       <c r="Q31">
-        <f>ROUND(P31/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>444060</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="16">
         <f>Q31/Stocks!E10</f>
         <v>0.11496222810187798</v>
       </c>
       <c r="T31" t="s">
         <v>69</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="17">
         <v>0.71799999999999997</v>
       </c>
       <c r="V31">
@@ -8841,7 +8871,7 @@
         <v>339255.77365853661</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>243585.64548682928</v>
       </c>
       <c r="Y31" t="s">
@@ -8852,12 +8882,12 @@
         <v>384252.04242731712</v>
       </c>
       <c r="AA31">
-        <f>ROUND(Z31/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>258778</v>
       </c>
-      <c r="AB31" s="17"/>
+      <c r="AB31" s="16"/>
       <c r="AC31" s="11">
-        <f>AA31/Q31</f>
+        <f t="shared" si="11"/>
         <v>0.58275458271404768</v>
       </c>
     </row>
@@ -8865,7 +8895,7 @@
       <c r="G32" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <v>0.34699999999999998</v>
       </c>
       <c r="I32">
@@ -8873,11 +8903,11 @@
         <v>2636133</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2571837.0731707318</v>
       </c>
       <c r="K32">
-        <f>H32*J32</f>
+        <f t="shared" si="7"/>
         <v>892427.46439024387</v>
       </c>
       <c r="N32" t="s">
@@ -8892,17 +8922,17 @@
         <v>912542.34048780485</v>
       </c>
       <c r="Q32">
-        <f>ROUND(P32/P$33*P$34,0)</f>
+        <f t="shared" si="8"/>
         <v>805697</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="16">
         <f>Q32/Stocks!E11</f>
         <v>0.15250886246931639</v>
       </c>
       <c r="T32" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="17">
         <v>0.746</v>
       </c>
       <c r="V32">
@@ -8910,7 +8940,7 @@
         <v>440518.84097560978</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>328627.05536780489</v>
       </c>
       <c r="Y32" t="s">
@@ -8921,12 +8951,12 @@
         <v>649730.14642731706</v>
       </c>
       <c r="AA32">
-        <f>ROUND(Z32/Z$33*Z$34,0)</f>
+        <f t="shared" si="10"/>
         <v>437566</v>
       </c>
-      <c r="AB32" s="17"/>
+      <c r="AB32" s="16"/>
       <c r="AC32" s="11">
-        <f>AA32/Q32</f>
+        <f t="shared" si="11"/>
         <v>0.54309002019369568</v>
       </c>
     </row>
@@ -8934,7 +8964,7 @@
       <c r="G33" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="17">
         <v>0.23699999999999999</v>
       </c>
       <c r="I33">
@@ -8942,11 +8972,11 @@
         <v>2226629</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2172320.9756097561</v>
       </c>
       <c r="K33">
-        <f>H33*J33</f>
+        <f t="shared" si="7"/>
         <v>514840.07121951215</v>
       </c>
       <c r="N33" t="s">
@@ -8967,7 +8997,7 @@
       <c r="T33" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="17">
         <v>0.76400000000000001</v>
       </c>
       <c r="V33">
@@ -8975,7 +9005,7 @@
         <v>502947.69951219519</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>384252.04242731712</v>
       </c>
       <c r="Y33" t="s">
@@ -8994,7 +9024,7 @@
       <c r="G34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>0.39400000000000002</v>
       </c>
       <c r="I34">
@@ -9002,11 +9032,11 @@
         <v>2154507</v>
       </c>
       <c r="J34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2101958.0487804879</v>
       </c>
       <c r="K34">
-        <f>H34*J34</f>
+        <f t="shared" si="7"/>
         <v>828171.47121951228</v>
       </c>
       <c r="N34" t="s">
@@ -9019,7 +9049,7 @@
       <c r="T34" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="17">
         <v>0.71199999999999997</v>
       </c>
       <c r="V34">
@@ -9027,7 +9057,7 @@
         <v>912542.34048780485</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>649730.14642731706</v>
       </c>
       <c r="Y34" t="s">
@@ -9042,7 +9072,7 @@
       <c r="G35" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <v>0.224</v>
       </c>
       <c r="I35">
@@ -9050,11 +9080,11 @@
         <v>1739843</v>
       </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1697407.8048780488</v>
       </c>
       <c r="K35">
-        <f>H35*J35</f>
+        <f t="shared" si="7"/>
         <v>380219.34829268296</v>
       </c>
     </row>
@@ -9062,7 +9092,7 @@
       <c r="G36" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <v>0.35899999999999999</v>
       </c>
       <c r="I36">
@@ -9070,11 +9100,11 @@
         <v>1709343</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1667651.7073170734</v>
       </c>
       <c r="K36">
-        <f>H36*J36</f>
+        <f t="shared" si="7"/>
         <v>598686.96292682935</v>
       </c>
     </row>
@@ -9082,7 +9112,7 @@
       <c r="G37" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <v>0.248</v>
       </c>
       <c r="I37">
@@ -9090,11 +9120,11 @@
         <v>1402166</v>
       </c>
       <c r="J37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1367966.8292682928</v>
       </c>
       <c r="K37">
-        <f>H37*J37</f>
+        <f t="shared" si="7"/>
         <v>339255.77365853661</v>
       </c>
     </row>
@@ -9102,7 +9132,7 @@
       <c r="G38" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="17">
         <v>0.30299999999999999</v>
       </c>
       <c r="I38">
@@ -9110,11 +9140,11 @@
         <v>1490204</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1453857.5609756098</v>
       </c>
       <c r="K38">
-        <f>H38*J38</f>
+        <f t="shared" si="7"/>
         <v>440518.84097560978</v>
       </c>
     </row>
@@ -9122,7 +9152,7 @@
       <c r="G39" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="17">
         <v>0.20200000000000001</v>
       </c>
       <c r="I39">
@@ -9130,11 +9160,11 @@
         <v>1084700</v>
       </c>
       <c r="J39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1058243.9024390245</v>
       </c>
       <c r="K39">
-        <f>H39*J39</f>
+        <f t="shared" si="7"/>
         <v>213765.26829268297</v>
       </c>
       <c r="O39" t="s">
@@ -9148,7 +9178,7 @@
       <c r="G40" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="17">
         <v>0.222</v>
       </c>
       <c r="I40">
@@ -9156,11 +9186,11 @@
         <v>1337881</v>
       </c>
       <c r="J40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1305249.756097561</v>
       </c>
       <c r="K40">
-        <f>H40*J40</f>
+        <f t="shared" si="7"/>
         <v>289765.44585365854</v>
       </c>
       <c r="N40" t="s">
@@ -9178,7 +9208,7 @@
       <c r="G41" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="17">
         <v>0.14799999999999999</v>
       </c>
       <c r="I41">
@@ -9186,11 +9216,11 @@
         <v>919710</v>
       </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>897278.04878048785</v>
       </c>
       <c r="K41">
-        <f>H41*J41</f>
+        <f t="shared" si="7"/>
         <v>132797.15121951219</v>
       </c>
       <c r="N41" t="s">
@@ -9200,7 +9230,7 @@
         <v>14364.814394885114</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P49" si="12">ROUND(O41/O$50*O$51,0)</f>
+        <f t="shared" ref="P41:P49" si="14">ROUND(O41/O$50*O$51,0)</f>
         <v>13843</v>
       </c>
     </row>
@@ -9208,7 +9238,7 @@
       <c r="G42" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="17">
         <v>0.17599999999999999</v>
       </c>
       <c r="I42">
@@ -9216,11 +9246,11 @@
         <v>1142656</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1114786.3414634147</v>
       </c>
       <c r="K42">
-        <f>H42*J42</f>
+        <f t="shared" si="7"/>
         <v>196202.39609756097</v>
       </c>
       <c r="N42" t="s">
@@ -9230,7 +9260,7 @@
         <v>10326.020576300254</v>
       </c>
       <c r="P42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9951</v>
       </c>
     </row>
@@ -9238,7 +9268,7 @@
       <c r="G43" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="17">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="I43">
@@ -9246,11 +9276,11 @@
         <v>1954816</v>
       </c>
       <c r="J43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1907137.5609756098</v>
       </c>
       <c r="K43">
-        <f>H43*J43</f>
+        <f t="shared" si="7"/>
         <v>156385.28</v>
       </c>
       <c r="N43" t="s">
@@ -9260,7 +9290,7 @@
         <v>28525.363413535277</v>
       </c>
       <c r="P43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27490</v>
       </c>
     </row>
@@ -9268,7 +9298,7 @@
       <c r="G44" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="17">
         <v>0.14899999999999999</v>
       </c>
       <c r="I44">
@@ -9276,11 +9306,11 @@
         <v>2934489</v>
       </c>
       <c r="J44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2862916.0975609757</v>
       </c>
       <c r="K44">
-        <f>H44*J44</f>
+        <f t="shared" si="7"/>
         <v>426574.49853658536</v>
       </c>
       <c r="N44" t="s">
@@ -9290,12 +9320,12 @@
         <v>46773.306428314987</v>
       </c>
       <c r="P44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45076</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.2">
-      <c r="H45" s="18"/>
+      <c r="H45" s="17"/>
       <c r="N45" t="s">
         <v>37</v>
       </c>
@@ -9303,12 +9333,12 @@
         <v>53837.082052317652</v>
       </c>
       <c r="P45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51883</v>
       </c>
     </row>
     <row r="46" spans="7:27" x14ac:dyDescent="0.2">
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="19" t="s">
         <v>78</v>
       </c>
       <c r="N46" t="s">
@@ -9318,7 +9348,7 @@
         <v>44876.879667539899</v>
       </c>
       <c r="P46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43248</v>
       </c>
     </row>
@@ -9337,7 +9367,7 @@
         <v>45327.802116037696</v>
       </c>
       <c r="P47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43683</v>
       </c>
     </row>
@@ -9356,7 +9386,7 @@
         <v>13502.711302428132</v>
       </c>
       <c r="P48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13013</v>
       </c>
     </row>
@@ -9375,7 +9405,7 @@
         <v>12544.10218312066</v>
       </c>
       <c r="P49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12089</v>
       </c>
     </row>
@@ -9644,7 +9674,7 @@
   <dimension ref="B4:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9680,29 +9710,29 @@
         <f>'Population Definitions'!A2</f>
         <v>Males 0-14</v>
       </c>
-      <c r="C5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C5" s="7">
+        <f>Stocks!E2</f>
+        <v>8326773</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Stocks!E14</f>
+        <v>176444</v>
+      </c>
+      <c r="E5" s="7">
+        <f>Stocks!E26</f>
+        <v>137626.32</v>
+      </c>
+      <c r="F5" s="7">
+        <f>Stocks!E62</f>
+        <v>107005.83</v>
+      </c>
+      <c r="G5" s="7">
+        <f>Stocks!E74</f>
+        <v>96799</v>
+      </c>
+      <c r="H5" s="7">
+        <f>Stocks!E86</f>
+        <v>75503</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -9710,29 +9740,29 @@
         <f>'Population Definitions'!A3</f>
         <v>Females 0-14</v>
       </c>
-      <c r="C6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C6" s="7">
+        <f>Stocks!E3</f>
+        <v>8301049</v>
+      </c>
+      <c r="D6" s="7">
+        <f>Stocks!E15</f>
+        <v>219874</v>
+      </c>
+      <c r="E6" s="7">
+        <f>Stocks!E27</f>
+        <v>195467.986</v>
+      </c>
+      <c r="F6" s="7">
+        <f>Stocks!E63</f>
+        <v>126594.74650000001</v>
+      </c>
+      <c r="G6" s="7">
+        <f>Stocks!E75</f>
+        <v>103637</v>
+      </c>
+      <c r="H6" s="7">
+        <f>Stocks!E87</f>
+        <v>80837</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -9740,29 +9770,29 @@
         <f>'Population Definitions'!A4</f>
         <v>Males 15-24</v>
       </c>
-      <c r="C7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C7" s="7">
+        <f>Stocks!E4</f>
+        <v>4733211</v>
+      </c>
+      <c r="D7" s="7">
+        <f>Stocks!E16</f>
+        <v>198559</v>
+      </c>
+      <c r="E7" s="7">
+        <f>Stocks!E28</f>
+        <v>154876.02000000002</v>
+      </c>
+      <c r="F7" s="7">
+        <f>Stocks!E64</f>
+        <v>110222.505</v>
+      </c>
+      <c r="G7" s="7">
+        <f>Stocks!E76</f>
+        <v>95338</v>
+      </c>
+      <c r="H7" s="7">
+        <f>Stocks!E88</f>
+        <v>74364</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -9770,29 +9800,29 @@
         <f>'Population Definitions'!A5</f>
         <v>Females 15-24</v>
       </c>
-      <c r="C8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C8" s="7">
+        <f>Stocks!E5</f>
+        <v>4781862</v>
+      </c>
+      <c r="D8" s="7">
+        <f>Stocks!E17</f>
+        <v>458324</v>
+      </c>
+      <c r="E8" s="7">
+        <f>Stocks!E29</f>
+        <v>407450.03600000002</v>
+      </c>
+      <c r="F8" s="7">
+        <f>Stocks!E65</f>
+        <v>260188.25900000002</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Stocks!E77</f>
+        <v>211101</v>
+      </c>
+      <c r="H8" s="7">
+        <f>Stocks!E89</f>
+        <v>164659</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -9800,29 +9830,29 @@
         <f>'Population Definitions'!A6</f>
         <v>Males 25-34</v>
       </c>
-      <c r="C9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C9" s="7">
+        <f>Stocks!E6</f>
+        <v>5332443</v>
+      </c>
+      <c r="D9" s="7">
+        <f>Stocks!E18</f>
+        <v>723818</v>
+      </c>
+      <c r="E9" s="7">
+        <f>Stocks!E30</f>
+        <v>564578.04</v>
+      </c>
+      <c r="F9" s="7">
+        <f>Stocks!E66</f>
+        <v>361454.76</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Stocks!E78</f>
+        <v>293747</v>
+      </c>
+      <c r="H9" s="7">
+        <f>Stocks!E90</f>
+        <v>229123</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -9830,29 +9860,29 @@
         <f>'Population Definitions'!A7</f>
         <v>Females 25-34</v>
       </c>
-      <c r="C10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C10" s="7">
+        <f>Stocks!E7</f>
+        <v>5235551</v>
+      </c>
+      <c r="D10" s="7">
+        <f>Stocks!E19</f>
+        <v>1434692</v>
+      </c>
+      <c r="E10" s="7">
+        <f>Stocks!E31</f>
+        <v>1275441.1880000001</v>
+      </c>
+      <c r="F10" s="7">
+        <f>Stocks!E67</f>
+        <v>1039648.547</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Stocks!E79</f>
+        <v>961051</v>
+      </c>
+      <c r="H10" s="7">
+        <f>Stocks!E91</f>
+        <v>749620</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -9860,29 +9890,29 @@
         <f>'Population Definitions'!A8</f>
         <v>Males 35-49</v>
       </c>
-      <c r="C11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C11" s="7">
+        <f>Stocks!E8</f>
+        <v>5237696</v>
+      </c>
+      <c r="D11" s="7">
+        <f>Stocks!E20</f>
+        <v>1089795</v>
+      </c>
+      <c r="E11" s="7">
+        <f>Stocks!E32</f>
+        <v>850040.1</v>
+      </c>
+      <c r="F11" s="7">
+        <f>Stocks!E68</f>
+        <v>673376.02500000002</v>
+      </c>
+      <c r="G11" s="7">
+        <f>Stocks!E80</f>
+        <v>614488</v>
+      </c>
+      <c r="H11" s="7">
+        <f>Stocks!E92</f>
+        <v>479301</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -9890,29 +9920,29 @@
         <f>'Population Definitions'!A9</f>
         <v>Females 35-49</v>
       </c>
-      <c r="C12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C12" s="7">
+        <f>Stocks!E9</f>
+        <v>5223467</v>
+      </c>
+      <c r="D12" s="7">
+        <f>Stocks!E21</f>
+        <v>1648736</v>
+      </c>
+      <c r="E12" s="7">
+        <f>Stocks!E33</f>
+        <v>1465726.304</v>
+      </c>
+      <c r="F12" s="7">
+        <f>Stocks!E69</f>
+        <v>1219547.5759999999</v>
+      </c>
+      <c r="G12" s="7">
+        <f>Stocks!E81</f>
+        <v>1137488</v>
+      </c>
+      <c r="H12" s="7">
+        <f>Stocks!E93</f>
+        <v>887241</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -9920,29 +9950,29 @@
         <f>'Population Definitions'!A10</f>
         <v>Males 50+</v>
       </c>
-      <c r="C13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C13" s="7">
+        <f>Stocks!E10</f>
+        <v>3862660</v>
+      </c>
+      <c r="D13" s="7">
+        <f>Stocks!E22</f>
+        <v>444060</v>
+      </c>
+      <c r="E13" s="7">
+        <f>Stocks!E34</f>
+        <v>346366.8</v>
+      </c>
+      <c r="F13" s="7">
+        <f>Stocks!E70</f>
+        <v>335416.95</v>
+      </c>
+      <c r="G13" s="7">
+        <f>Stocks!E82</f>
+        <v>331767</v>
+      </c>
+      <c r="H13" s="7">
+        <f>Stocks!E94</f>
+        <v>258778</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -9950,58 +9980,58 @@
         <f>'Population Definitions'!A11</f>
         <v>Females 50+</v>
       </c>
-      <c r="C14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="15" t="e">
-        <f>Stocks!#REF!</f>
-        <v>#REF!</v>
+      <c r="C14" s="7">
+        <f>Stocks!E11</f>
+        <v>5282952</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Stocks!E23</f>
+        <v>805697</v>
+      </c>
+      <c r="E14" s="7">
+        <f>Stocks!E35</f>
+        <v>716264.63300000003</v>
+      </c>
+      <c r="F14" s="7">
+        <f>Stocks!E71</f>
+        <v>599802.65824999998</v>
+      </c>
+      <c r="G14" s="7">
+        <f>Stocks!E83</f>
+        <v>560982</v>
+      </c>
+      <c r="H14" s="7">
+        <f>Stocks!E95</f>
+        <v>437566</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="16" t="e">
+      <c r="C15" s="10">
         <f t="shared" ref="C15:H15" si="0">SUM(C5:C14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="16" t="e">
+        <v>56317664</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="16" t="e">
+        <v>7199999</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="16" t="e">
+        <v>6113837.4270000001</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="16" t="e">
+        <v>4833257.8567500003</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="16" t="e">
+        <v>4406398</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>3436992</v>
       </c>
     </row>
   </sheetData>

--- a/hiv-southafrica/hiv_southafrica_databook.xlsx
+++ b/hiv-southafrica/hiv_southafrica_databook.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/hiv-southafrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5214B6B-4055-5B4E-B997-8136FF8D865C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E13CEA-D3EF-5345-96A8-46B4897C23B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="25600" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="25600" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
     <sheet name="#ignore - Misc calcs" sheetId="4" r:id="rId4"/>
-    <sheet name="#ignore - 2016 cascade" sheetId="5" r:id="rId5"/>
+    <sheet name="#ignore - 2017 cascade" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -30,7 +29,7 @@
     <author>Robyn Stuart</author>
   </authors>
   <commentList>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{2F733187-B6E3-EC47-AE14-2A4DE265F18C}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{2F733187-B6E3-EC47-AE14-2A4DE265F18C}">
       <text>
         <r>
           <rPr>
@@ -92,6 +91,39 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>https://www.statssa.gov.za/publications/P0302/P03022017.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{7E262829-5D71-3644-B082-9597ACE28D6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>http://www.statssa.gov.za/publications/P0302/P03022018.pdf</t>
         </r>
       </text>
@@ -101,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="121">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -337,9 +369,6 @@
     <t>Prevalence 2017 (HSRC)</t>
   </si>
   <si>
-    <t>Pop size</t>
-  </si>
-  <si>
     <t>Males 0-4</t>
   </si>
   <si>
@@ -422,19 +451,65 @@
   </si>
   <si>
     <t>2017 total</t>
+  </si>
+  <si>
+    <t>Thembisa on ART</t>
+  </si>
+  <si>
+    <t>Total on ART</t>
+  </si>
+  <si>
+    <t>Males age 15+ on ART</t>
+  </si>
+  <si>
+    <t>Females age 15+ on ART</t>
+  </si>
+  <si>
+    <t>Children aged &lt;15 on ART</t>
+  </si>
+  <si>
+    <t>% of HIV-positive individuals virally suppressed on ART</t>
+  </si>
+  <si>
+    <t>% of HIV-positive men (15+) virally suppressed on ART</t>
+  </si>
+  <si>
+    <t>% of HIV-positive women (15+) virally suppressed on ART</t>
+  </si>
+  <si>
+    <t>% of HIV-positive children (&lt;15) virally suppressed on ART</t>
+  </si>
+  <si>
+    <t>FROM SA STATS</t>
+  </si>
+  <si>
+    <t>FROM HSRC</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>FROM THEMBISA - NOT DISAG BY AGE</t>
+  </si>
+  <si>
+    <t>FROM THEMBISA POPULATIONS SHEET</t>
+  </si>
+  <si>
+    <t>NB LOOKS WRONG???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +544,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -535,7 +617,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,9 +644,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -573,6 +652,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1532,8 +1619,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1582,10 +1669,13 @@
       </c>
       <c r="E2" s="5">
         <f>'#ignore - Misc calcs'!O23</f>
-        <v>8326773</v>
+        <v>8382497</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
+      <c r="I2">
+        <v>8461987.4043373279</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
@@ -1601,10 +1691,13 @@
       </c>
       <c r="E3" s="5">
         <f>'#ignore - Misc calcs'!O24</f>
-        <v>8301049</v>
+        <v>8342334</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
+      <c r="I3">
+        <v>8358895.8161622537</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
@@ -1620,10 +1713,13 @@
       </c>
       <c r="E4" s="5">
         <f>'#ignore - Misc calcs'!O25</f>
-        <v>4733211</v>
+        <v>4792051</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
+      <c r="I4">
+        <v>5228036.8979753265</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
@@ -1639,10 +1735,13 @@
       </c>
       <c r="E5" s="5">
         <f>'#ignore - Misc calcs'!O26</f>
-        <v>4781862</v>
+        <v>4831221</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
+      <c r="I5">
+        <v>5187881.2580160527</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
@@ -1658,10 +1757,13 @@
       </c>
       <c r="E6" s="5">
         <f>'#ignore - Misc calcs'!O27</f>
-        <v>5332443</v>
+        <v>5386550</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
+      <c r="I6">
+        <v>4982376.9437053166</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
@@ -1677,10 +1779,13 @@
       </c>
       <c r="E7" s="5">
         <f>'#ignore - Misc calcs'!O28</f>
-        <v>5235551</v>
+        <v>5385488</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
+      <c r="I7">
+        <v>4942242.7957670828</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
@@ -1696,10 +1801,13 @@
       </c>
       <c r="E8" s="5">
         <f>'#ignore - Misc calcs'!O29</f>
-        <v>5237696</v>
+        <v>5223461</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
+      <c r="I8">
+        <v>6892429.4904394746</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
@@ -1715,10 +1823,13 @@
       </c>
       <c r="E9" s="5">
         <f>'#ignore - Misc calcs'!O30</f>
-        <v>5223467</v>
+        <v>5200096</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
+      <c r="I9">
+        <v>6983577.2206549272</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
@@ -1734,10 +1845,13 @@
       </c>
       <c r="E10" s="5">
         <f>'#ignore - Misc calcs'!O31</f>
-        <v>3862660</v>
+        <v>3836083</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
+      <c r="I10">
+        <v>5234101.0677700546</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
@@ -1753,10 +1867,13 @@
       </c>
       <c r="E11" s="5">
         <f>'#ignore - Misc calcs'!O32</f>
-        <v>5282952</v>
+        <v>5142166</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
+      <c r="I11">
+        <v>7071178.6035028193</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1793,11 +1910,17 @@
       </c>
       <c r="E14" s="5">
         <f>'#ignore - Misc calcs'!Q23</f>
-        <v>176444</v>
+        <v>180539</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19">
+        <v>65954.650078123785</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14/I2</f>
+        <v>7.794226926444923E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
@@ -1813,11 +1936,17 @@
       </c>
       <c r="E15" s="5">
         <f>'#ignore - Misc calcs'!Q24</f>
-        <v>219874</v>
+        <v>224592</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19">
+        <v>65591.223127494348</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" ref="J15:J23" si="0">I15/I3</f>
+        <v>7.8468764978110069E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
@@ -1833,13 +1962,18 @@
       </c>
       <c r="E16" s="5">
         <f>'#ignore - Misc calcs'!Q25</f>
-        <v>198559</v>
+        <v>204365</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="19">
+        <v>174562.2417390584</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
+        <v>3.3389634607717003E-2</v>
+      </c>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
@@ -1855,11 +1989,17 @@
       </c>
       <c r="E17" s="5">
         <f>'#ignore - Misc calcs'!Q26</f>
-        <v>458324</v>
+        <v>473693</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19">
+        <v>412297.37281094864</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="0"/>
+        <v>7.9473170704107296E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
@@ -1875,12 +2015,18 @@
       </c>
       <c r="E18" s="5">
         <f>'#ignore - Misc calcs'!Q27</f>
-        <v>723818</v>
+        <v>741294</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="I18" s="20"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="19">
+        <v>420744.72676296305</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
+        <v>8.4446586743005786E-2</v>
+      </c>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
@@ -1896,12 +2042,18 @@
       </c>
       <c r="E19" s="5">
         <f>'#ignore - Misc calcs'!Q28</f>
-        <v>1434692</v>
+        <v>1498243</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="20"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="19">
+        <v>1060448.9940291056</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.2145683726702694</v>
+      </c>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
@@ -1917,11 +2069,17 @@
       </c>
       <c r="E20" s="5">
         <f>'#ignore - Misc calcs'!Q29</f>
-        <v>1089795</v>
+        <v>1104201</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="19">
+        <v>1354387.1477715843</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.19650359131714903</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
@@ -1937,11 +2095,17 @@
       </c>
       <c r="E21" s="5">
         <f>'#ignore - Misc calcs'!Q30</f>
-        <v>1648736</v>
+        <v>1669314</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19">
+        <v>2388060.133467854</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.34195370911125961</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
@@ -1957,11 +2121,17 @@
       </c>
       <c r="E22" s="5">
         <f>'#ignore - Misc calcs'!Q31</f>
-        <v>444060</v>
+        <v>452777</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19">
+        <v>917064.47208506067</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.17520954605405975</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
@@ -1977,11 +2147,17 @@
       </c>
       <c r="E23" s="5">
         <f>'#ignore - Misc calcs'!Q32</f>
-        <v>805697</v>
+        <v>798835</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19">
+        <v>1477781.614443351</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.20898660567155081</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2017,13 +2193,15 @@
         <v>6</v>
       </c>
       <c r="E26" s="5">
-        <f>78%*E14</f>
-        <v>137626.32</v>
+        <f>77.9%*E14</f>
+        <v>140639.88099999999</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="I26" s="19">
+        <v>49758.267189648468</v>
+      </c>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
@@ -2038,13 +2216,15 @@
         <v>6</v>
       </c>
       <c r="E27" s="5">
-        <f>88.9%*E15</f>
-        <v>195467.986</v>
+        <f>77.9%*E15</f>
+        <v>174957.16800000001</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="21">
+        <v>49342.632399451373</v>
+      </c>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
@@ -2059,13 +2239,15 @@
         <v>6</v>
       </c>
       <c r="E28" s="5">
-        <f>78%*E16</f>
-        <v>154876.02000000002</v>
+        <f>87.5%*E16</f>
+        <v>178819.375</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="I28" s="19">
+        <v>147752.83556935258</v>
+      </c>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
@@ -2080,13 +2262,15 @@
         <v>6</v>
       </c>
       <c r="E29" s="5">
-        <f>88.9%*E17</f>
-        <v>407450.03600000002</v>
+        <f>92.3%*E17</f>
+        <v>437218.63899999997</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="I29" s="19">
+        <v>334468.5390896654</v>
+      </c>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
@@ -2101,13 +2285,15 @@
         <v>6</v>
       </c>
       <c r="E30" s="5">
-        <f>78%*E18</f>
-        <v>564578.04</v>
+        <f>87.5%*E18</f>
+        <v>648632.25</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="I30" s="19">
+        <v>365445.3787104183</v>
+      </c>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
@@ -2122,13 +2308,15 @@
         <v>6</v>
       </c>
       <c r="E31" s="5">
-        <f>88.9%*E19</f>
-        <v>1275441.1880000001</v>
+        <f>92.3%*E19</f>
+        <v>1382878.2889999999</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="I31" s="19">
+        <v>1012162.7462515156</v>
+      </c>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
@@ -2143,13 +2331,15 @@
         <v>6</v>
       </c>
       <c r="E32" s="5">
-        <f>78%*E20</f>
-        <v>850040.1</v>
+        <f>87.5%*E20</f>
+        <v>966175.875</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="19">
+        <v>1298289.0908842131</v>
+      </c>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
@@ -2164,13 +2354,15 @@
         <v>6</v>
       </c>
       <c r="E33" s="5">
-        <f>88.9%*E21</f>
-        <v>1465726.304</v>
+        <f>92.3%*E21</f>
+        <v>1540776.8219999999</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="I33" s="19">
+        <v>2333359.4483758169</v>
+      </c>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
@@ -2185,13 +2377,15 @@
         <v>6</v>
       </c>
       <c r="E34" s="5">
-        <f>78%*E22</f>
-        <v>346366.8</v>
+        <f>87.5%*E22</f>
+        <v>396179.875</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="I34" s="19">
+        <v>892274.30617312365</v>
+      </c>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
@@ -2206,13 +2400,15 @@
         <v>6</v>
       </c>
       <c r="E35" s="5">
-        <f>88.9%*E23</f>
-        <v>716264.63300000003</v>
+        <f>92.3%*E23</f>
+        <v>737324.70499999996</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="I35" s="19">
+        <v>1434992.7020741471</v>
+      </c>
+      <c r="J35" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2249,11 +2445,11 @@
       </c>
       <c r="E38" s="5">
         <f>AVERAGE(E26,E50)</f>
-        <v>127419.49</v>
+        <v>111654.41075</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
@@ -2268,12 +2464,12 @@
         <v>6</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:E47" si="0">AVERAGE(E27,E51)</f>
-        <v>172510.23950000003</v>
+        <f t="shared" ref="E39:E47" si="1">AVERAGE(E27,E51)</f>
+        <v>137337.12599999999</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="I39" s="20"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
@@ -2288,12 +2484,12 @@
         <v>6</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="0"/>
-        <v>139991.51500000001</v>
+        <f t="shared" si="1"/>
+        <v>152269.53125</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
@@ -2308,12 +2504,12 @@
         <v>6</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="0"/>
-        <v>358362.777</v>
+        <f t="shared" si="1"/>
+        <v>367041.97924999997</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
@@ -2328,12 +2524,12 @@
         <v>6</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="0"/>
-        <v>496870.28</v>
+        <f t="shared" si="1"/>
+        <v>528910.4375</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
@@ -2348,12 +2544,12 @@
         <v>6</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="0"/>
-        <v>1196843.6410000001</v>
+        <f t="shared" si="1"/>
+        <v>1167085.4667499999</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
@@ -2368,12 +2564,12 @@
         <v>6</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="0"/>
-        <v>791152.07499999995</v>
+        <f t="shared" si="1"/>
+        <v>890304.15625</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
@@ -2388,12 +2584,12 @@
         <v>6</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="0"/>
-        <v>1383666.7280000001</v>
+        <f t="shared" si="1"/>
+        <v>1463320.8665</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
@@ -2408,12 +2604,12 @@
         <v>6</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="0"/>
-        <v>342716.85</v>
+        <f t="shared" si="1"/>
+        <v>414738.65625</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
@@ -2428,12 +2624,12 @@
         <v>6</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="0"/>
-        <v>677443.97475000005</v>
+        <f t="shared" si="1"/>
+        <v>743279.77875000006</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -2470,11 +2666,11 @@
       </c>
       <c r="E50" s="5">
         <f>AVERAGE(E26,E74)</f>
-        <v>117212.66</v>
+        <v>82668.940499999997</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
@@ -2489,12 +2685,12 @@
         <v>6</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" ref="E51:E59" si="1">AVERAGE(E27,E75)</f>
-        <v>149552.49300000002</v>
+        <f t="shared" ref="E51:E59" si="2">AVERAGE(E27,E75)</f>
+        <v>99717.084000000003</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
@@ -2509,12 +2705,12 @@
         <v>6</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>125107.01000000001</v>
+        <f t="shared" si="2"/>
+        <v>125719.6875</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
@@ -2529,12 +2725,12 @@
         <v>6</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="1"/>
-        <v>309275.51800000004</v>
+        <f t="shared" si="2"/>
+        <v>296865.31949999998</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
@@ -2549,12 +2745,12 @@
         <v>6</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="1"/>
-        <v>429162.52</v>
+        <f t="shared" si="2"/>
+        <v>409188.625</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
@@ -2569,12 +2765,12 @@
         <v>6</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="1"/>
-        <v>1118246.094</v>
+        <f t="shared" si="2"/>
+        <v>951292.64449999994</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
@@ -2589,12 +2785,12 @@
         <v>6</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="1"/>
-        <v>732264.05</v>
+        <f t="shared" si="2"/>
+        <v>814432.4375</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
@@ -2609,12 +2805,12 @@
         <v>6</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="1"/>
-        <v>1301607.152</v>
+        <f t="shared" si="2"/>
+        <v>1385864.9109999998</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
@@ -2629,12 +2825,12 @@
         <v>6</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="1"/>
-        <v>339066.9</v>
+        <f t="shared" si="2"/>
+        <v>433297.4375</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
@@ -2649,12 +2845,12 @@
         <v>6</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="1"/>
-        <v>638623.31649999996</v>
+        <f t="shared" si="2"/>
+        <v>749234.85250000004</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2691,13 +2887,13 @@
       </c>
       <c r="E62" s="5">
         <f>AVERAGE(E50,E74)</f>
-        <v>107005.83</v>
+        <v>53683.470249999998</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="I62" s="20">
-        <f t="shared" ref="I62:I71" si="2">E62/E26</f>
-        <v>0.77750992688026532</v>
+      <c r="I62" s="19">
+        <f>E62/E26</f>
+        <v>0.38170872919040655</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2714,13 +2910,13 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" ref="E63:E71" si="3">AVERAGE(E51,E75)</f>
-        <v>126594.74650000001</v>
+        <v>62097.042000000001</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="I63" s="20">
-        <f t="shared" si="2"/>
-        <v>0.64764951586496622</v>
+      <c r="I63" s="19">
+        <f t="shared" ref="I63:I71" si="4">E63/E27</f>
+        <v>0.35492710993127186</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,13 +2933,13 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="3"/>
-        <v>110222.505</v>
+        <v>99169.84375</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="I64" s="20">
-        <f t="shared" si="2"/>
-        <v>0.71168218940543537</v>
+      <c r="I64" s="19">
+        <f t="shared" si="4"/>
+        <v>0.55458108915770454</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2760,13 +2956,13 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="3"/>
-        <v>260188.25900000002</v>
+        <v>226688.65974999999</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="I65" s="20">
-        <f t="shared" si="2"/>
-        <v>0.63857709169523791</v>
+      <c r="I65" s="19">
+        <f t="shared" si="4"/>
+        <v>0.51847894744029888</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2783,13 +2979,13 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="3"/>
-        <v>361454.76</v>
+        <v>289466.8125</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="I66" s="20">
-        <f t="shared" si="2"/>
-        <v>0.64022107554874075</v>
+      <c r="I66" s="19">
+        <f t="shared" si="4"/>
+        <v>0.44627261826713055</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2806,13 +3002,13 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="3"/>
-        <v>1039648.547</v>
+        <v>735499.82224999997</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="I67" s="20">
-        <f t="shared" si="2"/>
-        <v>0.81512856632006458</v>
+      <c r="I67" s="19">
+        <f t="shared" si="4"/>
+        <v>0.53186157314094618</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2829,13 +3025,13 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="3"/>
-        <v>673376.02500000002</v>
+        <v>738560.71875</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="I68" s="20">
-        <f t="shared" si="2"/>
-        <v>0.7921697164639645</v>
+      <c r="I68" s="19">
+        <f t="shared" si="4"/>
+        <v>0.76441643582748331</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2852,13 +3048,13 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="3"/>
-        <v>1219547.5759999999</v>
+        <v>1308408.9554999999</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="I69" s="20">
-        <f t="shared" si="2"/>
-        <v>0.8320431806892099</v>
+      <c r="I69" s="19">
+        <f t="shared" si="4"/>
+        <v>0.84918784915366541</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -2875,13 +3071,13 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="3"/>
-        <v>335416.95</v>
+        <v>451856.21875</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="I70" s="20">
-        <f t="shared" si="2"/>
-        <v>0.96838654859530426</v>
+      <c r="I70" s="19">
+        <f t="shared" si="4"/>
+        <v>1.1405329933783235</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -2898,13 +3094,13 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="3"/>
-        <v>599802.65824999998</v>
+        <v>755189.92625000002</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="I71" s="20">
-        <f t="shared" si="2"/>
-        <v>0.83740370613831483</v>
+      <c r="I71" s="19">
+        <f t="shared" si="4"/>
+        <v>1.0242297879466822</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -2941,12 +3137,15 @@
         <v>6</v>
       </c>
       <c r="E74" s="5">
-        <f>ROUND(E86/SUM(E$86:E$95)*SUM(E$14:E$23)*90%*68%,0)</f>
-        <v>96799</v>
+        <f>ROUND('#ignore - Misc calcs'!W39,0)</f>
+        <v>24698</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="19">
+        <f>E74/E62</f>
+        <v>0.46006712839135061</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
@@ -2961,12 +3160,15 @@
         <v>6</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" ref="E75:E83" si="4">ROUND(E87/SUM(E$86:E$95)*SUM(E$14:E$23)*90%*68%,0)</f>
-        <v>103637</v>
+        <f>ROUND('#ignore - Misc calcs'!W40,0)</f>
+        <v>24477</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="I75" s="22"/>
+      <c r="I75" s="19">
+        <f t="shared" ref="I75:I83" si="5">E75/E63</f>
+        <v>0.39417336497284361</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
@@ -2981,12 +3183,15 @@
         <v>6</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="4"/>
-        <v>95338</v>
+        <f>ROUND('#ignore - Misc calcs'!W41,0)</f>
+        <v>72620</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="19">
+        <f t="shared" si="5"/>
+        <v>0.73227906038724599</v>
+      </c>
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3002,12 +3207,15 @@
         <v>6</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="4"/>
-        <v>211101</v>
+        <f>ROUND('#ignore - Misc calcs'!W42,0)</f>
+        <v>156512</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="19">
+        <f t="shared" si="5"/>
+        <v>0.69042712667059214</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
@@ -3022,13 +3230,16 @@
         <v>6</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="4"/>
-        <v>293747</v>
+        <f>ROUND('#ignore - Misc calcs'!W43,0)</f>
+        <v>169745</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
+      <c r="I78" s="19">
+        <f t="shared" si="5"/>
+        <v>0.5864057386544097</v>
+      </c>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
@@ -3043,12 +3254,15 @@
         <v>6</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="4"/>
-        <v>961051</v>
+        <f>ROUND('#ignore - Misc calcs'!W44,0)</f>
+        <v>519707</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="19">
+        <f t="shared" si="5"/>
+        <v>0.70660384173872592</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
@@ -3063,12 +3277,15 @@
         <v>6</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="4"/>
-        <v>614488</v>
+        <f>ROUND('#ignore - Misc calcs'!W45,0)</f>
+        <v>662689</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="I80" s="20"/>
+      <c r="I80" s="19">
+        <f t="shared" si="5"/>
+        <v>0.89727084473377972</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
@@ -3083,12 +3300,15 @@
         <v>6</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="4"/>
-        <v>1137488</v>
+        <f>ROUND('#ignore - Misc calcs'!W46,0)</f>
+        <v>1230953</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="I81" s="20"/>
+      <c r="I81" s="19">
+        <f t="shared" si="5"/>
+        <v>0.94080141749687074</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
@@ -3103,12 +3323,15 @@
         <v>6</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="4"/>
-        <v>331767</v>
+        <f>ROUND('#ignore - Misc calcs'!W47,0)</f>
+        <v>470415</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="I82" s="20"/>
+      <c r="I82" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0410723156612527</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
@@ -3123,12 +3346,15 @@
         <v>6</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="4"/>
-        <v>560982</v>
+        <f>ROUND('#ignore - Misc calcs'!W48,0)</f>
+        <v>761145</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="I83" s="20"/>
+      <c r="I83" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0078855312326143</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -3165,11 +3391,11 @@
       </c>
       <c r="E86" s="5">
         <f>'#ignore - Misc calcs'!AA23</f>
-        <v>75503</v>
+        <v>75751</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
@@ -3185,11 +3411,11 @@
       </c>
       <c r="E87" s="5">
         <f>'#ignore - Misc calcs'!AA24</f>
-        <v>80837</v>
+        <v>80965</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="I87" s="22"/>
+      <c r="I87" s="21"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
@@ -3205,11 +3431,11 @@
       </c>
       <c r="E88" s="5">
         <f>'#ignore - Misc calcs'!AA25</f>
-        <v>74364</v>
+        <v>75049</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="I88" s="20"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
@@ -3225,11 +3451,11 @@
       </c>
       <c r="E89" s="5">
         <f>'#ignore - Misc calcs'!AA26</f>
-        <v>164659</v>
+        <v>166867</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="I89" s="20"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
@@ -3245,11 +3471,11 @@
       </c>
       <c r="E90" s="5">
         <f>'#ignore - Misc calcs'!AA27</f>
-        <v>229123</v>
+        <v>230087</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="I90" s="20"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
@@ -3265,11 +3491,11 @@
       </c>
       <c r="E91" s="5">
         <f>'#ignore - Misc calcs'!AA28</f>
-        <v>749620</v>
+        <v>767586</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
@@ -3285,11 +3511,11 @@
       </c>
       <c r="E92" s="5">
         <f>'#ignore - Misc calcs'!AA29</f>
-        <v>479301</v>
+        <v>475921</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
@@ -3305,11 +3531,11 @@
       </c>
       <c r="E93" s="5">
         <f>'#ignore - Misc calcs'!AA30</f>
-        <v>887241</v>
+        <v>880652</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="I93" s="20"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
@@ -3325,11 +3551,11 @@
       </c>
       <c r="E94" s="5">
         <f>'#ignore - Misc calcs'!AA31</f>
-        <v>258778</v>
+        <v>258721</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
@@ -3345,11 +3571,11 @@
       </c>
       <c r="E95" s="5">
         <f>'#ignore - Misc calcs'!AA32</f>
-        <v>437566</v>
+        <v>425394</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="I95" s="20"/>
+      <c r="I95" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C14:C23 C26:C35 C38:C47 C50:C59 C62:C71 C74:C83 C2:C11 C86:C95">
@@ -3376,7 +3602,7 @@
   </sheetPr>
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="E62" sqref="E62:E71"/>
     </sheetView>
   </sheetViews>
@@ -3837,7 +4063,7 @@
       </c>
       <c r="E26" s="2">
         <f>ROUND(Stocks!E14/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>245061</v>
+        <v>245703</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3856,7 +4082,7 @@
       </c>
       <c r="E27" s="2">
         <f>ROUND(Stocks!E15/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>305381</v>
+        <v>305657</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3875,7 +4101,7 @@
       </c>
       <c r="E28" s="2">
         <f>ROUND(Stocks!E16/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>275776</v>
+        <v>278129</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3894,7 +4120,7 @@
       </c>
       <c r="E29" s="2">
         <f>ROUND(Stocks!E17/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>636561</v>
+        <v>644669</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3913,7 +4139,7 @@
       </c>
       <c r="E30" s="2">
         <f>ROUND(Stocks!E18/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1005303</v>
+        <v>1008858</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3932,7 +4158,7 @@
       </c>
       <c r="E31" s="2">
         <f>ROUND(Stocks!E19/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1992628</v>
+        <v>2039021</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3951,7 +4177,7 @@
       </c>
       <c r="E32" s="2">
         <f>ROUND(Stocks!E20/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1513604</v>
+        <v>1502753</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3970,7 +4196,7 @@
       </c>
       <c r="E33" s="2">
         <f>ROUND(Stocks!E21/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>2289911</v>
+        <v>2271839</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3989,7 +4215,7 @@
       </c>
       <c r="E34" s="2">
         <f>ROUND(Stocks!E22/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>616750</v>
+        <v>616203</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4008,7 +4234,7 @@
       </c>
       <c r="E35" s="2">
         <f>ROUND(Stocks!E23/SUM(Stocks!$E$14:$E$23)*10000000,0)</f>
-        <v>1119024</v>
+        <v>1087168</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4470,7 +4696,7 @@
       </c>
       <c r="E62" s="2">
         <f>ROUND(Stocks!E74/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>16232</v>
+        <v>4459</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -4489,7 +4715,7 @@
       </c>
       <c r="E63" s="2">
         <f>ROUND(Stocks!E75/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>17379</v>
+        <v>4419</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4508,7 +4734,7 @@
       </c>
       <c r="E64" s="2">
         <f>ROUND(Stocks!E76/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>15987</v>
+        <v>13110</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4527,7 +4753,7 @@
       </c>
       <c r="E65" s="2">
         <f>ROUND(Stocks!E77/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>35399</v>
+        <v>28255</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4546,7 +4772,7 @@
       </c>
       <c r="E66" s="2">
         <f>ROUND(Stocks!E78/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>49257</v>
+        <v>30644</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -4565,7 +4791,7 @@
       </c>
       <c r="E67" s="2">
         <f>ROUND(Stocks!E79/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>161155</v>
+        <v>93822</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -4584,7 +4810,7 @@
       </c>
       <c r="E68" s="2">
         <f>ROUND(Stocks!E80/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>103041</v>
+        <v>119634</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4603,7 +4829,7 @@
       </c>
       <c r="E69" s="2">
         <f>ROUND(Stocks!E81/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>190741</v>
+        <v>222221</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4622,7 +4848,7 @@
       </c>
       <c r="E70" s="2">
         <f>ROUND(Stocks!E82/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>55633</v>
+        <v>84923</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4641,7 +4867,7 @@
       </c>
       <c r="E71" s="2">
         <f>ROUND(Stocks!E83/SUM(Stocks!$E$74:$E$83)*738893,0)</f>
-        <v>94069</v>
+        <v>137408</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -7143,7 +7369,7 @@
       </c>
       <c r="E218" s="4">
         <f>ROUND(110000*Stocks!E14/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>2696</v>
+        <v>2703</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -7162,7 +7388,7 @@
       </c>
       <c r="E219" s="4">
         <f>ROUND(110000*Stocks!E15/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -7181,7 +7407,7 @@
       </c>
       <c r="E220" s="4">
         <f>ROUND(110000*Stocks!E16/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>3034</v>
+        <v>3059</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -7200,7 +7426,7 @@
       </c>
       <c r="E221" s="4">
         <f>ROUND(110000*Stocks!E17/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>7002</v>
+        <v>7091</v>
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -7219,7 +7445,7 @@
       </c>
       <c r="E222" s="4">
         <f>ROUND(110000*Stocks!E18/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>11058</v>
+        <v>11097</v>
       </c>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -7238,7 +7464,7 @@
       </c>
       <c r="E223" s="4">
         <f>ROUND(110000*Stocks!E19/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>21919</v>
+        <v>22429</v>
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -7257,7 +7483,7 @@
       </c>
       <c r="E224" s="4">
         <f>ROUND(110000*Stocks!E20/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>16650</v>
+        <v>16530</v>
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -7276,7 +7502,7 @@
       </c>
       <c r="E225" s="4">
         <f>ROUND(110000*Stocks!E21/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>25189</v>
+        <v>24990</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -7295,7 +7521,7 @@
       </c>
       <c r="E226" s="4">
         <f>ROUND(110000*Stocks!E22/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>6784</v>
+        <v>6778</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -7314,7 +7540,7 @@
       </c>
       <c r="E227" s="4">
         <f>ROUND(110000*Stocks!E23/SUM(Stocks!$E$14:$E$23),0)</f>
-        <v>12309</v>
+        <v>11959</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -7679,8 +7905,8 @@
   </sheetPr>
   <dimension ref="B2:AC85"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="I27" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7739,43 +7965,43 @@
       </c>
       <c r="G5" s="7">
         <f>Stocks!E14-H5-I5</f>
-        <v>79645</v>
+        <v>155841</v>
       </c>
       <c r="H5" s="7">
         <f>Stocks!E74-I5</f>
-        <v>21296</v>
+        <v>-51053</v>
       </c>
       <c r="I5" s="7">
         <f>Stocks!E86</f>
-        <v>75503</v>
+        <v>75751</v>
       </c>
       <c r="K5" s="7">
         <f>G5/K$3</f>
-        <v>6637.083333333333</v>
+        <v>12986.75</v>
       </c>
       <c r="L5" s="7">
         <f>H5/L$3</f>
-        <v>887.33333333333337</v>
+        <v>-2127.2083333333335</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ref="M5:M14" si="0">I5/M$3</f>
-        <v>251.6766666666669</v>
+        <v>252.50333333333359</v>
       </c>
       <c r="N5" s="7">
         <f>SUM(K5:M5)</f>
-        <v>7776.0933333333332</v>
+        <v>11112.045</v>
       </c>
       <c r="P5" s="11">
         <f>K5/$N5</f>
-        <v>0.85352413465544819</v>
+        <v>1.1687092699858577</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" ref="Q5:Q14" si="1">L5/$N5</f>
-        <v>0.11411042734397907</v>
+        <v>-0.19143266008491988</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" ref="R5:R14" si="2">M5/$N5</f>
-        <v>3.2365438000572726E-2</v>
+        <v>2.2723390099062196E-2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -7784,43 +8010,43 @@
       </c>
       <c r="G6" s="7">
         <f>Stocks!E15-H6-I6</f>
-        <v>116237</v>
+        <v>200115</v>
       </c>
       <c r="H6" s="7">
         <f>Stocks!E75-I6</f>
-        <v>22800</v>
+        <v>-56488</v>
       </c>
       <c r="I6" s="7">
         <f>Stocks!E87</f>
-        <v>80837</v>
+        <v>80965</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ref="K6:K14" si="3">G6/K$3</f>
-        <v>9686.4166666666661</v>
+        <v>16676.25</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" ref="L6:L14" si="4">H6/L$3</f>
-        <v>950</v>
+        <v>-2353.6666666666665</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="0"/>
-        <v>269.45666666666693</v>
+        <v>269.88333333333361</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" ref="N6:N15" si="5">SUM(K6:M6)</f>
-        <v>10905.873333333333</v>
+        <v>14592.466666666667</v>
       </c>
       <c r="P6" s="11">
         <f t="shared" ref="P6:P14" si="6">K6/$N6</f>
-        <v>0.88818349256455698</v>
+        <v>1.1427985672972811</v>
       </c>
       <c r="Q6" s="11">
         <f t="shared" si="1"/>
-        <v>8.7109025656511699E-2</v>
+        <v>-0.16129327004344707</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="2"/>
-        <v>2.4707481778931378E-2</v>
+        <v>1.849470274616585E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -7829,43 +8055,43 @@
       </c>
       <c r="G7" s="7">
         <f>Stocks!E16-H7-I7</f>
-        <v>103221</v>
+        <v>131745</v>
       </c>
       <c r="H7" s="7">
         <f>Stocks!E76-I7</f>
-        <v>20974</v>
+        <v>-2429</v>
       </c>
       <c r="I7" s="7">
         <f>Stocks!E88</f>
-        <v>74364</v>
+        <v>75049</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>8601.75</v>
+        <v>10978.75</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="4"/>
-        <v>873.91666666666663</v>
+        <v>-101.20833333333333</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="0"/>
-        <v>247.88000000000022</v>
+        <v>250.16333333333358</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="5"/>
-        <v>9723.5466666666671</v>
+        <v>11127.705</v>
       </c>
       <c r="P7" s="11">
         <f t="shared" si="6"/>
-        <v>0.88463091656542325</v>
+        <v>0.98661404126008012</v>
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="1"/>
-        <v>8.987632770484294E-2</v>
+        <v>-9.0951668231080297E-3</v>
       </c>
       <c r="R7" s="11">
         <f t="shared" si="2"/>
-        <v>2.5492755729733755E-2</v>
+        <v>2.2481125563027917E-2</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -7874,43 +8100,43 @@
       </c>
       <c r="G8" s="7">
         <f>Stocks!E17-H8-I8</f>
-        <v>247223</v>
+        <v>317181</v>
       </c>
       <c r="H8" s="7">
         <f>Stocks!E77-I8</f>
-        <v>46442</v>
+        <v>-10355</v>
       </c>
       <c r="I8" s="7">
         <f>Stocks!E89</f>
-        <v>164659</v>
+        <v>166867</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>20601.916666666668</v>
+        <v>26431.75</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="4"/>
-        <v>1935.0833333333333</v>
+        <v>-431.45833333333331</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>548.8633333333338</v>
+        <v>556.22333333333381</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="5"/>
-        <v>23085.863333333335</v>
+        <v>26556.515000000003</v>
       </c>
       <c r="P8" s="11">
         <f t="shared" si="6"/>
-        <v>0.89240399499895973</v>
+        <v>0.99530190614242864</v>
       </c>
       <c r="Q8" s="11">
         <f t="shared" si="1"/>
-        <v>8.3821137870953924E-2</v>
+        <v>-1.6246797945187207E-2</v>
       </c>
       <c r="R8" s="11">
         <f t="shared" si="2"/>
-        <v>2.3774867130086412E-2</v>
+        <v>2.0944891802758523E-2</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -7919,43 +8145,43 @@
       </c>
       <c r="G9" s="7">
         <f>Stocks!E18-H9-I9</f>
-        <v>430071</v>
+        <v>571549</v>
       </c>
       <c r="H9" s="7">
         <f>Stocks!E78-I9</f>
-        <v>64624</v>
+        <v>-60342</v>
       </c>
       <c r="I9" s="7">
         <f>Stocks!E90</f>
-        <v>229123</v>
+        <v>230087</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>35839.25</v>
+        <v>47629.083333333336</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="4"/>
-        <v>2692.6666666666665</v>
+        <v>-2514.25</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>763.74333333333402</v>
+        <v>766.95666666666739</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="5"/>
-        <v>39295.659999999996</v>
+        <v>45881.79</v>
       </c>
       <c r="P9" s="11">
         <f t="shared" si="6"/>
-        <v>0.91204092258534408</v>
+        <v>1.0380825014310326</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="1"/>
-        <v>6.8523258463317999E-2</v>
+        <v>-5.4798428744824469E-2</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" si="2"/>
-        <v>1.9435818951337988E-2</v>
+        <v>1.6715927313791974E-2</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -7964,43 +8190,43 @@
       </c>
       <c r="G10" s="7">
         <f>Stocks!E19-H10-I10</f>
-        <v>473641</v>
+        <v>978536</v>
       </c>
       <c r="H10" s="7">
         <f>Stocks!E79-I10</f>
-        <v>211431</v>
+        <v>-247879</v>
       </c>
       <c r="I10" s="7">
         <f>Stocks!E91</f>
-        <v>749620</v>
+        <v>767586</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>39470.083333333336</v>
+        <v>81544.666666666672</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="4"/>
-        <v>8809.625</v>
+        <v>-10328.291666666666</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>2498.7333333333358</v>
+        <v>2558.6200000000026</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="5"/>
-        <v>50778.441666666673</v>
+        <v>73774.994999999995</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="6"/>
-        <v>0.77730001232478407</v>
+        <v>1.105315787099229</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="1"/>
-        <v>0.17349144067536532</v>
+        <v>-0.139997185586616</v>
       </c>
       <c r="R10" s="11">
         <f t="shared" si="2"/>
-        <v>4.9208546999850535E-2</v>
+        <v>3.4681398487387265E-2</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -8009,43 +8235,43 @@
       </c>
       <c r="G11" s="7">
         <f>Stocks!E20-H11-I11</f>
-        <v>475307</v>
+        <v>441512</v>
       </c>
       <c r="H11" s="7">
         <f>Stocks!E80-I11</f>
-        <v>135187</v>
+        <v>186768</v>
       </c>
       <c r="I11" s="7">
         <f>Stocks!E92</f>
-        <v>479301</v>
+        <v>475921</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>39608.916666666664</v>
+        <v>36792.666666666664</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="4"/>
-        <v>5632.791666666667</v>
+        <v>7782</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>1597.6700000000014</v>
+        <v>1586.4033333333348</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="5"/>
-        <v>46839.378333333327</v>
+        <v>46161.07</v>
       </c>
       <c r="P11" s="11">
         <f t="shared" si="6"/>
-        <v>0.84563284304904851</v>
+        <v>0.79704969288334659</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="1"/>
-        <v>0.12025760945375487</v>
+        <v>0.16858361385470486</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="2"/>
-        <v>3.4109547497196753E-2</v>
+        <v>3.4366693261948536E-2</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -8054,43 +8280,43 @@
       </c>
       <c r="G12" s="7">
         <f>Stocks!E21-H12-I12</f>
-        <v>511248</v>
+        <v>438361</v>
       </c>
       <c r="H12" s="7">
         <f>Stocks!E81-I12</f>
-        <v>250247</v>
+        <v>350301</v>
       </c>
       <c r="I12" s="7">
         <f>Stocks!E93</f>
-        <v>887241</v>
+        <v>880652</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>42604</v>
+        <v>36530.083333333336</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="4"/>
-        <v>10426.958333333334</v>
+        <v>14595.875</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>2957.470000000003</v>
+        <v>2935.5066666666694</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="5"/>
-        <v>55988.428333333337</v>
+        <v>54061.465000000004</v>
       </c>
       <c r="P12" s="11">
         <f t="shared" si="6"/>
-        <v>0.76094295318226024</v>
+        <v>0.67571389960174655</v>
       </c>
       <c r="Q12" s="11">
         <f t="shared" si="1"/>
-        <v>0.18623416737571696</v>
+        <v>0.26998667165234974</v>
       </c>
       <c r="R12" s="11">
         <f t="shared" si="2"/>
-        <v>5.2822879442022845E-2</v>
+        <v>5.4299428745903745E-2</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -8099,43 +8325,43 @@
       </c>
       <c r="G13" s="7">
         <f>Stocks!E22-H13-I13</f>
-        <v>112293</v>
+        <v>-17638</v>
       </c>
       <c r="H13" s="7">
         <f>Stocks!E82-I13</f>
-        <v>72989</v>
+        <v>211694</v>
       </c>
       <c r="I13" s="7">
         <f>Stocks!E94</f>
-        <v>258778</v>
+        <v>258721</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>9357.75</v>
+        <v>-1469.8333333333333</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="4"/>
-        <v>3041.2083333333335</v>
+        <v>8820.5833333333339</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>862.59333333333416</v>
+        <v>862.4033333333341</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="5"/>
-        <v>13261.551666666668</v>
+        <v>8213.1533333333355</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" si="6"/>
-        <v>0.70563009783545938</v>
+        <v>-0.17896090255224745</v>
       </c>
       <c r="Q13" s="11">
         <f t="shared" si="1"/>
-        <v>0.22932522601993155</v>
+        <v>1.0739581955124013</v>
       </c>
       <c r="R13" s="11">
         <f t="shared" si="2"/>
-        <v>6.504467614460907E-2</v>
+        <v>0.10500270703984591</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -8144,43 +8370,43 @@
       </c>
       <c r="G14" s="7">
         <f>Stocks!E23-H14-I14</f>
-        <v>244715</v>
+        <v>37690</v>
       </c>
       <c r="H14" s="7">
         <f>Stocks!E83-I14</f>
-        <v>123416</v>
+        <v>335751</v>
       </c>
       <c r="I14" s="7">
         <f>Stocks!E95</f>
-        <v>437566</v>
+        <v>425394</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>20392.916666666668</v>
+        <v>3140.8333333333335</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="4"/>
-        <v>5142.333333333333</v>
+        <v>13989.625</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>1458.5533333333346</v>
+        <v>1417.9800000000014</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="5"/>
-        <v>26993.803333333333</v>
+        <v>18548.438333333332</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="6"/>
-        <v>0.75546659412326855</v>
+        <v>0.16933141631060947</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" si="1"/>
-        <v>0.19050051116669861</v>
+        <v>0.75422117747019679</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" si="2"/>
-        <v>5.4032894710032885E-2</v>
+        <v>7.6447406219193922E-2</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -8189,44 +8415,44 @@
       </c>
       <c r="G15" s="10">
         <f>SUM(G5:G14)</f>
-        <v>2793601</v>
+        <v>3254892</v>
       </c>
       <c r="H15" s="10">
         <f>SUM(H5:H14)</f>
-        <v>969406</v>
+        <v>655968</v>
       </c>
       <c r="I15" s="10">
         <f>SUM(I5:I14)</f>
-        <v>3436992</v>
+        <v>3436993</v>
       </c>
       <c r="K15" s="10">
         <f>SUM(K5:K14)</f>
-        <v>232800.08333333331</v>
+        <v>271241</v>
       </c>
       <c r="L15" s="10">
         <f>SUM(L5:L14)</f>
-        <v>40391.916666666672</v>
+        <v>27332</v>
       </c>
       <c r="M15" s="10">
         <f>SUM(M5:M14)</f>
-        <v>11456.640000000012</v>
+        <v>11456.643333333344</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="5"/>
-        <v>284648.64</v>
+        <v>310029.64333333337</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="11">
         <f>K15/$N15</f>
-        <v>0.8178506784129842</v>
+        <v>0.874887307819049</v>
       </c>
       <c r="Q15" s="11">
         <f>L15/$N15</f>
-        <v>0.14190096487608958</v>
+        <v>8.8159311819784786E-2</v>
       </c>
       <c r="R15" s="11">
         <f>M15/$N15</f>
-        <v>4.0248356710926185E-2</v>
+        <v>3.695338036116614E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -8236,832 +8462,833 @@
       <c r="H22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="O22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="U22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA22" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA22" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>2.4E-2</v>
       </c>
       <c r="I23">
         <f>SUM(H47:H49)</f>
+        <v>8382497</v>
+      </c>
+      <c r="J23">
+        <f>SUM(I47:I49)</f>
         <v>8534942</v>
       </c>
-      <c r="J23">
-        <f>I23/(1.025)</f>
-        <v>8326772.6829268299</v>
-      </c>
       <c r="K23">
-        <f t="shared" ref="K23:K44" si="7">H23*J23</f>
-        <v>199842.54439024391</v>
+        <f>H23*I23</f>
+        <v>201179.92800000001</v>
       </c>
       <c r="N23" t="s">
         <v>32</v>
       </c>
       <c r="O23">
-        <f>ROUND(J23,0)</f>
-        <v>8326773</v>
+        <f>ROUND(I23,0)</f>
+        <v>8382497</v>
       </c>
       <c r="P23">
         <f>K23</f>
-        <v>199842.54439024391</v>
+        <v>201179.92800000001</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q32" si="8">ROUND(P23/P$33*P$34,0)</f>
-        <v>176444</v>
-      </c>
-      <c r="R23" s="16">
+        <f t="shared" ref="Q23:Q32" si="7">ROUND(P23/P$33*P$34,0)</f>
+        <v>180539</v>
+      </c>
+      <c r="R23" s="15">
         <f>Q23/Stocks!E2</f>
-        <v>2.1189961585358456E-2</v>
+        <v>2.1537615820202499E-2</v>
       </c>
       <c r="T23" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="17">
+      <c r="U23" s="16">
         <v>0.56100000000000005</v>
       </c>
       <c r="V23">
         <f>K23</f>
-        <v>199842.54439024391</v>
-      </c>
-      <c r="W23" s="15">
+        <v>201179.92800000001</v>
+      </c>
+      <c r="W23" s="14">
         <f>U23*V23</f>
-        <v>112111.66740292685</v>
+        <v>112861.93960800002</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:Z28" si="9">W23</f>
-        <v>112111.66740292685</v>
+        <f t="shared" ref="Z23:Z28" si="8">W23</f>
+        <v>112861.93960800002</v>
       </c>
       <c r="AA23">
-        <f t="shared" ref="AA23:AA32" si="10">ROUND(Z23/Z$33*Z$34,0)</f>
-        <v>75503</v>
-      </c>
-      <c r="AB23" s="16"/>
+        <f t="shared" ref="AA23:AA32" si="9">ROUND(Z23/Z$33*Z$34,0)</f>
+        <v>75751</v>
+      </c>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="11">
-        <f t="shared" ref="AC23:AC32" si="11">AA23/Q23</f>
-        <v>0.42791480583074515</v>
+        <f t="shared" ref="AC23:AC32" si="10">AA23/Q23</f>
+        <v>0.41958247248516939</v>
       </c>
     </row>
     <row r="24" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>0.03</v>
       </c>
       <c r="I24">
         <f>SUM(H50:H52)</f>
+        <v>8342334</v>
+      </c>
+      <c r="J24">
+        <f>SUM(I50:I52)</f>
         <v>8508575</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J44" si="12">I24/(1.025)</f>
-        <v>8301048.7804878056</v>
-      </c>
       <c r="K24">
-        <f t="shared" si="7"/>
-        <v>249031.46341463417</v>
+        <f t="shared" ref="K24:K44" si="11">H24*I24</f>
+        <v>250270.02</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
       </c>
       <c r="O24">
-        <f>ROUND(J24,0)</f>
-        <v>8301049</v>
+        <f>ROUND(I24,0)</f>
+        <v>8342334</v>
       </c>
       <c r="P24">
         <f>K24</f>
-        <v>249031.46341463417</v>
+        <v>250270.02</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>219874</v>
-      </c>
-      <c r="R24" s="16">
+        <f t="shared" si="7"/>
+        <v>224592</v>
+      </c>
+      <c r="R24" s="15">
         <f>Q24/Stocks!E3</f>
-        <v>2.6487495736984567E-2</v>
+        <v>2.6921962127145711E-2</v>
       </c>
       <c r="T24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="17">
+      <c r="U24" s="16">
         <v>0.48199999999999998</v>
       </c>
       <c r="V24">
         <f>K24</f>
-        <v>249031.46341463417</v>
-      </c>
-      <c r="W24" s="15">
-        <f t="shared" ref="W24:W34" si="13">U24*V24</f>
-        <v>120033.16536585367</v>
+        <v>250270.02</v>
+      </c>
+      <c r="W24" s="14">
+        <f t="shared" ref="W24:W34" si="12">U24*V24</f>
+        <v>120630.14963999999</v>
       </c>
       <c r="Y24" t="s">
         <v>33</v>
       </c>
       <c r="Z24">
+        <f t="shared" si="8"/>
+        <v>120630.14963999999</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="9"/>
-        <v>120033.16536585367</v>
-      </c>
-      <c r="AA24">
+        <v>80965</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="11">
         <f t="shared" si="10"/>
-        <v>80837</v>
-      </c>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="11">
-        <f t="shared" si="11"/>
-        <v>0.36765147311642121</v>
+        <v>0.36049814775236871</v>
       </c>
     </row>
     <row r="25" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>4.7E-2</v>
       </c>
       <c r="I25">
         <f>H53</f>
+        <v>2287717</v>
+      </c>
+      <c r="J25">
+        <f>I53</f>
         <v>2360947</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="12"/>
-        <v>2303362.9268292687</v>
-      </c>
       <c r="K25">
-        <f t="shared" si="7"/>
-        <v>108258.05756097563</v>
+        <f t="shared" si="11"/>
+        <v>107522.69899999999</v>
       </c>
       <c r="N25" t="s">
         <v>34</v>
       </c>
       <c r="O25">
-        <f>ROUND(SUM(J25,J27),0)</f>
-        <v>4733211</v>
+        <f>ROUND(SUM(I25,I27),0)</f>
+        <v>4792051</v>
       </c>
       <c r="P25">
         <f>SUM(K25,K27)</f>
-        <v>224890.75219512201</v>
+        <v>227730.731</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>198559</v>
-      </c>
-      <c r="R25" s="16">
+        <f t="shared" si="7"/>
+        <v>204365</v>
+      </c>
+      <c r="R25" s="15">
         <f>Q25/Stocks!E4</f>
-        <v>4.1950168712106856E-2</v>
+        <v>4.2646666323042051E-2</v>
       </c>
       <c r="T25" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="17">
+      <c r="U25" s="16">
         <v>0.49099999999999999</v>
       </c>
       <c r="V25">
         <f>K25+K27</f>
-        <v>224890.75219512201</v>
-      </c>
-      <c r="W25" s="15">
-        <f t="shared" si="13"/>
-        <v>110421.35932780491</v>
+        <v>227730.731</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="12"/>
+        <v>111815.788921</v>
       </c>
       <c r="Y25" t="s">
         <v>34</v>
       </c>
       <c r="Z25">
+        <f t="shared" si="8"/>
+        <v>111815.788921</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="9"/>
-        <v>110421.35932780491</v>
-      </c>
-      <c r="AA25">
+        <v>75049</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="11">
         <f t="shared" si="10"/>
-        <v>74364</v>
-      </c>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="11">
-        <f t="shared" si="11"/>
-        <v>0.37451840510880896</v>
+        <v>0.36723020086609742</v>
       </c>
     </row>
     <row r="26" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I26">
         <f>H55</f>
+        <v>2304284</v>
+      </c>
+      <c r="J26">
+        <f>I55</f>
         <v>2372843</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="12"/>
-        <v>2314968.7804878051</v>
-      </c>
       <c r="K26">
-        <f t="shared" si="7"/>
-        <v>134268.18926829271</v>
+        <f t="shared" si="11"/>
+        <v>133648.47200000001</v>
       </c>
       <c r="N26" t="s">
         <v>35</v>
       </c>
       <c r="O26">
-        <f>ROUND(SUM(J26,J28),0)</f>
-        <v>4781862</v>
+        <f>ROUND(SUM(I26,I28),0)</f>
+        <v>4831221</v>
       </c>
       <c r="P26">
         <f>SUM(K26,K28)</f>
-        <v>519103.60000000009</v>
+        <v>527850.64400000009</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>458324</v>
-      </c>
-      <c r="R26" s="16">
+        <f t="shared" si="7"/>
+        <v>473693</v>
+      </c>
+      <c r="R26" s="15">
         <f>Q26/Stocks!E5</f>
-        <v>9.5846346046790973E-2</v>
+        <v>9.804829876339749E-2</v>
       </c>
       <c r="T26" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="16">
         <v>0.47099999999999997</v>
       </c>
       <c r="V26">
         <f>K26+K28</f>
-        <v>519103.60000000009</v>
-      </c>
-      <c r="W26" s="15">
-        <f t="shared" si="13"/>
-        <v>244497.79560000004</v>
+        <v>527850.64400000009</v>
+      </c>
+      <c r="W26" s="14">
+        <f t="shared" si="12"/>
+        <v>248617.65332400001</v>
       </c>
       <c r="Y26" t="s">
         <v>35</v>
       </c>
       <c r="Z26">
+        <f t="shared" si="8"/>
+        <v>248617.65332400001</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="9"/>
-        <v>244497.79560000004</v>
-      </c>
-      <c r="AA26">
+        <v>166867</v>
+      </c>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="11">
         <f t="shared" si="10"/>
-        <v>164659</v>
-      </c>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="11">
-        <f t="shared" si="11"/>
-        <v>0.35926331590752392</v>
+        <v>0.35226824124485689</v>
       </c>
     </row>
     <row r="27" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I27">
         <f>H54</f>
+        <v>2504334</v>
+      </c>
+      <c r="J27">
+        <f>I54</f>
         <v>2490594</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="12"/>
-        <v>2429847.8048780491</v>
-      </c>
       <c r="K27">
-        <f t="shared" si="7"/>
-        <v>116632.69463414636</v>
+        <f>H27*I27</f>
+        <v>120208.03200000001</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
       </c>
       <c r="O27">
-        <f>ROUND(SUM(J29,J31),0)</f>
-        <v>5332443</v>
+        <f>ROUND(SUM(I29,I31),0)</f>
+        <v>5386550</v>
       </c>
       <c r="P27">
         <f>SUM(K29,K31)</f>
-        <v>819804.91317073186</v>
+        <v>826047.62</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>723818</v>
-      </c>
-      <c r="R27" s="16">
+        <f t="shared" si="7"/>
+        <v>741294</v>
+      </c>
+      <c r="R27" s="15">
         <f>Q27/Stocks!E6</f>
-        <v>0.13573853485166179</v>
+        <v>0.137619441015121</v>
       </c>
       <c r="T27" t="s">
         <v>36</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="16">
         <v>0.41499999999999998</v>
       </c>
       <c r="V27">
         <f>K29+K31</f>
-        <v>819804.91317073186</v>
-      </c>
-      <c r="W27" s="15">
-        <f t="shared" si="13"/>
-        <v>340219.03896585369</v>
+        <v>826047.62</v>
+      </c>
+      <c r="W27" s="14">
+        <f t="shared" si="12"/>
+        <v>342809.7623</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
       </c>
       <c r="Z27">
+        <f t="shared" si="8"/>
+        <v>342809.7623</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="9"/>
-        <v>340219.03896585369</v>
-      </c>
-      <c r="AA27">
+        <v>230087</v>
+      </c>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="11">
         <f t="shared" si="10"/>
-        <v>229123</v>
-      </c>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="11">
-        <f t="shared" si="11"/>
-        <v>0.31654780621647982</v>
+        <v>0.31038562297819761</v>
       </c>
     </row>
     <row r="28" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <v>0.156</v>
       </c>
       <c r="I28">
         <f>H56</f>
+        <v>2526937</v>
+      </c>
+      <c r="J28">
+        <f>I56</f>
         <v>2528566</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="12"/>
-        <v>2466893.6585365855</v>
-      </c>
       <c r="K28">
-        <f t="shared" si="7"/>
-        <v>384835.41073170735</v>
+        <f t="shared" si="11"/>
+        <v>394202.17200000002</v>
       </c>
       <c r="N28" t="s">
         <v>37</v>
       </c>
       <c r="O28">
-        <f>ROUND(SUM(J30,J32),0)</f>
-        <v>5235551</v>
+        <f>ROUND(SUM(I30,I32),0)</f>
+        <v>5385488</v>
       </c>
       <c r="P28">
         <f>SUM(K30,K32)</f>
-        <v>1624948.8546341464</v>
+        <v>1669539.4720000001</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>1434692</v>
-      </c>
-      <c r="R28" s="16">
+        <f t="shared" si="7"/>
+        <v>1498243</v>
+      </c>
+      <c r="R28" s="15">
         <f>Q28/Stocks!E7</f>
-        <v>0.2740288462475105</v>
+        <v>0.27820004426711192</v>
       </c>
       <c r="T28" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="16">
         <v>0.68500000000000005</v>
       </c>
       <c r="V28">
         <f>K30+K32</f>
-        <v>1624948.8546341464</v>
-      </c>
-      <c r="W28" s="15">
-        <f t="shared" si="13"/>
-        <v>1113089.9654243905</v>
+        <v>1669539.4720000001</v>
+      </c>
+      <c r="W28" s="14">
+        <f t="shared" si="12"/>
+        <v>1143634.5383200001</v>
       </c>
       <c r="Y28" t="s">
         <v>37</v>
       </c>
       <c r="Z28">
+        <f t="shared" si="8"/>
+        <v>1143634.5383200001</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="9"/>
-        <v>1113089.9654243905</v>
-      </c>
-      <c r="AA28">
+        <v>767586</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="11">
         <f t="shared" si="10"/>
-        <v>749620</v>
-      </c>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="11">
-        <f t="shared" si="11"/>
-        <v>0.52249542061989607</v>
+        <v>0.51232410229849235</v>
       </c>
     </row>
     <row r="29" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <v>0.124</v>
       </c>
       <c r="I29">
         <f>H57</f>
+        <v>2751293</v>
+      </c>
+      <c r="J29">
+        <f>I57</f>
         <v>2756645</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="12"/>
-        <v>2689409.7560975612</v>
-      </c>
       <c r="K29">
-        <f t="shared" si="7"/>
-        <v>333486.80975609762</v>
+        <f t="shared" si="11"/>
+        <v>341160.33199999999</v>
       </c>
       <c r="N29" t="s">
         <v>38</v>
       </c>
       <c r="O29">
-        <f>ROUND(SUM(J33,J35,J37),0)</f>
-        <v>5237696</v>
+        <f>ROUND(SUM(I33,I35,I37),0)</f>
+        <v>5223461</v>
       </c>
       <c r="P29">
         <f>SUM(K33,K35,K37)</f>
-        <v>1234315.1931707317</v>
+        <v>1230445.612</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>1089795</v>
-      </c>
-      <c r="R29" s="16">
+        <f t="shared" si="7"/>
+        <v>1104201</v>
+      </c>
+      <c r="R29" s="15">
         <f>Q29/Stocks!E8</f>
-        <v>0.20806763126382288</v>
+        <v>0.21139259965758336</v>
       </c>
       <c r="T29" t="s">
-        <v>92</v>
-      </c>
-      <c r="U29" s="17">
+        <v>91</v>
+      </c>
+      <c r="U29" s="16">
         <v>0.52300000000000002</v>
       </c>
       <c r="V29">
         <f>K33+K35</f>
-        <v>895059.41951219505</v>
-      </c>
-      <c r="W29" s="15">
-        <f t="shared" si="13"/>
-        <v>468116.07640487805</v>
+        <v>894258.79599999997</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="12"/>
+        <v>467697.35030799999</v>
       </c>
       <c r="Y29" t="s">
         <v>38</v>
       </c>
       <c r="Z29">
         <f>W29+W31</f>
-        <v>711701.72189170728</v>
+        <v>709079.48419600003</v>
       </c>
       <c r="AA29">
+        <f t="shared" si="9"/>
+        <v>475921</v>
+      </c>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="11">
         <f t="shared" si="10"/>
-        <v>479301</v>
-      </c>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="11">
-        <f t="shared" si="11"/>
-        <v>0.43980840433292501</v>
+        <v>0.43100939050046144</v>
       </c>
     </row>
     <row r="30" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <v>0.27500000000000002</v>
       </c>
       <c r="I30">
         <f>H59</f>
+        <v>2767012</v>
+      </c>
+      <c r="J30">
+        <f>I59</f>
         <v>2730307</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="12"/>
-        <v>2663714.1463414636</v>
-      </c>
       <c r="K30">
-        <f t="shared" si="7"/>
-        <v>732521.39024390257</v>
+        <f t="shared" si="11"/>
+        <v>760928.3</v>
       </c>
       <c r="N30" t="s">
         <v>39</v>
       </c>
       <c r="O30">
-        <f>ROUND(SUM(J34,J36,J38),0)</f>
-        <v>5223467</v>
+        <f>ROUND(SUM(I34,I36,I38),0)</f>
+        <v>5200096</v>
       </c>
       <c r="P30">
         <f>SUM(K34,K36,K38)</f>
-        <v>1867377.2751219515</v>
+        <v>1860169.1269999999</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>1648736</v>
-      </c>
-      <c r="R30" s="16">
+        <f t="shared" si="7"/>
+        <v>1669314</v>
+      </c>
+      <c r="R30" s="15">
         <f>Q30/Stocks!E9</f>
-        <v>0.31564016772767972</v>
+        <v>0.32101599662775454</v>
       </c>
       <c r="T30" t="s">
-        <v>93</v>
-      </c>
-      <c r="U30" s="17">
+        <v>92</v>
+      </c>
+      <c r="U30" s="16">
         <v>0.69299999999999995</v>
       </c>
       <c r="V30">
         <f>K34+K36</f>
-        <v>1426858.4341463416</v>
-      </c>
-      <c r="W30" s="15">
-        <f t="shared" si="13"/>
-        <v>988812.89486341469</v>
+        <v>1426274.0359999998</v>
+      </c>
+      <c r="W30" s="14">
+        <f t="shared" si="12"/>
+        <v>988407.90694799984</v>
       </c>
       <c r="Y30" t="s">
         <v>39</v>
       </c>
       <c r="Z30">
         <f>W30+W32</f>
-        <v>1317439.9502312196</v>
+        <v>1312093.6448339999</v>
       </c>
       <c r="AA30">
+        <f t="shared" si="9"/>
+        <v>880652</v>
+      </c>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="11">
         <f t="shared" si="10"/>
-        <v>887241</v>
-      </c>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="11">
-        <f t="shared" si="11"/>
-        <v>0.53813406148710285</v>
+        <v>0.52755323444241164</v>
       </c>
     </row>
     <row r="31" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <v>0.184</v>
       </c>
       <c r="I31">
         <f>H58</f>
+        <v>2635257</v>
+      </c>
+      <c r="J31">
+        <f>I58</f>
         <v>2709109</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="12"/>
-        <v>2643033.1707317075</v>
-      </c>
       <c r="K31">
-        <f t="shared" si="7"/>
-        <v>486318.10341463418</v>
+        <f t="shared" si="11"/>
+        <v>484887.288</v>
       </c>
       <c r="N31" t="s">
         <v>40</v>
       </c>
       <c r="O31">
-        <f>ROUND(SUM(J39,J41,J43),0)</f>
-        <v>3862660</v>
+        <f>ROUND(SUM(I39,I41,I43),0)</f>
+        <v>3836083</v>
       </c>
       <c r="P31">
         <f>SUM(K39,K41,K43)</f>
-        <v>502947.69951219519</v>
+        <v>504543.23199999996</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>444060</v>
-      </c>
-      <c r="R31" s="16">
+        <f t="shared" si="7"/>
+        <v>452777</v>
+      </c>
+      <c r="R31" s="15">
         <f>Q31/Stocks!E10</f>
-        <v>0.11496222810187798</v>
+        <v>0.1180310749272109</v>
       </c>
       <c r="T31" t="s">
         <v>69</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="16">
         <v>0.71799999999999997</v>
       </c>
       <c r="V31">
         <f>K37</f>
-        <v>339255.77365853661</v>
-      </c>
-      <c r="W31" s="15">
-        <f t="shared" si="13"/>
-        <v>243585.64548682928</v>
+        <v>336186.81599999999</v>
+      </c>
+      <c r="W31" s="14">
+        <f t="shared" si="12"/>
+        <v>241382.13388799998</v>
       </c>
       <c r="Y31" t="s">
         <v>40</v>
       </c>
       <c r="Z31">
         <f>W33</f>
-        <v>384252.04242731712</v>
+        <v>385471.02924799995</v>
       </c>
       <c r="AA31">
+        <f t="shared" si="9"/>
+        <v>258721</v>
+      </c>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="11">
         <f t="shared" si="10"/>
-        <v>258778</v>
-      </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="11">
-        <f t="shared" si="11"/>
-        <v>0.58275458271404768</v>
+        <v>0.57140932512031306</v>
       </c>
     </row>
     <row r="32" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <v>0.34699999999999998</v>
       </c>
       <c r="I32">
         <f>H60</f>
+        <v>2618476</v>
+      </c>
+      <c r="J32">
+        <f>I60</f>
         <v>2636133</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="12"/>
-        <v>2571837.0731707318</v>
-      </c>
       <c r="K32">
-        <f t="shared" si="7"/>
-        <v>892427.46439024387</v>
+        <f t="shared" si="11"/>
+        <v>908611.1719999999</v>
       </c>
       <c r="N32" t="s">
         <v>41</v>
       </c>
       <c r="O32">
-        <f>ROUND(SUM(J40,J42,J44),0)</f>
-        <v>5282952</v>
+        <f>ROUND(SUM(I40,I42,I44),0)</f>
+        <v>5142166</v>
       </c>
       <c r="P32">
         <f>SUM(K40,K42,K44)</f>
-        <v>912542.34048780485</v>
+        <v>890167.40899999999</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>805697</v>
-      </c>
-      <c r="R32" s="16">
+        <f t="shared" si="7"/>
+        <v>798835</v>
+      </c>
+      <c r="R32" s="15">
         <f>Q32/Stocks!E11</f>
-        <v>0.15250886246931639</v>
+        <v>0.15534990507891033</v>
       </c>
       <c r="T32" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="17">
+      <c r="U32" s="16">
         <v>0.746</v>
       </c>
       <c r="V32">
         <f>K38</f>
-        <v>440518.84097560978</v>
-      </c>
-      <c r="W32" s="15">
-        <f t="shared" si="13"/>
-        <v>328627.05536780489</v>
+        <v>433895.09100000001</v>
+      </c>
+      <c r="W32" s="14">
+        <f t="shared" si="12"/>
+        <v>323685.73788600002</v>
       </c>
       <c r="Y32" t="s">
         <v>41</v>
       </c>
       <c r="Z32">
         <f>W34</f>
-        <v>649730.14642731706</v>
+        <v>633799.1952079999</v>
       </c>
       <c r="AA32">
+        <f t="shared" si="9"/>
+        <v>425394</v>
+      </c>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="11">
         <f t="shared" si="10"/>
-        <v>437566</v>
-      </c>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="11">
-        <f t="shared" si="11"/>
-        <v>0.54309002019369568</v>
+        <v>0.53251797930736633</v>
       </c>
     </row>
     <row r="33" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <v>0.23699999999999999</v>
       </c>
       <c r="I33">
         <f>H61</f>
+        <v>2142780</v>
+      </c>
+      <c r="J33">
+        <f>I61</f>
         <v>2226629</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="12"/>
-        <v>2172320.9756097561</v>
-      </c>
       <c r="K33">
-        <f t="shared" si="7"/>
-        <v>514840.07121951215</v>
+        <f t="shared" si="11"/>
+        <v>507838.86</v>
       </c>
       <c r="N33" t="s">
         <v>51</v>
       </c>
       <c r="O33" s="8">
         <f>SUM(O23:O32)</f>
-        <v>56317664</v>
+        <v>56521947</v>
       </c>
       <c r="P33" s="8">
         <f>SUM(P23:P32)</f>
-        <v>8154804.6360975616</v>
+        <v>8187943.794999999</v>
       </c>
       <c r="Q33" s="8">
         <f>SUM(Q23:Q32)</f>
-        <v>7199999</v>
+        <v>7347853</v>
       </c>
       <c r="T33" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U33" s="16">
         <v>0.76400000000000001</v>
       </c>
       <c r="V33">
         <f>SUM(K39,K41,K43)</f>
-        <v>502947.69951219519</v>
-      </c>
-      <c r="W33" s="15">
-        <f t="shared" si="13"/>
-        <v>384252.04242731712</v>
+        <v>504543.23199999996</v>
+      </c>
+      <c r="W33" s="14">
+        <f t="shared" si="12"/>
+        <v>385471.02924799995</v>
       </c>
       <c r="Y33" t="s">
         <v>51</v>
       </c>
       <c r="Z33" s="8">
         <f>SUM(Z23:Z32)</f>
-        <v>5103496.8530643899</v>
+        <v>5120813.1855990002</v>
       </c>
       <c r="AA33" s="8">
         <f>SUM(AA23:AA32)</f>
-        <v>3436992</v>
+        <v>3436993</v>
       </c>
     </row>
     <row r="34" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>0.39400000000000002</v>
       </c>
       <c r="I34">
         <f>H64</f>
+        <v>2100757</v>
+      </c>
+      <c r="J34">
+        <f>I64</f>
         <v>2154507</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>2101958.0487804879</v>
-      </c>
       <c r="K34">
-        <f t="shared" si="7"/>
-        <v>828171.47121951228</v>
+        <f t="shared" si="11"/>
+        <v>827698.25800000003</v>
       </c>
       <c r="N34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8">
-        <v>7200000</v>
+        <f>13%*O33</f>
+        <v>7347853.1100000003</v>
       </c>
       <c r="T34" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="17">
+      <c r="U34" s="16">
         <v>0.71199999999999997</v>
       </c>
       <c r="V34">
         <f>SUM(K40,K42,K44)</f>
-        <v>912542.34048780485</v>
-      </c>
-      <c r="W34" s="15">
-        <f t="shared" si="13"/>
-        <v>649730.14642731706</v>
+        <v>890167.40899999999</v>
+      </c>
+      <c r="W34" s="14">
+        <f t="shared" si="12"/>
+        <v>633799.1952079999</v>
       </c>
       <c r="Y34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z34" s="8">
         <f>7200000*90%*68%*78%</f>
@@ -9072,126 +9299,151 @@
       <c r="G35" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>0.224</v>
       </c>
       <c r="I35">
         <f>H62</f>
+        <v>1725089</v>
+      </c>
+      <c r="J35">
+        <f>I62</f>
         <v>1739843</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="12"/>
-        <v>1697407.8048780488</v>
-      </c>
       <c r="K35">
-        <f t="shared" si="7"/>
-        <v>380219.34829268296</v>
+        <f t="shared" si="11"/>
+        <v>386419.93599999999</v>
+      </c>
+      <c r="P35">
+        <f>13%*O33</f>
+        <v>7347853.1100000003</v>
       </c>
     </row>
     <row r="36" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>0.35899999999999999</v>
       </c>
       <c r="I36">
         <f>H65</f>
+        <v>1667342</v>
+      </c>
+      <c r="J36">
+        <f>I65</f>
         <v>1709343</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="12"/>
-        <v>1667651.7073170734</v>
-      </c>
       <c r="K36">
-        <f t="shared" si="7"/>
-        <v>598686.96292682935</v>
+        <f t="shared" si="11"/>
+        <v>598575.77799999993</v>
       </c>
     </row>
     <row r="37" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>0.248</v>
       </c>
       <c r="I37">
         <f>H63</f>
+        <v>1355592</v>
+      </c>
+      <c r="J37">
+        <f>I63</f>
         <v>1402166</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="12"/>
-        <v>1367966.8292682928</v>
-      </c>
       <c r="K37">
-        <f t="shared" si="7"/>
-        <v>339255.77365853661</v>
+        <f t="shared" si="11"/>
+        <v>336186.81599999999</v>
       </c>
     </row>
     <row r="38" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>0.30299999999999999</v>
       </c>
       <c r="I38">
         <f>H66</f>
+        <v>1431997</v>
+      </c>
+      <c r="J38">
+        <f>I66</f>
         <v>1490204</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="12"/>
-        <v>1453857.5609756098</v>
-      </c>
       <c r="K38">
-        <f t="shared" si="7"/>
-        <v>440518.84097560978</v>
+        <f t="shared" si="11"/>
+        <v>433895.09100000001</v>
+      </c>
+      <c r="U38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>0.20200000000000001</v>
       </c>
       <c r="I39">
         <f>H67</f>
+        <v>1085068</v>
+      </c>
+      <c r="J39">
+        <f>I67</f>
         <v>1084700</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="12"/>
-        <v>1058243.9024390245</v>
-      </c>
       <c r="K39">
-        <f t="shared" si="7"/>
-        <v>213765.26829268297</v>
+        <f t="shared" si="11"/>
+        <v>219183.736</v>
       </c>
       <c r="O39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" t="s">
         <v>104</v>
       </c>
-      <c r="P39" t="s">
-        <v>105</v>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39">
+        <v>36244.133986808287</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39:V48" si="13">U39/U$49</f>
+        <v>6.0343012913444951E-3</v>
+      </c>
+      <c r="W39">
+        <f>V39*$U$52</f>
+        <v>24698.153813421366</v>
+      </c>
+      <c r="X39">
+        <f>V23/SUM(V23:V24)*W55</f>
+        <v>76413.176625321052</v>
       </c>
     </row>
     <row r="40" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>0.222</v>
       </c>
       <c r="I40">
         <f>H70</f>
+        <v>1291518</v>
+      </c>
+      <c r="J40">
+        <f>I70</f>
         <v>1337881</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="12"/>
-        <v>1305249.756097561</v>
-      </c>
       <c r="K40">
-        <f t="shared" si="7"/>
-        <v>289765.44585365854</v>
+        <f t="shared" si="11"/>
+        <v>286716.99599999998</v>
       </c>
       <c r="N40" t="s">
         <v>32</v>
@@ -9203,25 +9455,43 @@
         <f>ROUND(O40/O$50*O$51,0)</f>
         <v>9724</v>
       </c>
+      <c r="T40" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40">
+        <v>35919.131929972347</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="13"/>
+        <v>5.9801915605955545E-3</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ref="W40:W48" si="14">V40*$U$52</f>
+        <v>24476.684849855181</v>
+      </c>
+      <c r="X40">
+        <f>V24/SUM(V23:V24)*W55</f>
+        <v>95058.823374678948</v>
+      </c>
     </row>
     <row r="41" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>0.14799999999999999</v>
       </c>
       <c r="I41">
         <f>H68</f>
+        <v>905701</v>
+      </c>
+      <c r="J41">
+        <f>I68</f>
         <v>919710</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="12"/>
-        <v>897278.04878048785</v>
-      </c>
       <c r="K41">
-        <f t="shared" si="7"/>
-        <v>132797.15121951219</v>
+        <f t="shared" si="11"/>
+        <v>134043.74799999999</v>
       </c>
       <c r="N41" t="s">
         <v>33</v>
@@ -9230,28 +9500,42 @@
         <v>14364.814394885114</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P49" si="14">ROUND(O41/O$50*O$51,0)</f>
+        <f t="shared" ref="P41:P49" si="15">ROUND(O41/O$50*O$51,0)</f>
         <v>13843</v>
+      </c>
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41">
+        <v>106568.0600592486</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="13"/>
+        <v>1.7742561669859633E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="14"/>
+        <v>72619.595212268687</v>
       </c>
     </row>
     <row r="42" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>0.17599999999999999</v>
       </c>
       <c r="I42">
         <f>H71</f>
+        <v>1100143</v>
+      </c>
+      <c r="J42">
+        <f>I71</f>
         <v>1142656</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="12"/>
-        <v>1114786.3414634147</v>
-      </c>
       <c r="K42">
-        <f t="shared" si="7"/>
-        <v>196202.39609756097</v>
+        <f t="shared" si="11"/>
+        <v>193625.16799999998</v>
       </c>
       <c r="N42" t="s">
         <v>34</v>
@@ -9260,28 +9544,42 @@
         <v>10326.020576300254</v>
       </c>
       <c r="P42">
+        <f t="shared" si="15"/>
+        <v>9951</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42">
+        <v>229678.50561750276</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="13"/>
+        <v>3.8239272141147369E-2</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="14"/>
-        <v>9951</v>
+        <v>156511.81130283052</v>
       </c>
     </row>
     <row r="43" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="I43">
         <f>H69</f>
+        <v>1845314</v>
+      </c>
+      <c r="J43">
+        <f>I69</f>
         <v>1954816</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="12"/>
-        <v>1907137.5609756098</v>
-      </c>
       <c r="K43">
-        <f t="shared" si="7"/>
-        <v>156385.28</v>
+        <f t="shared" si="11"/>
+        <v>151315.74799999999</v>
       </c>
       <c r="N43" t="s">
         <v>35</v>
@@ -9290,28 +9588,42 @@
         <v>28525.363413535277</v>
       </c>
       <c r="P43">
+        <f t="shared" si="15"/>
+        <v>27490</v>
+      </c>
+      <c r="T43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43">
+        <v>249098.50170842346</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="13"/>
+        <v>4.1472515554605668E-2</v>
+      </c>
+      <c r="W43">
         <f t="shared" si="14"/>
-        <v>27490</v>
+        <v>169745.34726437883</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>0.14899999999999999</v>
       </c>
       <c r="I44">
         <f>H72</f>
+        <v>2750505</v>
+      </c>
+      <c r="J44">
+        <f>I72</f>
         <v>2934489</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="12"/>
-        <v>2862916.0975609757</v>
-      </c>
       <c r="K44">
-        <f t="shared" si="7"/>
-        <v>426574.49853658536</v>
+        <f t="shared" si="11"/>
+        <v>409825.245</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -9320,12 +9632,26 @@
         <v>46773.306428314987</v>
       </c>
       <c r="P44">
+        <f t="shared" si="15"/>
+        <v>45076</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44">
+        <v>762661.20041434467</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="13"/>
+        <v>0.12697578781144697</v>
+      </c>
+      <c r="W44">
         <f t="shared" si="14"/>
-        <v>45076</v>
+        <v>519706.82048073999</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.2">
-      <c r="H45" s="17"/>
+      <c r="H45" s="16"/>
       <c r="N45" t="s">
         <v>37</v>
       </c>
@@ -9333,13 +9659,30 @@
         <v>53837.082052317652</v>
       </c>
       <c r="P45">
+        <f t="shared" si="15"/>
+        <v>51883</v>
+      </c>
+      <c r="T45" t="s">
+        <v>38</v>
+      </c>
+      <c r="U45">
+        <v>972485.10462066624</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="13"/>
+        <v>0.16190945891441733</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="14"/>
-        <v>51883</v>
+        <v>662688.93895835348</v>
       </c>
     </row>
     <row r="46" spans="7:27" x14ac:dyDescent="0.2">
-      <c r="H46" s="19" t="s">
-        <v>78</v>
+      <c r="H46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="N46" t="s">
         <v>38</v>
@@ -9348,15 +9691,32 @@
         <v>44876.879667539899</v>
       </c>
       <c r="P46">
+        <f t="shared" si="15"/>
+        <v>43248</v>
+      </c>
+      <c r="T46" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46">
+        <v>1806403.1172200546</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="13"/>
+        <v>0.30074882371026135</v>
+      </c>
+      <c r="W46">
         <f t="shared" si="14"/>
-        <v>43248</v>
+        <v>1230952.9054931514</v>
       </c>
     </row>
     <row r="47" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47">
+        <v>2946312</v>
+      </c>
+      <c r="I47">
         <f>2970302</f>
         <v>2970302</v>
       </c>
@@ -9367,15 +9727,32 @@
         <v>45327.802116037696</v>
       </c>
       <c r="P47">
+        <f t="shared" si="15"/>
+        <v>43683</v>
+      </c>
+      <c r="T47" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47">
+        <v>690326.09884734789</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="13"/>
+        <v>0.11493268596897688</v>
+      </c>
+      <c r="W47">
         <f t="shared" si="14"/>
-        <v>43683</v>
+        <v>470414.88636358362</v>
       </c>
     </row>
     <row r="48" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48">
+        <v>2888925</v>
+      </c>
+      <c r="I48">
         <f>2941029</f>
         <v>2941029</v>
       </c>
@@ -9386,15 +9763,32 @@
         <v>13502.711302428132</v>
       </c>
       <c r="P48">
+        <f t="shared" si="15"/>
+        <v>13013</v>
+      </c>
+      <c r="T48" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48">
+        <v>1116967.5418701742</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="13"/>
+        <v>0.18596440137734474</v>
+      </c>
+      <c r="W48">
         <f t="shared" si="14"/>
-        <v>13013</v>
-      </c>
-    </row>
-    <row r="49" spans="7:16" x14ac:dyDescent="0.2">
+        <v>761144.85626141692</v>
+      </c>
+    </row>
+    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49">
+        <v>2547260</v>
+      </c>
+      <c r="I49">
         <f>2623611</f>
         <v>2623611</v>
       </c>
@@ -9405,15 +9799,26 @@
         <v>12544.10218312066</v>
       </c>
       <c r="P49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12089</v>
       </c>
-    </row>
-    <row r="50" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <f>SUM(U39:U48)</f>
+        <v>6006351.3962745434</v>
+      </c>
+      <c r="W49">
+        <f>SUM(W39:W48)</f>
+        <v>4092960</v>
+      </c>
+    </row>
+    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50">
+        <v>2920261</v>
+      </c>
+      <c r="I50">
         <f>2958649</f>
         <v>2958649</v>
       </c>
@@ -9429,223 +9834,372 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="51" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51">
+        <v>2875651</v>
+      </c>
+      <c r="I51">
         <v>2921052</v>
       </c>
       <c r="N51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O51">
         <v>270000</v>
       </c>
     </row>
-    <row r="52" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52">
+        <v>2546422</v>
+      </c>
+      <c r="I52">
         <f>2628874</f>
         <v>2628874</v>
       </c>
-    </row>
-    <row r="53" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T52" t="s">
+        <v>107</v>
+      </c>
+      <c r="U52" s="22">
+        <v>4092960</v>
+      </c>
+    </row>
+    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>57</v>
       </c>
       <c r="H53">
+        <v>2287717</v>
+      </c>
+      <c r="I53">
         <f>2360947</f>
         <v>2360947</v>
       </c>
-    </row>
-    <row r="54" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
+        <v>108</v>
+      </c>
+      <c r="U53" s="22">
+        <v>1321930</v>
+      </c>
+      <c r="V53">
+        <f>SUM(U41,U43,U45,U47)</f>
+        <v>2018477.7652356862</v>
+      </c>
+      <c r="W53" s="22">
+        <v>1321930</v>
+      </c>
+      <c r="X53">
+        <f>W53/$U$52</f>
+        <v>0.32297652554630391</v>
+      </c>
+    </row>
+    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>59</v>
       </c>
       <c r="H54">
+        <v>2504334</v>
+      </c>
+      <c r="I54">
         <f>2490594</f>
         <v>2490594</v>
       </c>
-    </row>
-    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T54" t="s">
+        <v>109</v>
+      </c>
+      <c r="U54" s="22">
+        <v>2599560</v>
+      </c>
+      <c r="V54">
+        <f>SUM(U42,U44,U46,U48)</f>
+        <v>3915710.3651220761</v>
+      </c>
+      <c r="W54" s="22">
+        <v>2599560</v>
+      </c>
+      <c r="X54">
+        <f>W54/$U$52</f>
+        <v>0.63512958836636568</v>
+      </c>
+    </row>
+    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
         <v>58</v>
       </c>
       <c r="H55">
+        <v>2304284</v>
+      </c>
+      <c r="I55">
         <f>2372843</f>
         <v>2372843</v>
       </c>
-    </row>
-    <row r="56" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T55" t="s">
+        <v>110</v>
+      </c>
+      <c r="U55" s="22">
+        <v>171472</v>
+      </c>
+      <c r="V55">
+        <f>SUM(U39:U40)</f>
+        <v>72163.265916780627</v>
+      </c>
+      <c r="W55" s="22">
+        <v>171472</v>
+      </c>
+      <c r="X55">
+        <f>W55/$U$52</f>
+        <v>4.1894374731245847E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56">
+        <v>2526937</v>
+      </c>
+      <c r="I56">
         <f>2528566</f>
         <v>2528566</v>
       </c>
     </row>
-    <row r="57" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
         <v>61</v>
       </c>
       <c r="H57">
+        <v>2751293</v>
+      </c>
+      <c r="I57">
         <f>2756645</f>
         <v>2756645</v>
       </c>
     </row>
-    <row r="58" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
         <v>63</v>
       </c>
       <c r="H58">
+        <v>2635257</v>
+      </c>
+      <c r="I58">
         <f>2709109</f>
         <v>2709109</v>
       </c>
-    </row>
-    <row r="59" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
+        <v>111</v>
+      </c>
+      <c r="U58" s="23">
+        <v>0.43331900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
         <v>62</v>
       </c>
       <c r="H59">
+        <v>2767012</v>
+      </c>
+      <c r="I59">
         <f>2730307</f>
         <v>2730307</v>
       </c>
-    </row>
-    <row r="60" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
+        <v>112</v>
+      </c>
+      <c r="U59" s="23">
+        <v>0.40161599999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>64</v>
       </c>
       <c r="H60">
+        <v>2618476</v>
+      </c>
+      <c r="I60">
         <f>2636133</f>
         <v>2636133</v>
       </c>
-    </row>
-    <row r="61" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>113</v>
+      </c>
+      <c r="U60" s="23">
+        <v>0.45428600000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>65</v>
       </c>
       <c r="H61">
+        <v>2142780</v>
+      </c>
+      <c r="I61">
         <f>2226629</f>
         <v>2226629</v>
       </c>
-    </row>
-    <row r="62" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
+        <v>114</v>
+      </c>
+      <c r="U61" s="23">
+        <v>0.39829599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>67</v>
       </c>
       <c r="H62">
+        <v>1725089</v>
+      </c>
+      <c r="I62">
         <f>1739843</f>
         <v>1739843</v>
       </c>
     </row>
-    <row r="63" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
         <v>69</v>
       </c>
       <c r="H63">
+        <v>1355592</v>
+      </c>
+      <c r="I63">
         <f>1402166</f>
         <v>1402166</v>
       </c>
     </row>
-    <row r="64" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>66</v>
       </c>
       <c r="H64">
+        <v>2100757</v>
+      </c>
+      <c r="I64">
         <f>2154507</f>
         <v>2154507</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>68</v>
       </c>
       <c r="H65">
+        <v>1667342</v>
+      </c>
+      <c r="I65">
         <f>1709343</f>
         <v>1709343</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>70</v>
       </c>
       <c r="H66">
+        <v>1431997</v>
+      </c>
+      <c r="I66">
         <f>1490204</f>
         <v>1490204</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>71</v>
       </c>
       <c r="H67">
+        <v>1085068</v>
+      </c>
+      <c r="I67">
         <v>1084700</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>73</v>
       </c>
       <c r="H68">
+        <v>905701</v>
+      </c>
+      <c r="I68">
         <v>919710</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69">
+        <f>702660+499711+314644+187084+141215</f>
+        <v>1845314</v>
+      </c>
+      <c r="I69">
         <f>724416+526610+338535+201946+163309</f>
         <v>1954816</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>72</v>
       </c>
       <c r="H70">
+        <v>1291518</v>
+      </c>
+      <c r="I70">
         <v>1337881</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>74</v>
       </c>
       <c r="H71">
+        <v>1100143</v>
+      </c>
+      <c r="I71">
         <v>1142656</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>76</v>
       </c>
       <c r="H72">
+        <f>902079+691114+478972+326871+351469</f>
+        <v>2750505</v>
+      </c>
+      <c r="I72">
         <f>940674+727015+515429+351076+400295</f>
         <v>2934489</v>
       </c>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
@@ -9655,12 +10209,12 @@
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -9671,37 +10225,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC4641-E00A-2C4A-81DC-364B65AEB612}">
-  <dimension ref="B4:H15"/>
+  <dimension ref="B4:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H15"/>
+    <sheetView topLeftCell="A2" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9712,27 +10269,27 @@
       </c>
       <c r="C5" s="7">
         <f>Stocks!E2</f>
-        <v>8326773</v>
+        <v>8382497</v>
       </c>
       <c r="D5" s="7">
         <f>Stocks!E14</f>
-        <v>176444</v>
+        <v>180539</v>
       </c>
       <c r="E5" s="7">
         <f>Stocks!E26</f>
-        <v>137626.32</v>
+        <v>140639.88099999999</v>
       </c>
       <c r="F5" s="7">
         <f>Stocks!E62</f>
-        <v>107005.83</v>
+        <v>53683.470249999998</v>
       </c>
       <c r="G5" s="7">
         <f>Stocks!E74</f>
-        <v>96799</v>
+        <v>24698</v>
       </c>
       <c r="H5" s="7">
         <f>Stocks!E86</f>
-        <v>75503</v>
+        <v>75751</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -9742,27 +10299,27 @@
       </c>
       <c r="C6" s="7">
         <f>Stocks!E3</f>
-        <v>8301049</v>
+        <v>8342334</v>
       </c>
       <c r="D6" s="7">
         <f>Stocks!E15</f>
-        <v>219874</v>
+        <v>224592</v>
       </c>
       <c r="E6" s="7">
         <f>Stocks!E27</f>
-        <v>195467.986</v>
+        <v>174957.16800000001</v>
       </c>
       <c r="F6" s="7">
         <f>Stocks!E63</f>
-        <v>126594.74650000001</v>
+        <v>62097.042000000001</v>
       </c>
       <c r="G6" s="7">
         <f>Stocks!E75</f>
-        <v>103637</v>
+        <v>24477</v>
       </c>
       <c r="H6" s="7">
         <f>Stocks!E87</f>
-        <v>80837</v>
+        <v>80965</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -9772,27 +10329,27 @@
       </c>
       <c r="C7" s="7">
         <f>Stocks!E4</f>
-        <v>4733211</v>
+        <v>4792051</v>
       </c>
       <c r="D7" s="7">
         <f>Stocks!E16</f>
-        <v>198559</v>
+        <v>204365</v>
       </c>
       <c r="E7" s="7">
         <f>Stocks!E28</f>
-        <v>154876.02000000002</v>
+        <v>178819.375</v>
       </c>
       <c r="F7" s="7">
         <f>Stocks!E64</f>
-        <v>110222.505</v>
+        <v>99169.84375</v>
       </c>
       <c r="G7" s="7">
         <f>Stocks!E76</f>
-        <v>95338</v>
+        <v>72620</v>
       </c>
       <c r="H7" s="7">
         <f>Stocks!E88</f>
-        <v>74364</v>
+        <v>75049</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -9802,27 +10359,27 @@
       </c>
       <c r="C8" s="7">
         <f>Stocks!E5</f>
-        <v>4781862</v>
+        <v>4831221</v>
       </c>
       <c r="D8" s="7">
         <f>Stocks!E17</f>
-        <v>458324</v>
+        <v>473693</v>
       </c>
       <c r="E8" s="7">
         <f>Stocks!E29</f>
-        <v>407450.03600000002</v>
+        <v>437218.63899999997</v>
       </c>
       <c r="F8" s="7">
         <f>Stocks!E65</f>
-        <v>260188.25900000002</v>
+        <v>226688.65974999999</v>
       </c>
       <c r="G8" s="7">
         <f>Stocks!E77</f>
-        <v>211101</v>
+        <v>156512</v>
       </c>
       <c r="H8" s="7">
         <f>Stocks!E89</f>
-        <v>164659</v>
+        <v>166867</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -9832,27 +10389,27 @@
       </c>
       <c r="C9" s="7">
         <f>Stocks!E6</f>
-        <v>5332443</v>
+        <v>5386550</v>
       </c>
       <c r="D9" s="7">
         <f>Stocks!E18</f>
-        <v>723818</v>
+        <v>741294</v>
       </c>
       <c r="E9" s="7">
         <f>Stocks!E30</f>
-        <v>564578.04</v>
+        <v>648632.25</v>
       </c>
       <c r="F9" s="7">
         <f>Stocks!E66</f>
-        <v>361454.76</v>
+        <v>289466.8125</v>
       </c>
       <c r="G9" s="7">
         <f>Stocks!E78</f>
-        <v>293747</v>
+        <v>169745</v>
       </c>
       <c r="H9" s="7">
         <f>Stocks!E90</f>
-        <v>229123</v>
+        <v>230087</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -9862,27 +10419,27 @@
       </c>
       <c r="C10" s="7">
         <f>Stocks!E7</f>
-        <v>5235551</v>
+        <v>5385488</v>
       </c>
       <c r="D10" s="7">
         <f>Stocks!E19</f>
-        <v>1434692</v>
+        <v>1498243</v>
       </c>
       <c r="E10" s="7">
         <f>Stocks!E31</f>
-        <v>1275441.1880000001</v>
+        <v>1382878.2889999999</v>
       </c>
       <c r="F10" s="7">
         <f>Stocks!E67</f>
-        <v>1039648.547</v>
+        <v>735499.82224999997</v>
       </c>
       <c r="G10" s="7">
         <f>Stocks!E79</f>
-        <v>961051</v>
+        <v>519707</v>
       </c>
       <c r="H10" s="7">
         <f>Stocks!E91</f>
-        <v>749620</v>
+        <v>767586</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -9892,27 +10449,27 @@
       </c>
       <c r="C11" s="7">
         <f>Stocks!E8</f>
-        <v>5237696</v>
+        <v>5223461</v>
       </c>
       <c r="D11" s="7">
         <f>Stocks!E20</f>
-        <v>1089795</v>
+        <v>1104201</v>
       </c>
       <c r="E11" s="7">
         <f>Stocks!E32</f>
-        <v>850040.1</v>
+        <v>966175.875</v>
       </c>
       <c r="F11" s="7">
         <f>Stocks!E68</f>
-        <v>673376.02500000002</v>
+        <v>738560.71875</v>
       </c>
       <c r="G11" s="7">
         <f>Stocks!E80</f>
-        <v>614488</v>
+        <v>662689</v>
       </c>
       <c r="H11" s="7">
         <f>Stocks!E92</f>
-        <v>479301</v>
+        <v>475921</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -9922,27 +10479,27 @@
       </c>
       <c r="C12" s="7">
         <f>Stocks!E9</f>
-        <v>5223467</v>
+        <v>5200096</v>
       </c>
       <c r="D12" s="7">
         <f>Stocks!E21</f>
-        <v>1648736</v>
+        <v>1669314</v>
       </c>
       <c r="E12" s="7">
         <f>Stocks!E33</f>
-        <v>1465726.304</v>
+        <v>1540776.8219999999</v>
       </c>
       <c r="F12" s="7">
         <f>Stocks!E69</f>
-        <v>1219547.5759999999</v>
+        <v>1308408.9554999999</v>
       </c>
       <c r="G12" s="7">
         <f>Stocks!E81</f>
-        <v>1137488</v>
+        <v>1230953</v>
       </c>
       <c r="H12" s="7">
         <f>Stocks!E93</f>
-        <v>887241</v>
+        <v>880652</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -9952,27 +10509,27 @@
       </c>
       <c r="C13" s="7">
         <f>Stocks!E10</f>
-        <v>3862660</v>
+        <v>3836083</v>
       </c>
       <c r="D13" s="7">
         <f>Stocks!E22</f>
-        <v>444060</v>
+        <v>452777</v>
       </c>
       <c r="E13" s="7">
         <f>Stocks!E34</f>
-        <v>346366.8</v>
+        <v>396179.875</v>
       </c>
       <c r="F13" s="7">
         <f>Stocks!E70</f>
-        <v>335416.95</v>
+        <v>451856.21875</v>
       </c>
       <c r="G13" s="7">
         <f>Stocks!E82</f>
-        <v>331767</v>
+        <v>470415</v>
       </c>
       <c r="H13" s="7">
         <f>Stocks!E94</f>
-        <v>258778</v>
+        <v>258721</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -9982,27 +10539,27 @@
       </c>
       <c r="C14" s="7">
         <f>Stocks!E11</f>
-        <v>5282952</v>
+        <v>5142166</v>
       </c>
       <c r="D14" s="7">
         <f>Stocks!E23</f>
-        <v>805697</v>
+        <v>798835</v>
       </c>
       <c r="E14" s="7">
         <f>Stocks!E35</f>
-        <v>716264.63300000003</v>
+        <v>737324.70499999996</v>
       </c>
       <c r="F14" s="7">
         <f>Stocks!E71</f>
-        <v>599802.65824999998</v>
+        <v>755189.92625000002</v>
       </c>
       <c r="G14" s="7">
         <f>Stocks!E83</f>
-        <v>560982</v>
+        <v>761145</v>
       </c>
       <c r="H14" s="7">
         <f>Stocks!E95</f>
-        <v>437566</v>
+        <v>425394</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -10011,27 +10568,52 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" ref="C15:H15" si="0">SUM(C5:C14)</f>
-        <v>56317664</v>
+        <v>56521947</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>7199999</v>
+        <v>7347853</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>6113837.4270000001</v>
+        <v>6603602.8789999997</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>4833257.8567500003</v>
+        <v>4720621.4697500002</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>4406398</v>
+        <v>4092961</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>3436992</v>
+        <v>3436993</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
